--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC297B1-9587-1047-B5CC-C030F7C3842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC77B47-4DA0-B54B-8292-FFA795FB4EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
   <sheets>
     <sheet name="코인모음" sheetId="1" r:id="rId1"/>
@@ -1522,7 +1522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1538,9 +1538,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1562,15 +1559,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,21 +1625,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1662,9 +1638,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1733,6 +1706,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2091,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FAB26-9F55-3D4C-959C-DBD06003ED40}">
   <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2104,1419 +2098,1419 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="39" t="s">
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="39" t="s">
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="39" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="21" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16" t="s">
+      <c r="W3" s="59"/>
+      <c r="X3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="30" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <f>LEFT(D4,LEN(D4)-4)</f>
         <v>BTC</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="str">
+      <c r="E4" s="19" t="str">
         <f>"KRW-"&amp;LEFT(D4,3)</f>
         <v>KRW-BTC</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="11" t="str">
+      <c r="G4" s="10" t="str">
         <f>LEFT(H4,LEN(H4)-4)</f>
         <v>LINK</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="11" t="str">
+      <c r="K4" s="10" t="str">
         <f>LEFT(L4,LEN(L4)-4)</f>
         <v>ATOM</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="11" t="str">
-        <f>LEFT(P4,LEN(P4)-4)</f>
+      <c r="O4" s="10" t="str">
+        <f t="shared" ref="O4:O15" si="0">LEFT(P4,LEN(P4)-4)</f>
         <v>KAVA</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="S4" s="11" t="str">
+      <c r="S4" s="10" t="str">
         <f>LEFT(T4,LEN(T4)-4)</f>
         <v>CELO</v>
       </c>
-      <c r="T4" s="11" t="str">
+      <c r="T4" s="10" t="str">
         <f>RIGHT(U4,4)&amp;"USDT"</f>
         <v>CELOUSDT</v>
       </c>
-      <c r="U4" s="35" t="s">
+      <c r="U4" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="V4" s="24" t="s">
+      <c r="V4" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="W4" s="11" t="str">
-        <f>LEFT(X4,LEN(X4)-4)</f>
+      <c r="W4" s="10" t="str">
+        <f t="shared" ref="W4:W18" si="1">LEFT(X4,LEN(X4)-4)</f>
         <v>SXP</v>
       </c>
-      <c r="X4" s="11" t="str">
+      <c r="X4" s="10" t="str">
         <f>RIGHT(Y4,3)&amp;"USDT"</f>
         <v>SXPUSDT</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="30" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="str">
-        <f t="shared" ref="C5:C10" si="0">LEFT(D5,LEN(D5)-4)</f>
+      <c r="C5" s="10" t="str">
+        <f t="shared" ref="C5:C10" si="2">LEFT(D5,LEN(D5)-4)</f>
         <v>ETH</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="str">
-        <f t="shared" ref="E5:E10" si="1">"KRW-"&amp;LEFT(D5,3)</f>
+      <c r="E5" s="19" t="str">
+        <f t="shared" ref="E5:E10" si="3">"KRW-"&amp;LEFT(D5,3)</f>
         <v>KRW-ETH</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G17" si="2">LEFT(H5,LEN(H5)-4)</f>
+      <c r="G5" s="10" t="str">
+        <f t="shared" ref="G5:G17" si="4">LEFT(H5,LEN(H5)-4)</f>
         <v>SUI</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="11" t="str">
-        <f t="shared" ref="K5:K21" si="3">LEFT(L5,LEN(L5)-4)</f>
+      <c r="K5" s="10" t="str">
+        <f t="shared" ref="K5:K21" si="5">LEFT(L5,LEN(L5)-4)</f>
         <v>STX</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="O5" s="11" t="str">
-        <f>LEFT(P5,LEN(P5)-4)</f>
+      <c r="O5" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>1INCH</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="S5" s="11" t="str">
+      <c r="S5" s="10" t="str">
         <f>LEFT(T5,LEN(T5)-4)</f>
         <v>ANKR</v>
       </c>
-      <c r="T5" s="11" t="str">
-        <f t="shared" ref="T5:T6" si="4">RIGHT(U5,4)&amp;"USDT"</f>
+      <c r="T5" s="10" t="str">
+        <f t="shared" ref="T5:T6" si="6">RIGHT(U5,4)&amp;"USDT"</f>
         <v>ANKRUSDT</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="V5" s="24" t="s">
+      <c r="V5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="W5" s="11" t="str">
-        <f>LEFT(X5,LEN(X5)-4)</f>
+      <c r="W5" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>STORJ</v>
       </c>
-      <c r="X5" s="11" t="str">
+      <c r="X5" s="10" t="str">
         <f>RIGHT(Y5,5)&amp;"USDT"</f>
         <v>STORJUSDT</v>
       </c>
-      <c r="Y5" s="33" t="s">
+      <c r="Y5" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30" customHeight="1">
-      <c r="A6" s="9">
-        <f t="shared" ref="A6:A41" si="5">A5+1</f>
+      <c r="A6" s="8">
+        <f t="shared" ref="A6:A22" si="7">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>XRP</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>KRW-XRP</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>XLM</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>THETA</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>XRP</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="22" t="str">
+        <v>ZRO</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="S6" s="10" t="str">
+        <f t="shared" ref="S6:S7" si="8">LEFT(T6,LEN(T6)-4)</f>
+        <v>QTUM</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>QTUMUSDT</v>
+      </c>
+      <c r="U6" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="W6" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>KRW-XRP</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>XLM</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>THETA</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="11" t="str">
-        <f>LEFT(P6,LEN(P6)-4)</f>
-        <v>ZRO</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="R6" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="S6" s="11" t="str">
-        <f t="shared" ref="S6:S7" si="6">LEFT(T6,LEN(T6)-4)</f>
-        <v>QTUM</v>
-      </c>
-      <c r="T6" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>QTUMUSDT</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="V6" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="W6" s="11" t="str">
-        <f>LEFT(X6,LEN(X6)-4)</f>
         <v>SNT</v>
       </c>
-      <c r="X6" s="11" t="str">
+      <c r="X6" s="10" t="str">
         <f>RIGHT(Y6,3)&amp;"USDT"</f>
         <v>SNTUSDT</v>
       </c>
-      <c r="Y6" s="33" t="s">
+      <c r="Y6" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1">
-      <c r="A7" s="9">
-        <f t="shared" si="5"/>
+      <c r="A7" s="8">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f t="shared" si="0"/>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>DOGE</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="22" t="str">
+      <c r="E7" s="19" t="str">
         <f>"KRW-"&amp;LEFT(D7,4)</f>
         <v>KRW-DOGE</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="G7" s="10" t="str">
+        <f t="shared" si="4"/>
         <v>SHIB</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="11" t="str">
-        <f t="shared" si="3"/>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="5"/>
         <v>IMX</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="11" t="str">
-        <f>LEFT(P7,LEN(P7)-4)</f>
+      <c r="O7" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>BLUR</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="S7" s="11" t="str">
-        <f t="shared" si="6"/>
+      <c r="S7" s="10" t="str">
+        <f t="shared" si="8"/>
         <v>SC</v>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="10" t="str">
         <f>RIGHT(U7,2)&amp;"USDT"</f>
         <v>SCUSDT</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="U7" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="V7" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="W7" s="11" t="str">
-        <f>LEFT(X7,LEN(X7)-4)</f>
+      <c r="W7" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>LSK</v>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="10" t="str">
         <f>RIGHT(Y7,3)&amp;"USDT"</f>
         <v>LSKUSDT</v>
       </c>
-      <c r="Y7" s="33" t="s">
+      <c r="Y7" s="30" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>SOL</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>KRW-SOL</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>HBAR</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="str">
+        <v>GRT</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>SOL</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>KRW-SOL</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>HBAR</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>GRT</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="11" t="str">
-        <f>LEFT(P8,LEN(P8)-4)</f>
         <v>TFUEL</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="S8" s="11" t="str">
-        <f>LEFT(T8,LEN(T8)-4)</f>
+      <c r="S8" s="10" t="str">
+        <f t="shared" ref="S8:S15" si="9">LEFT(T8,LEN(T8)-4)</f>
         <v>GAS</v>
       </c>
-      <c r="T8" s="11" t="str">
+      <c r="T8" s="10" t="str">
         <f>RIGHT(U8,3)&amp;"USDT"</f>
         <v>GASUSDT</v>
       </c>
-      <c r="U8" s="35" t="s">
+      <c r="U8" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="W8" s="11" t="str">
-        <f>LEFT(X8,LEN(X8)-4)</f>
+      <c r="W8" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>CVC</v>
       </c>
-      <c r="X8" s="11" t="str">
+      <c r="X8" s="10" t="str">
         <f>RIGHT(Y8,3)&amp;"USDT"</f>
         <v>CVCUSDT</v>
       </c>
-      <c r="Y8" s="33" t="s">
+      <c r="Y8" s="30" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>ADA</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>KRW-ADA</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>DOT</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="11" t="str">
+        <v>SEI</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>ADA</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>KRW-ADA</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>DOT</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>SEI</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="11" t="str">
-        <f>LEFT(P9,LEN(P9)-4)</f>
         <v>ASTR</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="S9" s="11" t="str">
-        <f>LEFT(T9,LEN(T9)-4)</f>
+      <c r="S9" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>GMT</v>
       </c>
-      <c r="T9" s="11" t="str">
+      <c r="T9" s="10" t="str">
         <f>RIGHT(U9,3)&amp;"USDT"</f>
         <v>GMTUSDT</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="V9" s="24" t="s">
+      <c r="V9" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="W9" s="11" t="str">
-        <f>LEFT(X9,LEN(X9)-4)</f>
+      <c r="W9" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>POWR</v>
       </c>
-      <c r="X9" s="11" t="str">
+      <c r="X9" s="10" t="str">
         <f>RIGHT(Y9,4)&amp;"USDT"</f>
         <v>POWRUSDT</v>
       </c>
-      <c r="Y9" s="33" t="s">
+      <c r="Y9" s="30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>TRX</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>KRW-TRX</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>BCH</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="19" t="str">
+        <v>SAND</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>TRX</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>KRW-TRX</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>BCH</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>SAND</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="11" t="str">
-        <f>LEFT(P10,LEN(P10)-4)</f>
         <v>ZIL</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="Q10" s="35" t="s">
+      <c r="Q10" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="S10" s="11" t="str">
-        <f>LEFT(T10,LEN(T10)-4)</f>
+      <c r="S10" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>ELF</v>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="10" t="str">
         <f>RIGHT(U10,3)&amp;"USDT"</f>
         <v>ELFUSDT</v>
       </c>
-      <c r="U10" s="35" t="s">
+      <c r="U10" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="V10" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="W10" s="11" t="str">
-        <f>LEFT(X10,LEN(X10)-4)</f>
+      <c r="W10" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>IQ</v>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="10" t="str">
         <f>RIGHT(Y10,2)&amp;"USDT"</f>
         <v>IQUSDT</v>
       </c>
-      <c r="Y10" s="33" t="s">
+      <c r="Y10" s="30" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1">
-      <c r="A11" s="9">
-        <f t="shared" si="5"/>
+      <c r="A11" s="8">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="24" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="G11" s="10" t="str">
         <f>LEFT(H11,LEN(H11)-4)</f>
         <v>NEAR</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="11" t="str">
+      <c r="K11" s="10" t="str">
         <f>LEFT(L11,LEN(L11)-4)</f>
         <v>EOS</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="O11" s="11" t="str">
-        <f>LEFT(P11,LEN(P11)-4)</f>
+      <c r="O11" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>ZRX</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="S11" s="11" t="str">
-        <f>LEFT(T11,LEN(T11)-4)</f>
+      <c r="S11" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>T</v>
       </c>
-      <c r="T11" s="11" t="str">
+      <c r="T11" s="10" t="str">
         <f>RIGHT(U11,1)&amp;"USDT"</f>
         <v>TUSDT</v>
       </c>
-      <c r="U11" s="35" t="s">
+      <c r="U11" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="V11" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="W11" s="11" t="str">
-        <f>LEFT(X11,LEN(X11)-4)</f>
+      <c r="W11" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>IOST</v>
       </c>
-      <c r="X11" s="11" t="str">
+      <c r="X11" s="10" t="str">
         <f>RIGHT(Y11,4)&amp;"USDT"</f>
         <v>IOSTUSDT</v>
       </c>
-      <c r="Y11" s="33" t="s">
+      <c r="Y11" s="30" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>APT</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>APT</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>XTZ</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="O12" s="11" t="str">
-        <f>LEFT(P12,LEN(P12)-4)</f>
+      <c r="O12" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>JST</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="Q12" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="R12" s="24" t="s">
+      <c r="R12" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="S12" s="11" t="str">
-        <f>LEFT(T12,LEN(T12)-4)</f>
+      <c r="S12" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>MASK</v>
       </c>
-      <c r="T12" s="11" t="str">
+      <c r="T12" s="10" t="str">
         <f>RIGHT(U12,4)&amp;"USDT"</f>
         <v>MASKUSDT</v>
       </c>
-      <c r="U12" s="35" t="s">
+      <c r="U12" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="V12" s="24" t="s">
+      <c r="V12" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="W12" s="11" t="str">
-        <f>LEFT(X12,LEN(X12)-4)</f>
+      <c r="W12" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>STPT</v>
       </c>
-      <c r="X12" s="11" t="str">
+      <c r="X12" s="10" t="str">
         <f>RIGHT(Y12,4)&amp;"USDT"</f>
         <v>STPTUSDT</v>
       </c>
-      <c r="Y12" s="33" t="s">
+      <c r="Y12" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>AAVE</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>AAVE</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>IOTA</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="O13" s="11" t="str">
-        <f>LEFT(P13,LEN(P13)-4)</f>
+      <c r="O13" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>GLM</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q13" s="35" t="s">
+      <c r="Q13" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="S13" s="11" t="str">
-        <f>LEFT(T13,LEN(T13)-4)</f>
+      <c r="S13" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>POLYX</v>
       </c>
-      <c r="T13" s="11" t="str">
+      <c r="T13" s="10" t="str">
         <f>RIGHT(U13,5)&amp;"USDT"</f>
         <v>POLYXUSDT</v>
       </c>
-      <c r="U13" s="35" t="s">
+      <c r="U13" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="V13" s="24" t="s">
+      <c r="V13" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="W13" s="11" t="str">
-        <f>LEFT(X13,LEN(X13)-4)</f>
+      <c r="W13" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>STRAX</v>
       </c>
-      <c r="X13" s="11" t="str">
+      <c r="X13" s="10" t="str">
         <f>RIGHT(Y13,5)&amp;"USDT"</f>
         <v>STRAXUSDT</v>
       </c>
-      <c r="Y13" s="33" t="s">
+      <c r="Y13" s="30" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>VET</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>VET</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>FLOW</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="O14" s="11" t="str">
-        <f>LEFT(P14,LEN(P14)-4)</f>
+      <c r="O14" s="10" t="str">
+        <f t="shared" si="0"/>
         <v>ID</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="S14" s="11" t="str">
-        <f>LEFT(T14,LEN(T14)-4)</f>
+      <c r="S14" s="10" t="str">
+        <f t="shared" si="9"/>
         <v>HIVE</v>
       </c>
-      <c r="T14" s="11" t="str">
+      <c r="T14" s="10" t="str">
         <f>RIGHT(U14,4)&amp;"USDT"</f>
         <v>HIVEUSDT</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="V14" s="24" t="s">
+      <c r="V14" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="W14" s="11" t="str">
-        <f>LEFT(X14,LEN(X14)-4)</f>
+      <c r="W14" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>ONG</v>
       </c>
-      <c r="X14" s="11" t="str">
+      <c r="X14" s="10" t="str">
         <f>RIGHT(Y14,3)&amp;"USDT"</f>
         <v>ONGUSDT</v>
       </c>
-      <c r="Y14" s="33" t="s">
+      <c r="Y14" s="30" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ETC</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>ETC</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>ENS</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="O15" s="19" t="str">
-        <f>LEFT(P15,LEN(P15)-4)</f>
+      <c r="O15" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>BAT</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Q15" s="36" t="s">
+      <c r="Q15" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="S15" s="19" t="str">
-        <f>LEFT(T15,LEN(T15)-4)</f>
+      <c r="S15" s="16" t="str">
+        <f t="shared" si="9"/>
         <v>ONT</v>
       </c>
-      <c r="T15" s="19" t="str">
+      <c r="T15" s="16" t="str">
         <f>RIGHT(U15,3)&amp;"USDT"</f>
         <v>ONTUSDT</v>
       </c>
-      <c r="U15" s="36" t="s">
+      <c r="U15" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="V15" s="24" t="s">
+      <c r="V15" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="W15" s="11" t="str">
-        <f>LEFT(X15,LEN(X15)-4)</f>
+      <c r="W15" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>PUNDIX</v>
       </c>
-      <c r="X15" s="11" t="str">
+      <c r="X15" s="10" t="str">
         <f>RIGHT(Y15,6)&amp;"USDT"</f>
         <v>PUNDIXUSDT</v>
       </c>
-      <c r="Y15" s="33" t="s">
+      <c r="Y15" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>ALGO</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>ALGO</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>NEO</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="24" t="s">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="W16" s="11" t="str">
-        <f>LEFT(X16,LEN(X16)-4)</f>
+      <c r="W16" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>STEEM</v>
       </c>
-      <c r="X16" s="11" t="str">
+      <c r="X16" s="10" t="str">
         <f>RIGHT(Y16,5)&amp;"USDT"</f>
         <v>STEEMUSDT</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>ARB</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>ARB</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>MANA</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="24" t="s">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="W17" s="11" t="str">
-        <f>LEFT(X17,LEN(X17)-4)</f>
+      <c r="W17" s="10" t="str">
+        <f t="shared" si="1"/>
         <v>KNC</v>
       </c>
-      <c r="X17" s="11" t="str">
+      <c r="X17" s="10" t="str">
         <f>RIGHT(Y17,3)&amp;"USDT"</f>
         <v>KNCUSDT</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Y17" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="9">
-        <f t="shared" si="5"/>
+      <c r="A18" s="8">
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="27" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="11" t="str">
+      <c r="K18" s="10" t="str">
         <f>LEFT(L18,LEN(L18)-4)</f>
         <v>AXS</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="25" t="s">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="W18" s="19" t="str">
-        <f>LEFT(X18,LEN(X18)-4)</f>
+      <c r="W18" s="16" t="str">
+        <f t="shared" si="1"/>
         <v>ARK</v>
       </c>
-      <c r="X18" s="19" t="str">
+      <c r="X18" s="16" t="str">
         <f>RIGHT(Y18,3)&amp;"USDT"</f>
         <v>ARKUSDT</v>
       </c>
-      <c r="Y18" s="34" t="s">
+      <c r="Y18" s="31" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>CHZ</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="20" spans="1:25" ht="30" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="11" t="str">
-        <f t="shared" si="3"/>
         <v>XEC</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
     </row>
     <row r="21" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="19" t="str">
-        <f t="shared" si="3"/>
         <v>MINA</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
     </row>
     <row r="22" spans="1:25" ht="30" customHeight="1">
-      <c r="A22" s="9">
-        <f t="shared" si="5"/>
+      <c r="A22" s="8">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1">
       <c r="A23" s="3"/>
@@ -3529,381 +3523,327 @@
     </row>
     <row r="25" spans="1:25" ht="30" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="42" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="42" t="s">
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="O25" s="43" t="s">
+      <c r="O25" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="42" t="s">
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="S25" s="43" t="s">
+      <c r="S25" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="43" t="s">
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="W25" s="43" t="s">
+      <c r="W25" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="44"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36"/>
     </row>
     <row r="26" spans="1:25" ht="30" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="37"/>
+      <c r="C26" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="5" t="s">
+      <c r="I26" s="38"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="5" t="s">
+      <c r="M26" s="38"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="5" t="s">
+      <c r="Q26" s="38"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5" t="s">
+      <c r="U26" s="38"/>
+      <c r="W26" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="46"/>
+      <c r="Y26" s="38"/>
     </row>
     <row r="27" spans="1:25" ht="30" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="5" t="s">
+      <c r="B27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="5" t="s">
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="5" t="s">
+      <c r="M27" s="38"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="5" t="s">
+      <c r="Q27" s="38"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T27" s="5"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5" t="s">
+      <c r="U27" s="38"/>
+      <c r="W27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="46"/>
+      <c r="Y27" s="38"/>
     </row>
     <row r="28" spans="1:25" ht="30" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="5" t="s">
+      <c r="B28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="5" t="s">
+      <c r="I28" s="38"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5" t="s">
+      <c r="M28" s="38"/>
+      <c r="N28" s="37"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="37"/>
+      <c r="U28" s="38"/>
+      <c r="W28" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="46"/>
+      <c r="Y28" s="38"/>
     </row>
     <row r="29" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="6" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="49"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="49"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="40"/>
     </row>
     <row r="30" spans="1:25" ht="30" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="45" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="45" t="s">
+      <c r="I30" s="38"/>
+      <c r="J30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="45" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="45" t="s">
+      <c r="Q30" s="38"/>
+      <c r="R30" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="5" t="s">
+      <c r="U30" s="38"/>
+      <c r="V30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="W30" s="5" t="s">
+      <c r="W30" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="46"/>
+      <c r="Y30" s="38"/>
     </row>
     <row r="31" spans="1:25" ht="30" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="5" t="s">
+      <c r="I31" s="38"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="5" t="s">
+      <c r="M31" s="38"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="5" t="s">
+      <c r="Q31" s="38"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5" t="s">
+      <c r="U31" s="38"/>
+      <c r="W31" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="46"/>
+      <c r="Y31" s="38"/>
     </row>
     <row r="32" spans="1:25" ht="30" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="5" t="s">
+      <c r="B32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="5" t="s">
+      <c r="I32" s="38"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="5" t="s">
+      <c r="M32" s="38"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="5" t="s">
+      <c r="Q32" s="38"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="T32" s="5"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5" t="s">
+      <c r="U32" s="38"/>
+      <c r="W32" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="46"/>
+      <c r="Y32" s="38"/>
     </row>
     <row r="33" spans="1:25" ht="30" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="5" t="s">
+      <c r="B33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="5" t="s">
+      <c r="I33" s="38"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5" t="s">
+      <c r="L33" s="4"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="37"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="37"/>
+      <c r="U33" s="38"/>
+      <c r="W33" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="46"/>
+      <c r="Y33" s="38"/>
     </row>
     <row r="34" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="6" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="49"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="40"/>
     </row>
     <row r="35" spans="1:25" ht="30" customHeight="1">
       <c r="A35" s="3"/>
@@ -3991,21 +3931,22 @@
     <row r="55" spans="2:26" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4013,433 +3954,433 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96670032-8F68-2D4F-8F50-C25E30D95E14}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="52"/>
-    <col min="3" max="3" width="40.7109375" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="52"/>
+    <col min="1" max="2" width="10.7109375" style="43"/>
+    <col min="3" max="3" width="40.7109375" style="43" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="64" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="54" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="53">
+      <c r="A3" s="6"/>
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="55" t="b">
+      <c r="D3" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="55" t="b">
+      <c r="E3" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="56" t="b">
+      <c r="F3" s="46" t="b">
         <v>1</v>
       </c>
+      <c r="G3" s="47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="53">
+      <c r="A4" s="6"/>
+      <c r="B4" s="44">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="56" t="b">
+      <c r="D4" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="53">
-        <f t="shared" ref="B5:B21" si="0">B4+1</f>
+      <c r="A5" s="6"/>
+      <c r="B5" s="44">
+        <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="D5" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="56" t="b">
+      <c r="D5" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="53">
+      <c r="A6" s="6"/>
+      <c r="B6" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="D6" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="56" t="b">
+      <c r="D6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="53">
+      <c r="A7" s="6"/>
+      <c r="B7" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="56" t="b">
+      <c r="C7" s="45"/>
+      <c r="D7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="53">
+      <c r="A8" s="6"/>
+      <c r="B8" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="56" t="b">
+      <c r="C8" s="45"/>
+      <c r="D8" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="53">
+      <c r="A9" s="6"/>
+      <c r="B9" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="56" t="b">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="53">
+      <c r="A10" s="6"/>
+      <c r="B10" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="56" t="b">
+      <c r="C10" s="45"/>
+      <c r="D10" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="53">
+      <c r="A11" s="6"/>
+      <c r="B11" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="56" t="b">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="53">
+      <c r="A12" s="6"/>
+      <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="56" t="b">
+      <c r="C12" s="45"/>
+      <c r="D12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="53">
+      <c r="A13" s="6"/>
+      <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="56" t="b">
+      <c r="C13" s="45"/>
+      <c r="D13" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="53">
+      <c r="A14" s="6"/>
+      <c r="B14" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="56" t="b">
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="53">
+      <c r="A15" s="6"/>
+      <c r="B15" s="44">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="56" t="b">
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="53">
+      <c r="A16" s="6"/>
+      <c r="B16" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="56" t="b">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="53">
+      <c r="A17" s="6"/>
+      <c r="B17" s="44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="56" t="b">
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="53">
+      <c r="A18" s="6"/>
+      <c r="B18" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="56" t="b">
+      <c r="C18" s="45"/>
+      <c r="D18" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="53">
+      <c r="A19" s="6"/>
+      <c r="B19" s="44">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="56" t="b">
+      <c r="C19" s="45"/>
+      <c r="D19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="53">
+      <c r="A20" s="6"/>
+      <c r="B20" s="44">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="56" t="b">
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="57">
+      <c r="A21" s="6"/>
+      <c r="B21" s="48">
         <f>B20+1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="60" t="b">
+      <c r="C21" s="49"/>
+      <c r="D21" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC77B47-4DA0-B54B-8292-FFA795FB4EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D234DF4-20E2-7F46-A9F9-881F6C677F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
@@ -395,574 +395,592 @@
     <t>KRW-ARB</t>
   </si>
   <si>
+    <t>GRTUSDT,SEIUSDT,SANDUSDT,EOSUSDT</t>
+  </si>
+  <si>
+    <t>XTZUSDT,IOTAUSDT,FLOWUSDT,ENSUSDT</t>
+  </si>
+  <si>
+    <t>카바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인치네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어제로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쎄타퓨엘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질리카</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로엑스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골렘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페이스아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이직어텐션토큰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KAVA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-1INCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ZRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BLUR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-TFUEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ASTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ZIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-JST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GLM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAVAUSDT</t>
+  </si>
+  <si>
+    <t>1INCHUSDT</t>
+  </si>
+  <si>
+    <t>ZROUSDT</t>
+  </si>
+  <si>
+    <t>BLURUSDT</t>
+  </si>
+  <si>
+    <t>TFUELUSDT</t>
+  </si>
+  <si>
+    <t>ASTRUSDT</t>
+  </si>
+  <si>
+    <t>ZILUSDT</t>
+  </si>
+  <si>
+    <t>JSTUSDT</t>
+  </si>
+  <si>
+    <t>GLMUSDT</t>
+  </si>
+  <si>
+    <t>IDUSDT</t>
+  </si>
+  <si>
+    <t>BATUSDT</t>
+  </si>
+  <si>
+    <t>KRW-ZRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZRXUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CELO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앵커</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ANKR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀀텀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-QTUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시아코인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태픈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ELF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레스홀드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스크네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-MASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리메쉬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-POLYX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-HIVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온돌로지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CELOUSDT,ANKRUSDT,QTUMUSDT,SCUSDT</t>
+  </si>
+  <si>
+    <t>솔라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SXP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STORJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이터스네트워크토큰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-LSK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시빅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CVC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워렛저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-POWR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이큐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-IQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이오에스티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-IOST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스티피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트라티스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STRAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온톨로지가스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ONG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀디엑스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-PUNDIX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STEEM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이버네트워크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KNC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 7 : 보라그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알트(~1조) : 초록색그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너(~5000억) : 오렌지그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너(~3000억) : 오렌지그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너(~1500억): 오렌지그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>준메이저(~5조) : 하늘색그룹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라그룹: 7개 (시가총액 상위 7위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘색그룹: 14개(시가총액 8위~21위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록색그룹 : 18개(시가총액 22위~40위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지그룹 : 39개(시가총액 41위~79위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력위한 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이낸스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BTC,KRW-ETH,KRW-XRP,KRW-DOGE</t>
+  </si>
+  <si>
+    <t>KRW-SOL,KRW-ADA,KRW-TRX</t>
+  </si>
+  <si>
+    <t>KRW-ALGO,KRW-ARB</t>
+  </si>
+  <si>
+    <t>BTCUSDT,ETHUSDT,XRPUSDT,DOGEUSDT</t>
+  </si>
+  <si>
+    <t>LINKUSDT,SUIUSDT,XLMUSDT,SHIBUSDT</t>
+  </si>
+  <si>
+    <t>ATOMUSDT,STXUSDT,THETAUSDT,IMXUSDT</t>
+  </si>
+  <si>
+    <t>KAVAUSDT,1INCHUSDT,ZROUSDT,BLURUSDT</t>
+  </si>
+  <si>
+    <t>SXPUSDT,STORJUSDT,SNTUSDT,LSKUSDT</t>
+  </si>
+  <si>
+    <t>SOLUSDT,ADAUSDT,TRXUSDT</t>
+  </si>
+  <si>
+    <t>HBARUSDT,DOTUSDT,BCHUSDT,NEARUSDT</t>
+  </si>
+  <si>
+    <t>TFUELUSDT,ASTRUSDT,ZILUSDT,ZRXUSDT</t>
+  </si>
+  <si>
+    <t>GASUSDT,GMTUSDT,ELFUSDT,TUSDT</t>
+  </si>
+  <si>
+    <t>CVCUSDT,POWRUSDT,IQUSDT,IOSTUSDT</t>
+  </si>
+  <si>
+    <t>APTUSDT,AAVEUSDT,VETUSDT,ETCUSDT</t>
+  </si>
+  <si>
+    <t>JSTUSDT,GLMUSDT,IDUSDT,BATUSDT</t>
+  </si>
+  <si>
+    <t>MASKUSDT,POLYXUSDT,HIVEUSDT,ONTUSDT</t>
+  </si>
+  <si>
+    <t>STPTUSDT,STRAXUSDT,ONGUSDT,PUNDIXUSDT</t>
+  </si>
+  <si>
+    <t>ALGOUSDT,ARBUSDT</t>
+  </si>
+  <si>
+    <t>NEOUSDT,MANAUSDT,AXSUSDT,CHZUSDT</t>
+  </si>
+  <si>
+    <t>STEEMUSDT,KNCUSDT,ARKUSDT</t>
+  </si>
+  <si>
+    <t>XECUSDT,MINAUSDT</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이값 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이값 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TV, 2024.07-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TA, 2024.01-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋을 모아보자~~!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-LINK,KRW-SUI,KRW-XLM,KRW-SHIB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-HBAR,KRW-DOT,KRW-BCH,KRW-NEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>KRW-APT,KRW-AAVE,KRW-VET,KRW-ETC</t>
-  </si>
-  <si>
-    <t>GRTUSDT,SEIUSDT,SANDUSDT,EOSUSDT</t>
-  </si>
-  <si>
-    <t>XTZUSDT,IOTAUSDT,FLOWUSDT,ENSUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ATOM,KRW-STX,KRW-THETA,KRW-IMX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GRT,KRW-SEI,KRW-SAND,KRW-EOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-XTZ,KRW-IOTA,KRW-FLOW,KRW-ENS</t>
-  </si>
-  <si>
-    <t>카바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1인치네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이어제로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블러</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쎄타퓨엘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아스타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>질리카</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제로엑스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골렘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스페이스아이디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베이직어텐션토큰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-KAVA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-1INCH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ZRO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-BLUR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-TFUEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ASTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ZIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-JST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-GLM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-BAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAVAUSDT</t>
-  </si>
-  <si>
-    <t>1INCHUSDT</t>
-  </si>
-  <si>
-    <t>ZROUSDT</t>
-  </si>
-  <si>
-    <t>BLURUSDT</t>
-  </si>
-  <si>
-    <t>TFUELUSDT</t>
-  </si>
-  <si>
-    <t>ASTRUSDT</t>
-  </si>
-  <si>
-    <t>ZILUSDT</t>
-  </si>
-  <si>
-    <t>JSTUSDT</t>
-  </si>
-  <si>
-    <t>GLMUSDT</t>
-  </si>
-  <si>
-    <t>IDUSDT</t>
-  </si>
-  <si>
-    <t>BATUSDT</t>
-  </si>
-  <si>
-    <t>KRW-ZRX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZRXUSDT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-CELO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>앵커</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ANKR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀀텀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-QTUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-SC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시아코인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-GAS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스태픈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-GMT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>엘프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ELF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓰레스홀드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마스크네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-MASK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>폴리메쉬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-POLYX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-HIVE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온돌로지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ONT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CELOUSDT,ANKRUSDT,QTUMUSDT,SCUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-NEO,KRW-MANA,KRW-AXS,KRW-CHZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-XEC,KRW-MINA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO,KRW-BLUR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-TFUEL,KRW-ASTR,KRW-ZIL,KRW-ZRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-JST,KRW-GLM,KRW-ID,KRW-BAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-CELO,KRW-ANKR,KRW-QTUM,KRW-SC</t>
-  </si>
-  <si>
-    <t>솔라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-SXP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STORJ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이터스네트워크토큰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-SNT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-LSK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시빅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-CVC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워렛저</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-POWR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이큐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-IQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이오에스티</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-IOST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>에스티피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트라티스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STRAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온톨로지가스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ONG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀디엑스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-PUNDIX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STEEM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카이버네트워크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-KNC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GAS,KRW-GMT,KRW-ELF,KRW-T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-MASK,KRW-POLYX,KRW-HIVE,KRW-ONT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-SXP,KRW-STORJ,KRW-SNT,KRW-LSK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-CVC,KRW-POWR,KRW-IQ,KRW-IOST</t>
-  </si>
-  <si>
-    <t>Top 7 : 보라그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알트(~1조) : 초록색그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이너(~5000억) : 오렌지그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이너(~3000억) : 오렌지그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이너(~1500억): 오렌지그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>준메이저(~5조) : 하늘색그룹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보라그룹: 7개 (시가총액 상위 7위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하늘색그룹: 14개(시가총액 8위~21위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록색그룹 : 18개(시가총액 22위~40위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지그룹 : 39개(시가총액 41위~79위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력위한 정리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업비트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이낸스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-BTC,KRW-ETH,KRW-XRP,KRW-DOGE</t>
-  </si>
-  <si>
-    <t>KRW-LINK,KRW-SUI,KRW-XLM,KRW-SHIB</t>
-  </si>
-  <si>
-    <t>KRW-ATOM,KRW-STX,KRW-THETA,KRW-IMX</t>
-  </si>
-  <si>
-    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO,KRW-BLUR</t>
-  </si>
-  <si>
-    <t>KRW-SOL,KRW-ADA,KRW-TRX</t>
-  </si>
-  <si>
-    <t>KRW-HBAR,KRW-DOT,KRW-BCH,KRW-NEAR</t>
-  </si>
-  <si>
-    <t>KRW-GRT,KRW-SEI,KRW-SAND,KRW-EOS</t>
-  </si>
-  <si>
-    <t>KRW-TFUEL,KRW-ASTR,KRW-ZIL,KRW-ZRX</t>
-  </si>
-  <si>
-    <t>KRW-GAS,KRW-GMT,KRW-ELF,KRW-T</t>
-  </si>
-  <si>
-    <t>KRW-JST,KRW-GLM,KRW-ID,KRW-BAT</t>
-  </si>
-  <si>
-    <t>KRW-MASK,KRW-POLYX,KRW-HIVE,KRW-ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-STPT,KRW-STRAX,KRW-ONG,KRW-PUNDIX</t>
-  </si>
-  <si>
-    <t>KRW-ALGO,KRW-ARB</t>
-  </si>
-  <si>
-    <t>KRW-NEO,KRW-MANA,KRW-AXS,KRW-CHZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-STEEM,KRW-KNC,KRW-ARK</t>
-  </si>
-  <si>
-    <t>KRW-XEC,KRW-MINA</t>
-  </si>
-  <si>
-    <t>BTCUSDT,ETHUSDT,XRPUSDT,DOGEUSDT</t>
-  </si>
-  <si>
-    <t>LINKUSDT,SUIUSDT,XLMUSDT,SHIBUSDT</t>
-  </si>
-  <si>
-    <t>ATOMUSDT,STXUSDT,THETAUSDT,IMXUSDT</t>
-  </si>
-  <si>
-    <t>KAVAUSDT,1INCHUSDT,ZROUSDT,BLURUSDT</t>
-  </si>
-  <si>
-    <t>SXPUSDT,STORJUSDT,SNTUSDT,LSKUSDT</t>
-  </si>
-  <si>
-    <t>SOLUSDT,ADAUSDT,TRXUSDT</t>
-  </si>
-  <si>
-    <t>HBARUSDT,DOTUSDT,BCHUSDT,NEARUSDT</t>
-  </si>
-  <si>
-    <t>TFUELUSDT,ASTRUSDT,ZILUSDT,ZRXUSDT</t>
-  </si>
-  <si>
-    <t>GASUSDT,GMTUSDT,ELFUSDT,TUSDT</t>
-  </si>
-  <si>
-    <t>CVCUSDT,POWRUSDT,IQUSDT,IOSTUSDT</t>
-  </si>
-  <si>
-    <t>APTUSDT,AAVEUSDT,VETUSDT,ETCUSDT</t>
-  </si>
-  <si>
-    <t>JSTUSDT,GLMUSDT,IDUSDT,BATUSDT</t>
-  </si>
-  <si>
-    <t>MASKUSDT,POLYXUSDT,HIVEUSDT,ONTUSDT</t>
-  </si>
-  <si>
-    <t>STPTUSDT,STRAXUSDT,ONGUSDT,PUNDIXUSDT</t>
-  </si>
-  <si>
-    <t>ALGOUSDT,ARBUSDT</t>
-  </si>
-  <si>
-    <t>NEOUSDT,MANAUSDT,AXSUSDT,CHZUSDT</t>
-  </si>
-  <si>
-    <t>STEEMUSDT,KNCUSDT,ARKUSDT</t>
-  </si>
-  <si>
-    <t>XECUSDT,MINAUSDT</t>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차이값 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차이값 그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TV, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TA, 2024.01-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋을 모아보자~~!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,15 +1617,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1708,6 +1717,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,20 +1738,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2086,7 +2134,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2099,99 +2147,99 @@
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="55" t="s">
-        <v>214</v>
-      </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="58"/>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="53"/>
       <c r="P3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="58" t="s">
+      <c r="R3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="58" t="s">
+      <c r="V3" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="59"/>
+      <c r="W3" s="53"/>
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
@@ -2240,24 +2288,24 @@
       <c r="L4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="26" t="s">
         <v>50</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O4" s="10" t="str">
         <f t="shared" ref="O4:O15" si="0">LEFT(P4,LEN(P4)-4)</f>
         <v>KAVA</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S4" s="10" t="str">
         <f>LEFT(T4,LEN(T4)-4)</f>
@@ -2267,11 +2315,11 @@
         <f>RIGHT(U4,4)&amp;"USDT"</f>
         <v>CELOUSDT</v>
       </c>
-      <c r="U4" s="32" t="s">
-        <v>154</v>
+      <c r="U4" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="W4" s="10" t="str">
         <f t="shared" ref="W4:W18" si="1">LEFT(X4,LEN(X4)-4)</f>
@@ -2281,8 +2329,8 @@
         <f>RIGHT(Y4,3)&amp;"USDT"</f>
         <v>SXPUSDT</v>
       </c>
-      <c r="Y4" s="30" t="s">
-        <v>180</v>
+      <c r="Y4" s="27" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="30" customHeight="1">
@@ -2304,17 +2352,17 @@
         <f t="shared" ref="E5:E10" si="3">"KRW-"&amp;LEFT(D5,3)</f>
         <v>KRW-ETH</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="61" t="str">
         <f t="shared" ref="G5:G17" si="4">LEFT(H5,LEN(H5)-4)</f>
         <v>SUI</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="63" t="s">
         <v>88</v>
       </c>
       <c r="J5" s="24" t="s">
@@ -2327,24 +2375,24 @@
       <c r="L5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1INCH</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="Q5" s="29" t="s">
+        <v>128</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S5" s="10" t="str">
         <f>LEFT(T5,LEN(T5)-4)</f>
@@ -2354,11 +2402,11 @@
         <f t="shared" ref="T5:T6" si="6">RIGHT(U5,4)&amp;"USDT"</f>
         <v>ANKRUSDT</v>
       </c>
-      <c r="U5" s="32" t="s">
-        <v>156</v>
+      <c r="U5" s="29" t="s">
+        <v>154</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W5" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2368,8 +2416,8 @@
         <f>RIGHT(Y5,5)&amp;"USDT"</f>
         <v>STORJUSDT</v>
       </c>
-      <c r="Y5" s="30" t="s">
-        <v>181</v>
+      <c r="Y5" s="27" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="30" customHeight="1">
@@ -2414,24 +2462,24 @@
       <c r="L6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="O6" s="10" t="str">
+      <c r="N6" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ZRO</v>
       </c>
-      <c r="P6" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="32" t="s">
-        <v>131</v>
+      <c r="P6" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" ref="S6:S7" si="8">LEFT(T6,LEN(T6)-4)</f>
@@ -2441,11 +2489,11 @@
         <f t="shared" si="6"/>
         <v>QTUMUSDT</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>158</v>
+      <c r="U6" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2455,8 +2503,8 @@
         <f>RIGHT(Y6,3)&amp;"USDT"</f>
         <v>SNTUSDT</v>
       </c>
-      <c r="Y6" s="30" t="s">
-        <v>184</v>
+      <c r="Y6" s="27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="30" customHeight="1">
@@ -2491,34 +2539,34 @@
       <c r="I7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="61" t="str">
         <f t="shared" si="5"/>
         <v>IMX</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="10" t="str">
+      <c r="N7" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>BLUR</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>132</v>
+      <c r="P7" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>130</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S7" s="10" t="str">
         <f t="shared" si="8"/>
@@ -2528,11 +2576,11 @@
         <f>RIGHT(U7,2)&amp;"USDT"</f>
         <v>SCUSDT</v>
       </c>
-      <c r="U7" s="32" t="s">
-        <v>159</v>
+      <c r="U7" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="W7" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2542,8 +2590,8 @@
         <f>RIGHT(Y7,3)&amp;"USDT"</f>
         <v>LSKUSDT</v>
       </c>
-      <c r="Y7" s="30" t="s">
-        <v>186</v>
+      <c r="Y7" s="27" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="30" customHeight="1">
@@ -2551,17 +2599,17 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="str">
+      <c r="C8" s="61" t="str">
         <f t="shared" si="2"/>
         <v>SOL</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19" t="str">
+      <c r="E8" s="63" t="str">
         <f t="shared" si="3"/>
         <v>KRW-SOL</v>
       </c>
@@ -2578,34 +2626,34 @@
       <c r="I8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="61" t="str">
         <f t="shared" si="5"/>
         <v>GRT</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="67" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>TFUEL</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>133</v>
+        <v>142</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S8" s="10" t="str">
         <f t="shared" ref="S8:S15" si="9">LEFT(T8,LEN(T8)-4)</f>
@@ -2615,11 +2663,11 @@
         <f>RIGHT(U8,3)&amp;"USDT"</f>
         <v>GASUSDT</v>
       </c>
-      <c r="U8" s="32" t="s">
-        <v>162</v>
+      <c r="U8" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W8" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2629,8 +2677,8 @@
         <f>RIGHT(Y8,3)&amp;"USDT"</f>
         <v>CVCUSDT</v>
       </c>
-      <c r="Y8" s="30" t="s">
-        <v>188</v>
+      <c r="Y8" s="27" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="30" customHeight="1">
@@ -2665,48 +2713,48 @@
       <c r="I9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="61" t="str">
         <f t="shared" si="5"/>
         <v>SEI</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="67" t="s">
         <v>60</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ASTR</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q9" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="S9" s="10" t="str">
+        <v>143</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" s="61" t="str">
         <f t="shared" si="9"/>
         <v>GMT</v>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="T9" s="61" t="str">
         <f>RIGHT(U9,3)&amp;"USDT"</f>
         <v>GMTUSDT</v>
       </c>
-      <c r="U9" s="32" t="s">
-        <v>164</v>
+      <c r="U9" s="72" t="s">
+        <v>162</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2716,8 +2764,8 @@
         <f>RIGHT(Y9,4)&amp;"USDT"</f>
         <v>POWRUSDT</v>
       </c>
-      <c r="Y9" s="30" t="s">
-        <v>190</v>
+      <c r="Y9" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1" thickBot="1">
@@ -2762,24 +2810,24 @@
       <c r="L10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="26" t="s">
         <v>62</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ZIL</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="9"/>
@@ -2789,11 +2837,11 @@
         <f>RIGHT(U10,3)&amp;"USDT"</f>
         <v>ELFUSDT</v>
       </c>
-      <c r="U10" s="32" t="s">
-        <v>166</v>
+      <c r="U10" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="W10" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2803,8 +2851,8 @@
         <f>RIGHT(Y10,2)&amp;"USDT"</f>
         <v>IQUSDT</v>
       </c>
-      <c r="Y10" s="30" t="s">
-        <v>192</v>
+      <c r="Y10" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1">
@@ -2839,24 +2887,24 @@
       <c r="L11" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="26" t="s">
         <v>64</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>ZRX</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q11" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S11" s="10" t="str">
         <f t="shared" si="9"/>
@@ -2866,11 +2914,11 @@
         <f>RIGHT(U11,1)&amp;"USDT"</f>
         <v>TUSDT</v>
       </c>
-      <c r="U11" s="32" t="s">
-        <v>168</v>
+      <c r="U11" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="W11" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2880,8 +2928,8 @@
         <f>RIGHT(Y11,4)&amp;"USDT"</f>
         <v>IOSTUSDT</v>
       </c>
-      <c r="Y11" s="30" t="s">
-        <v>194</v>
+      <c r="Y11" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1">
@@ -2893,17 +2941,17 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="61" t="str">
         <f t="shared" si="4"/>
         <v>APT</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="63" t="s">
         <v>102</v>
       </c>
       <c r="J12" s="24" t="s">
@@ -2916,38 +2964,38 @@
       <c r="L12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="26" t="s">
         <v>66</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>JST</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q12" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="S12" s="10" t="str">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="S12" s="61" t="str">
         <f t="shared" si="9"/>
         <v>MASK</v>
       </c>
-      <c r="T12" s="10" t="str">
+      <c r="T12" s="61" t="str">
         <f>RIGHT(U12,4)&amp;"USDT"</f>
         <v>MASKUSDT</v>
       </c>
-      <c r="U12" s="32" t="s">
-        <v>170</v>
+      <c r="U12" s="72" t="s">
+        <v>168</v>
       </c>
       <c r="V12" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W12" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2957,8 +3005,8 @@
         <f>RIGHT(Y12,4)&amp;"USDT"</f>
         <v>STPTUSDT</v>
       </c>
-      <c r="Y12" s="30" t="s">
-        <v>196</v>
+      <c r="Y12" s="27" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1">
@@ -2993,38 +3041,38 @@
       <c r="L13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="26" t="s">
         <v>68</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>GLM</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" s="10" t="str">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="R13" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" s="61" t="str">
         <f t="shared" si="9"/>
         <v>POLYX</v>
       </c>
-      <c r="T13" s="10" t="str">
+      <c r="T13" s="61" t="str">
         <f>RIGHT(U13,5)&amp;"USDT"</f>
         <v>POLYXUSDT</v>
       </c>
-      <c r="U13" s="32" t="s">
-        <v>172</v>
+      <c r="U13" s="72" t="s">
+        <v>170</v>
       </c>
       <c r="V13" s="21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="W13" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3034,8 +3082,8 @@
         <f>RIGHT(Y13,5)&amp;"USDT"</f>
         <v>STRAXUSDT</v>
       </c>
-      <c r="Y13" s="30" t="s">
-        <v>198</v>
+      <c r="Y13" s="27" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="30" customHeight="1">
@@ -3044,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -3072,24 +3120,24 @@
       <c r="L14" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" s="10" t="str">
+      <c r="N14" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ID</v>
       </c>
-      <c r="P14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="32" t="s">
-        <v>138</v>
+      <c r="P14" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S14" s="10" t="str">
         <f t="shared" si="9"/>
@@ -3099,11 +3147,11 @@
         <f>RIGHT(U14,4)&amp;"USDT"</f>
         <v>HIVEUSDT</v>
       </c>
-      <c r="U14" s="32" t="s">
-        <v>174</v>
+      <c r="U14" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="V14" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W14" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3113,8 +3161,8 @@
         <f>RIGHT(Y14,3)&amp;"USDT"</f>
         <v>ONGUSDT</v>
       </c>
-      <c r="Y14" s="30" t="s">
-        <v>200</v>
+      <c r="Y14" s="27" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1" thickBot="1">
@@ -3123,7 +3171,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3141,34 +3189,34 @@
       <c r="I15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="61" t="str">
         <f t="shared" si="5"/>
         <v>ENS</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="67" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>BAT</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>139</v>
+        <v>148</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="S15" s="16" t="str">
         <f t="shared" si="9"/>
@@ -3178,11 +3226,11 @@
         <f>RIGHT(U15,3)&amp;"USDT"</f>
         <v>ONTUSDT</v>
       </c>
-      <c r="U15" s="33" t="s">
-        <v>176</v>
+      <c r="U15" s="30" t="s">
+        <v>174</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="W15" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3192,8 +3240,8 @@
         <f>RIGHT(Y15,6)&amp;"USDT"</f>
         <v>PUNDIXUSDT</v>
       </c>
-      <c r="Y15" s="30" t="s">
-        <v>202</v>
+      <c r="Y15" s="27" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1">
@@ -3202,7 +3250,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3242,7 +3290,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="W16" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3252,8 +3300,8 @@
         <f>RIGHT(Y16,5)&amp;"USDT"</f>
         <v>STEEMUSDT</v>
       </c>
-      <c r="Y16" s="30" t="s">
-        <v>204</v>
+      <c r="Y16" s="27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="30" customHeight="1" thickBot="1">
@@ -3262,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -3302,7 +3350,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="W17" s="10" t="str">
         <f t="shared" si="1"/>
@@ -3312,8 +3360,8 @@
         <f>RIGHT(Y17,3)&amp;"USDT"</f>
         <v>KNCUSDT</v>
       </c>
-      <c r="Y17" s="30" t="s">
-        <v>206</v>
+      <c r="Y17" s="27" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="30" customHeight="1" thickBot="1">
@@ -3351,7 +3399,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="W18" s="16" t="str">
         <f t="shared" si="1"/>
@@ -3361,8 +3409,8 @@
         <f>RIGHT(Y18,3)&amp;"USDT"</f>
         <v>ARKUSDT</v>
       </c>
-      <c r="Y18" s="31" t="s">
-        <v>208</v>
+      <c r="Y18" s="28" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" customHeight="1">
@@ -3456,17 +3504,17 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="16" t="str">
+      <c r="K21" s="69" t="str">
         <f t="shared" si="5"/>
         <v>MINA</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="71" t="s">
         <v>84</v>
       </c>
       <c r="N21" s="6"/>
@@ -3518,332 +3566,332 @@
     <row r="24" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="30" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="S25" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="T25" s="35"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="W25" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="36"/>
+      <c r="B25" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="T25" s="32"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="W25" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="33"/>
     </row>
     <row r="26" spans="1:25" ht="30" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="37"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
+        <v>220</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37"/>
+        <v>252</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="37"/>
+        <v>255</v>
+      </c>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
       <c r="O26" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="37"/>
+        <v>260</v>
+      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="34"/>
       <c r="S26" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="U26" s="38"/>
+        <v>263</v>
+      </c>
+      <c r="U26" s="35"/>
       <c r="W26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y26" s="38"/>
+        <v>266</v>
+      </c>
+      <c r="Y26" s="35"/>
     </row>
     <row r="27" spans="1:25" ht="30" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
+        <v>253</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
+        <v>256</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="34"/>
       <c r="O27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="37"/>
+        <v>261</v>
+      </c>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="34"/>
       <c r="S27" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="U27" s="38"/>
+        <v>264</v>
+      </c>
+      <c r="U27" s="35"/>
       <c r="W27" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y27" s="38"/>
+        <v>267</v>
+      </c>
+      <c r="Y27" s="35"/>
     </row>
     <row r="28" spans="1:25" ht="30" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37"/>
+      <c r="B28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37"/>
+        <v>221</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="34"/>
       <c r="K28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M28" s="38"/>
-      <c r="N28" s="37"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="37"/>
-      <c r="U28" s="38"/>
+        <v>257</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="34"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="34"/>
+      <c r="U28" s="35"/>
       <c r="W28" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y28" s="38"/>
+        <v>268</v>
+      </c>
+      <c r="Y28" s="35"/>
     </row>
     <row r="29" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="39"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="39"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="39"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="5" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="39"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="36"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="39"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="36"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="40"/>
+      <c r="U29" s="37"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="40"/>
+      <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:25" ht="30" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I30" s="38"/>
-      <c r="J30" s="37" t="s">
-        <v>223</v>
+      <c r="I30" s="35"/>
+      <c r="J30" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="37" t="s">
-        <v>223</v>
+      <c r="M30" s="38"/>
+      <c r="N30" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="37" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="34" t="s">
+        <v>218</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U30" s="38"/>
+        <v>175</v>
+      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y30" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="Y30" s="35"/>
     </row>
     <row r="31" spans="1:25" ht="30" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="37"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="37"/>
+        <v>227</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="J31" s="42"/>
+        <v>228</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="39"/>
       <c r="K31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="37"/>
+        <v>113</v>
+      </c>
+      <c r="M31" s="35"/>
+      <c r="N31" s="34"/>
       <c r="O31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="37"/>
+        <v>229</v>
+      </c>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="34"/>
       <c r="S31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="U31" s="38"/>
+        <v>230</v>
+      </c>
+      <c r="U31" s="35"/>
       <c r="W31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y31" s="38"/>
+        <v>231</v>
+      </c>
+      <c r="Y31" s="35"/>
     </row>
     <row r="32" spans="1:25" ht="30" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="37"/>
+      <c r="B32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="38"/>
-      <c r="J32" s="37"/>
+        <v>232</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="34"/>
       <c r="K32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="37"/>
+        <v>114</v>
+      </c>
+      <c r="M32" s="35"/>
+      <c r="N32" s="34"/>
       <c r="O32" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="37"/>
+        <v>233</v>
+      </c>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="34"/>
       <c r="S32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="U32" s="38"/>
+        <v>234</v>
+      </c>
+      <c r="U32" s="35"/>
       <c r="W32" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y32" s="38"/>
+        <v>235</v>
+      </c>
+      <c r="Y32" s="35"/>
     </row>
     <row r="33" spans="1:25" ht="30" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="37"/>
+      <c r="B33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I33" s="38"/>
-      <c r="J33" s="37"/>
+        <v>236</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="34"/>
       <c r="K33" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="37"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="37"/>
-      <c r="U33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="34"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="34"/>
+      <c r="U33" s="35"/>
       <c r="W33" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y33" s="38"/>
+        <v>238</v>
+      </c>
+      <c r="Y33" s="35"/>
     </row>
     <row r="34" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="39"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="39"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="36"/>
       <c r="K34" s="5" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="39"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="39"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="36"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="40"/>
+      <c r="U34" s="37"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="40"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" ht="30" customHeight="1">
       <c r="A35" s="3"/>
@@ -3931,18 +3979,18 @@
     <row r="55" spans="2:26" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3960,427 +4008,427 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="43"/>
-    <col min="3" max="3" width="40.7109375" style="43" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="43"/>
+    <col min="1" max="2" width="10.7109375" style="40"/>
+    <col min="3" max="3" width="40.7109375" style="40" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>263</v>
+      <c r="B2" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="44">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="46" t="b">
+      <c r="C3" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="46" t="b">
+      <c r="E3" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="b">
+      <c r="F3" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="47" t="b">
+      <c r="G3" s="44" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="44">
+      <c r="B4" s="41">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="46" t="b">
+      <c r="C4" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="47" t="b">
+      <c r="E4" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
       <c r="A5" s="6"/>
-      <c r="B5" s="44">
+      <c r="B5" s="41">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="47" t="b">
+      <c r="C5" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="25" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="44">
+      <c r="B6" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="47" t="b">
+      <c r="C6" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="B7" s="44">
+      <c r="B7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="47" t="b">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="44">
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="47" t="b">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="44">
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="47" t="b">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1">
       <c r="A10" s="6"/>
-      <c r="B10" s="44">
+      <c r="B10" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="47" t="b">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="B11" s="44">
+      <c r="B11" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="47" t="b">
+      <c r="C11" s="42"/>
+      <c r="D11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="B12" s="44">
+      <c r="B12" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="47" t="b">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1">
       <c r="A13" s="6"/>
-      <c r="B13" s="44">
+      <c r="B13" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="47" t="b">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="44">
+      <c r="B14" s="41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="47" t="b">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1">
       <c r="A15" s="6"/>
-      <c r="B15" s="44">
+      <c r="B15" s="41">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="47" t="b">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="44">
+      <c r="B16" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="47" t="b">
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="44">
+      <c r="B17" s="41">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="47" t="b">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="44">
+      <c r="B18" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="47" t="b">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="B19" s="44">
+      <c r="B19" s="41">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="47" t="b">
+      <c r="C19" s="42"/>
+      <c r="D19" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="B20" s="44">
+      <c r="B20" s="41">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="47" t="b">
+      <c r="C20" s="42"/>
+      <c r="D20" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1">
       <c r="A21" s="6"/>
-      <c r="B21" s="48">
+      <c r="B21" s="45">
         <f>B20+1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="51" t="b">
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48" t="b">
         <v>0</v>
       </c>
     </row>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D234DF4-20E2-7F46-A9F9-881F6C677F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF3812E-8190-894F-BFF1-A8611F3ECA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="292">
   <si>
     <t>binance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -805,182 +805,276 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>KRW-ALGO,KRW-ARB</t>
+  </si>
+  <si>
+    <t>BTCUSDT,ETHUSDT,XRPUSDT,DOGEUSDT</t>
+  </si>
+  <si>
+    <t>LINKUSDT,SUIUSDT,XLMUSDT,SHIBUSDT</t>
+  </si>
+  <si>
+    <t>ATOMUSDT,STXUSDT,THETAUSDT,IMXUSDT</t>
+  </si>
+  <si>
+    <t>KAVAUSDT,1INCHUSDT,ZROUSDT,BLURUSDT</t>
+  </si>
+  <si>
+    <t>SXPUSDT,STORJUSDT,SNTUSDT,LSKUSDT</t>
+  </si>
+  <si>
+    <t>SOLUSDT,ADAUSDT,TRXUSDT</t>
+  </si>
+  <si>
+    <t>HBARUSDT,DOTUSDT,BCHUSDT,NEARUSDT</t>
+  </si>
+  <si>
+    <t>TFUELUSDT,ASTRUSDT,ZILUSDT,ZRXUSDT</t>
+  </si>
+  <si>
+    <t>GASUSDT,GMTUSDT,ELFUSDT,TUSDT</t>
+  </si>
+  <si>
+    <t>CVCUSDT,POWRUSDT,IQUSDT,IOSTUSDT</t>
+  </si>
+  <si>
+    <t>APTUSDT,AAVEUSDT,VETUSDT,ETCUSDT</t>
+  </si>
+  <si>
+    <t>JSTUSDT,GLMUSDT,IDUSDT,BATUSDT</t>
+  </si>
+  <si>
+    <t>MASKUSDT,POLYXUSDT,HIVEUSDT,ONTUSDT</t>
+  </si>
+  <si>
+    <t>STPTUSDT,STRAXUSDT,ONGUSDT,PUNDIXUSDT</t>
+  </si>
+  <si>
+    <t>ALGOUSDT,ARBUSDT</t>
+  </si>
+  <si>
+    <t>NEOUSDT,MANAUSDT,AXSUSDT,CHZUSDT</t>
+  </si>
+  <si>
+    <t>STEEMUSDT,KNCUSDT,ARKUSDT</t>
+  </si>
+  <si>
+    <t>XECUSDT,MINAUSDT</t>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이값 수집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이값 그래프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TA, 2024.01-2025.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋을 모아보자~~!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-LINK,KRW-SUI,KRW-XLM,KRW-SHIB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-HBAR,KRW-DOT,KRW-BCH,KRW-NEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-APT,KRW-AAVE,KRW-VET,KRW-ETC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ATOM,KRW-STX,KRW-THETA,KRW-IMX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GRT,KRW-SEI,KRW-SAND,KRW-EOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-XTZ,KRW-IOTA,KRW-FLOW,KRW-ENS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-NEO,KRW-MANA,KRW-AXS,KRW-CHZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-XEC,KRW-MINA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO,KRW-BLUR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-TFUEL,KRW-ASTR,KRW-ZIL,KRW-ZRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-JST,KRW-GLM,KRW-ID,KRW-BAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CELO,KRW-ANKR,KRW-QTUM,KRW-SC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GAS,KRW-GMT,KRW-ELF,KRW-T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-MASK,KRW-POLYX,KRW-HIVE,KRW-ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SXP,KRW-STORJ,KRW-SNT,KRW-LSK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CVC,KRW-POWR,KRW-IQ,KRW-IOST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STPT,KRW-STRAX,KRW-ONG,KRW-PUNDIX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STEEM,KRW-KNC,KRW-ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>KRW-BTC,KRW-ETH,KRW-XRP,KRW-DOGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>KRW-SOL,KRW-ADA,KRW-TRX</t>
-  </si>
-  <si>
-    <t>KRW-ALGO,KRW-ARB</t>
-  </si>
-  <si>
-    <t>BTCUSDT,ETHUSDT,XRPUSDT,DOGEUSDT</t>
-  </si>
-  <si>
-    <t>LINKUSDT,SUIUSDT,XLMUSDT,SHIBUSDT</t>
-  </si>
-  <si>
-    <t>ATOMUSDT,STXUSDT,THETAUSDT,IMXUSDT</t>
-  </si>
-  <si>
-    <t>KAVAUSDT,1INCHUSDT,ZROUSDT,BLURUSDT</t>
-  </si>
-  <si>
-    <t>SXPUSDT,STORJUSDT,SNTUSDT,LSKUSDT</t>
-  </si>
-  <si>
-    <t>SOLUSDT,ADAUSDT,TRXUSDT</t>
-  </si>
-  <si>
-    <t>HBARUSDT,DOTUSDT,BCHUSDT,NEARUSDT</t>
-  </si>
-  <si>
-    <t>TFUELUSDT,ASTRUSDT,ZILUSDT,ZRXUSDT</t>
-  </si>
-  <si>
-    <t>GASUSDT,GMTUSDT,ELFUSDT,TUSDT</t>
-  </si>
-  <si>
-    <t>CVCUSDT,POWRUSDT,IQUSDT,IOSTUSDT</t>
-  </si>
-  <si>
-    <t>APTUSDT,AAVEUSDT,VETUSDT,ETCUSDT</t>
-  </si>
-  <si>
-    <t>JSTUSDT,GLMUSDT,IDUSDT,BATUSDT</t>
-  </si>
-  <si>
-    <t>MASKUSDT,POLYXUSDT,HIVEUSDT,ONTUSDT</t>
-  </si>
-  <si>
-    <t>STPTUSDT,STRAXUSDT,ONGUSDT,PUNDIXUSDT</t>
-  </si>
-  <si>
-    <t>ALGOUSDT,ARBUSDT</t>
-  </si>
-  <si>
-    <t>NEOUSDT,MANAUSDT,AXSUSDT,CHZUSDT</t>
-  </si>
-  <si>
-    <t>STEEMUSDT,KNCUSDT,ARKUSDT</t>
-  </si>
-  <si>
-    <t>XECUSDT,MINAUSDT</t>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차이값 수집</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차이값 그래프</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 Day, TA, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TV, 2024.07-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 Day, TA, 2024.01-2025.01 (업비트, 바이낸스)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋을 모아보자~~!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-LINK,KRW-SUI,KRW-XLM,KRW-SHIB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-HBAR,KRW-DOT,KRW-BCH,KRW-NEAR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-APT,KRW-AAVE,KRW-VET,KRW-ETC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ATOM,KRW-STX,KRW-THETA,KRW-IMX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-GRT,KRW-SEI,KRW-SAND,KRW-EOS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-XTZ,KRW-IOTA,KRW-FLOW,KRW-ENS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-NEO,KRW-MANA,KRW-AXS,KRW-CHZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-XEC,KRW-MINA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO,KRW-BLUR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-TFUEL,KRW-ASTR,KRW-ZIL,KRW-ZRX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-JST,KRW-GLM,KRW-ID,KRW-BAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-CELO,KRW-ANKR,KRW-QTUM,KRW-SC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-GAS,KRW-GMT,KRW-ELF,KRW-T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-MASK,KRW-POLYX,KRW-HIVE,KRW-ONT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-SXP,KRW-STORJ,KRW-SNT,KRW-LSK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-CVC,KRW-POWR,KRW-IQ,KRW-IOST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STPT,KRW-STRAX,KRW-ONG,KRW-PUNDIX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STEEM,KRW-KNC,KRW-ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-DOGE, KRW-ADA,KRW-TRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BTC,KRW-ETH,KRW-XRP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-LINK,KRW-XLM,KRW-SHIB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-AAVE,KRW-VET,KRW-ETC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ATOM,KRW-STX,KRW-THETA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SAND,KRW-EOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-XTZ,KRW-IOTA,KRW-FLOW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-XEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21년 순위: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTC,ETH,XRP,DOGE,SOL,ADA,TRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK,SUI,XLM,SHIB,HBAR,DOT,BCH,NEAR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APT,AAVE,VET,ETC,ALGO,ARB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATOM,STX,THETA,IMX,GRT,SEI,SAND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOS,XTZ,IOTA,FLOW,ENS,NEO,MANA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXS,CHZ,XEC,MINA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAVA,1INCH,ZRO,BLUR,TFUEL,ASTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIL,ZRX,JST,GLM,ID,BAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CELO,ANKR,QTUM,SC,GAS,GMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELF,T,MASK,POLYX,HIVE,ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SXP,STORJ,SNT,LSK,CVC,POWR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQ,IOST,STPT,STRAX,ONG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUNDIX,STEEM,KNC,ARK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 Day, TA, 2021.01-2022.01 (업비트, 바이낸스)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1540,7 +1634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1717,6 +1811,54 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1729,55 +1871,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2131,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FAB26-9F55-3D4C-959C-DBD06003ED40}">
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="68" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2147,99 +2253,99 @@
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="56" t="s">
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="56" t="s">
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="67"/>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="53"/>
+      <c r="O3" s="69"/>
       <c r="P3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="53"/>
+      <c r="S3" s="69"/>
       <c r="T3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="V3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="69"/>
       <c r="X3" s="12" t="s">
         <v>0</v>
       </c>
@@ -2352,17 +2458,17 @@
         <f t="shared" ref="E5:E10" si="3">"KRW-"&amp;LEFT(D5,3)</f>
         <v>KRW-ETH</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="61" t="str">
+      <c r="G5" s="53" t="str">
         <f t="shared" ref="G5:G17" si="4">LEFT(H5,LEN(H5)-4)</f>
         <v>SUI</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="55" t="s">
         <v>88</v>
       </c>
       <c r="J5" s="24" t="s">
@@ -2422,7 +2528,7 @@
     </row>
     <row r="6" spans="1:25" ht="30" customHeight="1">
       <c r="A6" s="8">
-        <f t="shared" ref="A6:A22" si="7">A5+1</f>
+        <f t="shared" ref="A6:A24" si="7">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -2465,17 +2571,17 @@
       <c r="M6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="O6" s="61" t="str">
+      <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>ZRO</v>
       </c>
-      <c r="P6" s="61" t="s">
+      <c r="P6" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="Q6" s="72" t="s">
+      <c r="Q6" s="64" t="s">
         <v>129</v>
       </c>
       <c r="R6" s="21" t="s">
@@ -2539,30 +2645,30 @@
       <c r="I7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="61" t="str">
+      <c r="K7" s="53" t="str">
         <f t="shared" si="5"/>
         <v>IMX</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="61" t="str">
+      <c r="O7" s="53" t="str">
         <f t="shared" si="0"/>
         <v>BLUR</v>
       </c>
-      <c r="P7" s="61" t="s">
+      <c r="P7" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="72" t="s">
+      <c r="Q7" s="64" t="s">
         <v>130</v>
       </c>
       <c r="R7" s="21" t="s">
@@ -2599,17 +2705,17 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="61" t="str">
+      <c r="C8" s="53" t="str">
         <f t="shared" si="2"/>
         <v>SOL</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="63" t="str">
+      <c r="E8" s="55" t="str">
         <f t="shared" si="3"/>
         <v>KRW-SOL</v>
       </c>
@@ -2626,17 +2732,17 @@
       <c r="I8" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="61" t="str">
+      <c r="K8" s="53" t="str">
         <f t="shared" si="5"/>
         <v>GRT</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="59" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="21" t="s">
@@ -2713,17 +2819,17 @@
       <c r="I9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="61" t="str">
+      <c r="K9" s="53" t="str">
         <f t="shared" si="5"/>
         <v>SEI</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="67" t="s">
+      <c r="M9" s="59" t="s">
         <v>60</v>
       </c>
       <c r="N9" s="21" t="s">
@@ -2739,18 +2845,18 @@
       <c r="Q9" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="S9" s="61" t="str">
+      <c r="S9" s="53" t="str">
         <f t="shared" si="9"/>
         <v>GMT</v>
       </c>
-      <c r="T9" s="61" t="str">
+      <c r="T9" s="53" t="str">
         <f>RIGHT(U9,3)&amp;"USDT"</f>
         <v>GMTUSDT</v>
       </c>
-      <c r="U9" s="72" t="s">
+      <c r="U9" s="64" t="s">
         <v>162</v>
       </c>
       <c r="V9" s="21" t="s">
@@ -2941,17 +3047,17 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="61" t="str">
+      <c r="G12" s="53" t="str">
         <f t="shared" si="4"/>
         <v>APT</v>
       </c>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="55" t="s">
         <v>102</v>
       </c>
       <c r="J12" s="24" t="s">
@@ -2980,18 +3086,18 @@
       <c r="Q12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="R12" s="64" t="s">
+      <c r="R12" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="S12" s="61" t="str">
+      <c r="S12" s="53" t="str">
         <f t="shared" si="9"/>
         <v>MASK</v>
       </c>
-      <c r="T12" s="61" t="str">
+      <c r="T12" s="53" t="str">
         <f>RIGHT(U12,4)&amp;"USDT"</f>
         <v>MASKUSDT</v>
       </c>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="64" t="s">
         <v>168</v>
       </c>
       <c r="V12" s="21" t="s">
@@ -3057,18 +3163,18 @@
       <c r="Q13" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="64" t="s">
+      <c r="R13" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="61" t="str">
+      <c r="S13" s="53" t="str">
         <f t="shared" si="9"/>
         <v>POLYX</v>
       </c>
-      <c r="T13" s="61" t="str">
+      <c r="T13" s="53" t="str">
         <f>RIGHT(U13,5)&amp;"USDT"</f>
         <v>POLYXUSDT</v>
       </c>
-      <c r="U13" s="72" t="s">
+      <c r="U13" s="64" t="s">
         <v>170</v>
       </c>
       <c r="V13" s="21" t="s">
@@ -3123,17 +3229,17 @@
       <c r="M14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="64" t="s">
+      <c r="N14" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="61" t="str">
+      <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
         <v>ID</v>
       </c>
-      <c r="P14" s="61" t="s">
+      <c r="P14" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" s="72" t="s">
+      <c r="Q14" s="64" t="s">
         <v>136</v>
       </c>
       <c r="R14" s="21" t="s">
@@ -3189,17 +3295,17 @@
       <c r="I15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="61" t="str">
+      <c r="K15" s="53" t="str">
         <f t="shared" si="5"/>
         <v>ENS</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="67" t="s">
+      <c r="M15" s="59" t="s">
         <v>72</v>
       </c>
       <c r="N15" s="22" t="s">
@@ -3315,17 +3421,17 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="16" t="str">
+      <c r="G17" s="61" t="str">
         <f t="shared" si="4"/>
         <v>ARB</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="76" t="s">
         <v>112</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -3341,11 +3447,15 @@
       <c r="M17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>284</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>286</v>
+      </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -3390,11 +3500,15 @@
       <c r="M18" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="R18" s="6" t="s">
+        <v>287</v>
+      </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -3457,11 +3571,15 @@
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -3486,7 +3604,9 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="V20" s="6" t="s">
+        <v>288</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -3500,21 +3620,23 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>280</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="69" t="str">
+      <c r="K21" s="61" t="str">
         <f t="shared" si="5"/>
         <v>MINA</v>
       </c>
-      <c r="L21" s="70" t="s">
+      <c r="L21" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="63" t="s">
         <v>84</v>
       </c>
       <c r="N21" s="6"/>
@@ -3525,7 +3647,9 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="V21" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -3535,7 +3659,9 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -3543,10 +3669,12 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="J22" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="K22" s="74"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3555,442 +3683,797 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+      <c r="V22" s="6" t="s">
+        <v>290</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" ht="30" customHeight="1" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A23" s="8">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="74"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1">
+      <c r="A24" s="8">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
     </row>
     <row r="25" spans="1:25" ht="30" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="L25" s="32"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="T25" s="32"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="W25" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
-    </row>
-    <row r="26" spans="1:25" ht="30" customHeight="1">
+    </row>
+    <row r="26" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="U26" s="35"/>
-      <c r="W26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="Y26" s="35"/>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="30" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="1" t="s">
+      <c r="B27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" s="32"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="U27" s="35"/>
-      <c r="W27" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y27" s="35"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="W27" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="33"/>
     </row>
     <row r="28" spans="1:25" ht="30" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="34"/>
+      <c r="C28" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="E28" s="35"/>
       <c r="F28" s="34"/>
       <c r="G28" s="1" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="34"/>
       <c r="K28" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M28" s="35"/>
       <c r="N28" s="34"/>
+      <c r="O28" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="34"/>
+      <c r="S28" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="U28" s="35"/>
       <c r="W28" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Y28" s="35"/>
     </row>
-    <row r="29" spans="1:25" ht="30" customHeight="1" thickBot="1">
+    <row r="29" spans="1:25" ht="30" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="5" t="s">
+      <c r="B29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="37"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U29" s="35"/>
+      <c r="W29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" s="35"/>
     </row>
     <row r="30" spans="1:25" ht="30" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="B30" s="34"/>
       <c r="E30" s="35"/>
-      <c r="F30" s="34" t="s">
-        <v>218</v>
-      </c>
+      <c r="F30" s="34"/>
       <c r="G30" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I30" s="35"/>
-      <c r="J30" s="34" t="s">
-        <v>218</v>
-      </c>
+      <c r="J30" s="34"/>
       <c r="K30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="34"/>
       <c r="Q30" s="35"/>
-      <c r="R30" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="R30" s="34"/>
       <c r="U30" s="35"/>
-      <c r="V30" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="W30" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="Y30" s="35"/>
     </row>
-    <row r="31" spans="1:25" ht="30" customHeight="1">
+    <row r="31" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M31" s="35"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="U31" s="35"/>
-      <c r="W31" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="37"/>
     </row>
     <row r="32" spans="1:25" ht="30" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="34"/>
+      <c r="B32" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E32" s="35"/>
-      <c r="F32" s="34"/>
+      <c r="F32" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I32" s="35"/>
-      <c r="J32" s="34"/>
+      <c r="J32" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="34"/>
+        <v>222</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="O32" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="35"/>
-      <c r="R32" s="34"/>
+      <c r="R32" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="S32" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="U32" s="35"/>
+      <c r="V32" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="W32" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Y32" s="35"/>
     </row>
     <row r="33" spans="1:25" ht="30" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="34"/>
+      <c r="C33" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="E33" s="35"/>
       <c r="F33" s="34"/>
       <c r="G33" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="I33" s="35"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="38"/>
+        <v>113</v>
+      </c>
+      <c r="M33" s="35"/>
       <c r="N33" s="34"/>
+      <c r="O33" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="34"/>
+      <c r="S33" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="U33" s="35"/>
       <c r="W33" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="Y33" s="35"/>
     </row>
-    <row r="34" spans="1:25" ht="30" customHeight="1" thickBot="1">
+    <row r="34" spans="1:25" ht="30" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="37"/>
+      <c r="B34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M34" s="35"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U34" s="35"/>
+      <c r="W34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y34" s="35"/>
     </row>
     <row r="35" spans="1:25" ht="30" customHeight="1">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" ht="30" customHeight="1">
+      <c r="B35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="34"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="34"/>
+      <c r="U35" s="35"/>
+      <c r="W35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y35" s="35"/>
+    </row>
+    <row r="36" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" ht="30" customHeight="1">
+      <c r="B36" s="36"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="37"/>
+    </row>
+    <row r="37" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="38" spans="1:25" ht="30" customHeight="1">
       <c r="A38" s="3"/>
+      <c r="B38" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="T38" s="32"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="W38" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="33"/>
     </row>
     <row r="39" spans="1:25" ht="30" customHeight="1">
       <c r="A39" s="3"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" s="35"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="U39" s="35"/>
+      <c r="W39" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y39" s="35"/>
     </row>
     <row r="40" spans="1:25" ht="30" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="B40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="35"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="U40" s="35"/>
+      <c r="W40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y40" s="35"/>
     </row>
     <row r="41" spans="1:25" ht="30" customHeight="1">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" ht="30" customHeight="1">
-      <c r="B42" s="1" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:25" ht="30" customHeight="1"/>
-    <row r="44" spans="1:25" ht="30" customHeight="1"/>
+      <c r="B41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" s="35"/>
+      <c r="N41" s="34"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="34"/>
+      <c r="U41" s="35"/>
+      <c r="W41" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y41" s="35"/>
+    </row>
+    <row r="42" spans="1:25" ht="30" customHeight="1" thickBot="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="37"/>
+    </row>
+    <row r="43" spans="1:25" ht="30" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="U43" s="35"/>
+      <c r="V43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y43" s="35"/>
+    </row>
+    <row r="44" spans="1:25" ht="30" customHeight="1">
+      <c r="B44" s="34"/>
+      <c r="C44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="35"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="35"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U44" s="35"/>
+      <c r="W44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y44" s="35"/>
+    </row>
     <row r="45" spans="1:25" ht="30" customHeight="1">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="35"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U45" s="35"/>
+      <c r="W45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y45" s="35"/>
     </row>
     <row r="46" spans="1:25" ht="30" customHeight="1">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" ht="30" customHeight="1">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" ht="30" customHeight="1"/>
-    <row r="49" spans="2:26" ht="30" customHeight="1"/>
-    <row r="50" spans="2:26" ht="30" customHeight="1">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="Z50" s="1" t="str">
-        <f>AB4&amp;","&amp;AB6&amp;","&amp;AB8&amp;","&amp;AB11</f>
-        <v>,,,</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" ht="30" customHeight="1">
-      <c r="I51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="Z51" s="1" t="str">
-        <f>AB12&amp;","&amp;AB14&amp;","&amp;AB15&amp;","&amp;AB17</f>
-        <v>,,,</v>
-      </c>
-    </row>
+      <c r="B46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="34"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="34"/>
+      <c r="U46" s="35"/>
+      <c r="W46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y46" s="35"/>
+    </row>
+    <row r="47" spans="1:25" ht="30" customHeight="1" thickBot="1">
+      <c r="B47" s="36"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="37"/>
+    </row>
+    <row r="48" spans="1:25" ht="30" customHeight="1">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:26" ht="30" customHeight="1">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="2:26" ht="30" customHeight="1"/>
+    <row r="51" spans="2:26" ht="30" customHeight="1"/>
     <row r="52" spans="2:26" ht="30" customHeight="1">
-      <c r="I52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="Z52" s="1" t="str">
+        <f>AB4&amp;","&amp;AB6&amp;","&amp;AB8&amp;","&amp;AB11</f>
+        <v>,,,</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" ht="30" customHeight="1">
+      <c r="I53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="Z53" s="1" t="str">
+        <f>AB12&amp;","&amp;AB14&amp;","&amp;AB15&amp;","&amp;AB17</f>
+        <v>,,,</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" ht="30" customHeight="1">
+      <c r="I54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="Z54" s="1" t="str">
         <f>AB18&amp;","&amp;AB19&amp;","&amp;AB20&amp;","&amp;AB21</f>
         <v>,,,</v>
       </c>
     </row>
-    <row r="53" spans="2:26" ht="30" customHeight="1">
-      <c r="Z53" s="1" t="str">
-        <f>AB25&amp;","&amp;AB26&amp;","&amp;AB29&amp;","&amp;AB30</f>
+    <row r="55" spans="2:26" ht="30" customHeight="1">
+      <c r="Z55" s="1" t="str">
+        <f>AB27&amp;","&amp;AB28&amp;","&amp;AB31&amp;","&amp;AB32</f>
         <v>,,,</v>
       </c>
     </row>
-    <row r="54" spans="2:26" ht="30" customHeight="1"/>
-    <row r="55" spans="2:26" ht="30" customHeight="1"/>
+    <row r="56" spans="2:26" ht="30" customHeight="1"/>
+    <row r="57" spans="2:26" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4003,7 +4486,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4015,34 +4498,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="F2" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="G2" s="51" t="s">
         <v>243</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
@@ -4051,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D3" s="43" t="b">
         <v>1</v>
@@ -4073,19 +4556,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D4" s="43" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
@@ -4095,7 +4578,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="D5" s="43" t="b">
         <v>0</v>
@@ -4117,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D6" s="43" t="b">
         <v>0</v>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF3812E-8190-894F-BFF1-A8611F3ECA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B24F1-B32F-3346-89B1-3D007E6929E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
   <sheets>
     <sheet name="코인모음" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="308">
   <si>
     <t>binance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1014,10 +1014,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KRW-XEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">21년 순위: </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1075,6 +1071,72 @@
   </si>
   <si>
     <t>1 Day, TA, 2021.01-2022.01 (업비트, 바이낸스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-NEO,KRW-MANA,KRW-AXS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CHZ,KRW-XEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-HBAR,KRW-DOT,KRW-BCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GLM,KRW-ID,KRW-BAT</t>
+  </si>
+  <si>
+    <t>KRW-ZIL,KRW-ZRX,KRW-JST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BLUR,KRW-TFUEL,KRW-ASTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-POLYX,KRW-HIVE,KRW-ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ELF,KRW-T,KRW-MASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-CELO,KRW-ANKR,KRW-QTUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SC,KRW-GAS,KRW-GMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-STEEM,KRW-KNC,KRW-ARK</t>
+  </si>
+  <si>
+    <t>KRW-STRAX,KRW-ONG,KRW-PUNDIX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-IQ,KRW-IOST,KRW-STPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-LSK,KRW-CVC,KRW-POWR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SXP,KRW-STORJ,KRW-SNT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-NEAR,KRW-ALGO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2239,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FAB26-9F55-3D4C-959C-DBD06003ED40}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2642,7 +2704,7 @@
       <c r="H7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="55" t="s">
         <v>92</v>
       </c>
       <c r="J7" s="57" t="s">
@@ -2980,7 +3042,7 @@
       <c r="H11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="55" t="s">
         <v>100</v>
       </c>
       <c r="J11" s="24" t="s">
@@ -3448,13 +3510,13 @@
         <v>76</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -3501,13 +3563,13 @@
         <v>78</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -3572,13 +3634,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3605,7 +3667,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -3621,7 +3683,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -3648,7 +3710,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -3660,7 +3722,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3670,7 +3732,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K22" s="74"/>
       <c r="L22" s="73"/>
@@ -3684,7 +3746,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -3704,7 +3766,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K23" s="74"/>
       <c r="L23" s="73"/>
@@ -3736,7 +3798,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -4123,7 +4185,7 @@
         <v>217</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="33"/>
@@ -4131,7 +4193,7 @@
         <v>217</v>
       </c>
       <c r="S38" s="32" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="T38" s="32"/>
       <c r="U38" s="33"/>
@@ -4139,7 +4201,7 @@
         <v>217</v>
       </c>
       <c r="W38" s="32" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="X38" s="32"/>
       <c r="Y38" s="33"/>
@@ -4153,7 +4215,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="34"/>
       <c r="G39" s="1" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="34"/>
@@ -4163,16 +4225,16 @@
       <c r="M39" s="35"/>
       <c r="N39" s="34"/>
       <c r="O39" s="1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="34"/>
       <c r="S39" s="1" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="U39" s="35"/>
       <c r="W39" s="1" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Y39" s="35"/>
     </row>
@@ -4192,16 +4254,16 @@
       <c r="M40" s="35"/>
       <c r="N40" s="34"/>
       <c r="O40" s="1" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="34"/>
       <c r="S40" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="U40" s="35"/>
       <c r="W40" s="1" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="Y40" s="35"/>
     </row>
@@ -4211,20 +4273,26 @@
       <c r="E41" s="35"/>
       <c r="F41" s="34"/>
       <c r="G41" s="1" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="34"/>
       <c r="K41" s="1" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="34"/>
+      <c r="O41" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="34"/>
+      <c r="S41" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="U41" s="35"/>
       <c r="W41" s="1" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="Y41" s="35"/>
     </row>
@@ -4240,7 +4308,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="36"/>
       <c r="K42" s="5" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="37"/>
@@ -4253,7 +4321,9 @@
       <c r="T42" s="5"/>
       <c r="U42" s="37"/>
       <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
+      <c r="W42" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="X42" s="5"/>
       <c r="Y42" s="37"/>
     </row>
@@ -4578,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5" s="43" t="b">
         <v>0</v>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B24F1-B32F-3346-89B1-3D007E6929E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F700AD3-9E27-7D4C-89E7-D4A54F472AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
+    <workbookView xWindow="67200" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
   <sheets>
     <sheet name="코인모음" sheetId="1" r:id="rId1"/>
-    <sheet name="해야할 리스트" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="해야할 리스트" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="376">
   <si>
     <t>binance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -958,18 +959,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KRW-SXP,KRW-STORJ,KRW-SNT,KRW-LSK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-CVC,KRW-POWR,KRW-IQ,KRW-IOST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-STPT,KRW-STRAX,KRW-ONG,KRW-PUNDIX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KRW-STEEM,KRW-KNC,KRW-ARK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1086,29 +1075,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>KRW-GLM,KRW-ID,KRW-BAT</t>
-  </si>
-  <si>
-    <t>KRW-ZIL,KRW-ZRX,KRW-JST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-KAVA,KRW-1INCH,KRW-ZRO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-BLUR,KRW-TFUEL,KRW-ASTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-POLYX,KRW-HIVE,KRW-ONT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRW-ELF,KRW-T,KRW-MASK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>KRW-CELO,KRW-ANKR,KRW-QTUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1137,6 +1103,258 @@
   </si>
   <si>
     <t>KRW-NEAR,KRW-ALGO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ELF,KRW-T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-HIVE,KRW-ONT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-KAVA,KRW-1INCH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-TFUEL,KRW-ASTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ZIL,KRW-ZRX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GLM,KRW-BAT,KRW-JST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-2022기준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>MANA</t>
+  </si>
+  <si>
+    <t>Top 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 6 - 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 17 ~ 30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top 31~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>XLM</t>
+  </si>
+  <si>
+    <t>DOGE</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
+    <t>SXP</t>
+  </si>
+  <si>
+    <t>XTZ</t>
+  </si>
+  <si>
+    <t>NEAR</t>
+  </si>
+  <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>EOS</t>
+  </si>
+  <si>
+    <t>TRX</t>
+  </si>
+  <si>
+    <t>BAT</t>
+  </si>
+  <si>
+    <t>AXS</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>ANKR</t>
+  </si>
+  <si>
+    <t>1INCH</t>
+  </si>
+  <si>
+    <t>IOST</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>ETC</t>
+  </si>
+  <si>
+    <t>QTUM</t>
+  </si>
+  <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>ZRX</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
+    <t>STORJ</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>TFUEL</t>
+  </si>
+  <si>
+    <t>KAVA</t>
+  </si>
+  <si>
+    <t>ZIL</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>KNC</t>
+  </si>
+  <si>
+    <t>FLOW</t>
+  </si>
+  <si>
+    <t>CVC</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>THETA</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>LSK</t>
+  </si>
+  <si>
+    <t>HIVE</t>
+  </si>
+  <si>
+    <t>STPT</t>
+  </si>
+  <si>
+    <t>GLM</t>
+  </si>
+  <si>
+    <t>ARK</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>STRAX</t>
+  </si>
+  <si>
+    <t>STEEM</t>
+  </si>
+  <si>
+    <t>POWR</t>
+  </si>
+  <si>
+    <t>PUNDIX</t>
+  </si>
+  <si>
+    <t>SNT</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>XEC</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바낸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTCUSDT,ETHUSDT,XRPUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOGEUSDT,SOLUSDT,ADAUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINKUSDT,SUIUSDT,XLMUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIBUSDT,HBARUSDT,DOTUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCHUSDT,NEARUSDT,APTUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAVEUSDT,VETUSDT,ETCUSDT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALGOUSDT,ARBUSDT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1144,6 +1362,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+  </numFmts>
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -1157,7 +1378,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1696,7 +1917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,6 +2133,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,31 +2163,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2301,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FAB26-9F55-3D4C-959C-DBD06003ED40}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2315,42 +2578,42 @@
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="65" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="65" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="65" t="s">
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="65" t="s">
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="67"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="74"/>
     </row>
     <row r="3" spans="1:25" ht="30" customHeight="1">
       <c r="A3" s="6"/>
@@ -2483,7 +2746,7 @@
         <f>RIGHT(U4,4)&amp;"USDT"</f>
         <v>CELOUSDT</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="U4" s="64" t="s">
         <v>152</v>
       </c>
       <c r="V4" s="21" t="s">
@@ -2904,7 +3167,7 @@
       <c r="P9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="64" t="s">
         <v>132</v>
       </c>
       <c r="R9" s="56" t="s">
@@ -3082,7 +3345,7 @@
         <f>RIGHT(U11,1)&amp;"USDT"</f>
         <v>TUSDT</v>
       </c>
-      <c r="U11" s="29" t="s">
+      <c r="U11" s="64" t="s">
         <v>166</v>
       </c>
       <c r="V11" s="21" t="s">
@@ -3196,7 +3459,7 @@
       <c r="H13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="55" t="s">
         <v>104</v>
       </c>
       <c r="J13" s="24" t="s">
@@ -3483,7 +3746,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="66" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="61" t="str">
@@ -3493,7 +3756,7 @@
       <c r="H17" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="67" t="s">
         <v>112</v>
       </c>
       <c r="J17" s="24" t="s">
@@ -3510,13 +3773,13 @@
         <v>76</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -3563,13 +3826,13 @@
         <v>78</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -3634,13 +3897,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3667,7 +3930,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
@@ -3683,7 +3946,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -3710,7 +3973,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
@@ -3722,7 +3985,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3731,12 +3994,12 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
+      <c r="J22" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3746,7 +4009,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
@@ -3765,12 +4028,12 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
+      <c r="J23" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -3798,7 +4061,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3831,7 +4094,7 @@
         <v>217</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="33"/>
@@ -3871,7 +4134,7 @@
         <v>217</v>
       </c>
       <c r="W27" s="32" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="X27" s="32"/>
       <c r="Y27" s="33"/>
@@ -3880,7 +4143,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="34"/>
       <c r="C28" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="34"/>
@@ -3904,7 +4167,7 @@
       </c>
       <c r="U28" s="35"/>
       <c r="W28" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="Y28" s="35"/>
     </row>
@@ -3933,7 +4196,7 @@
       </c>
       <c r="U29" s="35"/>
       <c r="W29" s="1" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y29" s="35"/>
     </row>
@@ -3956,7 +4219,7 @@
       <c r="R30" s="34"/>
       <c r="U30" s="35"/>
       <c r="W30" s="1" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="Y30" s="35"/>
     </row>
@@ -3985,7 +4248,9 @@
       <c r="T31" s="5"/>
       <c r="U31" s="37"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
+      <c r="W31" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="37"/>
     </row>
@@ -3995,14 +4260,14 @@
         <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="34" t="s">
         <v>218</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="I32" s="35"/>
       <c r="J32" s="34" t="s">
@@ -4039,12 +4304,12 @@
       <c r="A33" s="3"/>
       <c r="B33" s="34"/>
       <c r="C33" s="1" t="s">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="E33" s="35"/>
       <c r="F33" s="34"/>
       <c r="G33" s="1" t="s">
-        <v>226</v>
+        <v>372</v>
       </c>
       <c r="I33" s="35"/>
       <c r="J33" s="39"/>
@@ -4070,10 +4335,13 @@
     <row r="34" spans="1:25" ht="30" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="34"/>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="1" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
@@ -4102,7 +4370,7 @@
       <c r="E35" s="35"/>
       <c r="F35" s="34"/>
       <c r="G35" s="1" t="s">
-        <v>234</v>
+        <v>374</v>
       </c>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
@@ -4127,7 +4395,9 @@
       <c r="D36" s="5"/>
       <c r="E36" s="37"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="37"/>
       <c r="J36" s="36"/>
@@ -4152,7 +4422,7 @@
     <row r="37" spans="1:25" ht="30" customHeight="1" thickBot="1">
       <c r="A37" s="3"/>
       <c r="B37" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="30" customHeight="1">
@@ -4161,7 +4431,7 @@
         <v>217</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
@@ -4169,7 +4439,7 @@
         <v>217</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H38" s="32"/>
       <c r="I38" s="33"/>
@@ -4177,7 +4447,7 @@
         <v>217</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L38" s="32"/>
       <c r="M38" s="33"/>
@@ -4185,7 +4455,7 @@
         <v>217</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="33"/>
@@ -4193,7 +4463,7 @@
         <v>217</v>
       </c>
       <c r="S38" s="32" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="T38" s="32"/>
       <c r="U38" s="33"/>
@@ -4201,7 +4471,7 @@
         <v>217</v>
       </c>
       <c r="W38" s="32" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="X38" s="32"/>
       <c r="Y38" s="33"/>
@@ -4210,31 +4480,31 @@
       <c r="A39" s="3"/>
       <c r="B39" s="34"/>
       <c r="C39" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E39" s="35"/>
       <c r="F39" s="34"/>
       <c r="G39" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I39" s="35"/>
       <c r="J39" s="34"/>
       <c r="K39" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M39" s="35"/>
       <c r="N39" s="34"/>
       <c r="O39" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="34"/>
       <c r="S39" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="U39" s="35"/>
       <c r="W39" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="Y39" s="35"/>
     </row>
@@ -4244,17 +4514,17 @@
       <c r="E40" s="35"/>
       <c r="F40" s="34"/>
       <c r="G40" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I40" s="35"/>
       <c r="J40" s="34"/>
       <c r="K40" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M40" s="35"/>
       <c r="N40" s="34"/>
       <c r="O40" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q40" s="35"/>
       <c r="R40" s="34"/>
@@ -4263,7 +4533,7 @@
       </c>
       <c r="U40" s="35"/>
       <c r="W40" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y40" s="35"/>
     </row>
@@ -4273,26 +4543,26 @@
       <c r="E41" s="35"/>
       <c r="F41" s="34"/>
       <c r="G41" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I41" s="35"/>
       <c r="J41" s="34"/>
       <c r="K41" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M41" s="35"/>
       <c r="N41" s="34"/>
       <c r="O41" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="Q41" s="35"/>
       <c r="R41" s="34"/>
       <c r="S41" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="U41" s="35"/>
       <c r="W41" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Y41" s="35"/>
     </row>
@@ -4308,7 +4578,7 @@
       <c r="I42" s="37"/>
       <c r="J42" s="36"/>
       <c r="K42" s="5" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="37"/>
@@ -4322,7 +4592,7 @@
       <c r="U42" s="37"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="X42" s="5"/>
       <c r="Y42" s="37"/>
@@ -4532,18 +4802,18 @@
     <row r="57" spans="2:26" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4552,6 +4822,798 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C5BD9-C352-D247-90D7-39BC98CF59A8}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="24" width="13.7109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1">
+      <c r="B2" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="L2" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1">
+      <c r="B3" s="80" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="76" t="str">
+        <f>B3&amp;"USDT"</f>
+        <v>BTCUSDT</v>
+      </c>
+      <c r="D3" s="86" t="str">
+        <f>"KRW-"&amp;B3</f>
+        <v>KRW-BTC</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="76" t="str">
+        <f>E3&amp;"USDT"</f>
+        <v>MANAUSDT</v>
+      </c>
+      <c r="G3" s="86" t="str">
+        <f>"KRW-"&amp;E3</f>
+        <v>KRW-MANA</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="76" t="str">
+        <f>H3&amp;"USDT"</f>
+        <v>TRXUSDT</v>
+      </c>
+      <c r="J3" s="86" t="str">
+        <f>"KRW-"&amp;H3</f>
+        <v>KRW-TRX</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="L3" s="76" t="str">
+        <f>K3&amp;"USDT"</f>
+        <v>NEOUSDT</v>
+      </c>
+      <c r="M3" s="81" t="str">
+        <f>"KRW-"&amp;K3</f>
+        <v>KRW-NEO</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="B4" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="76" t="str">
+        <f t="shared" ref="C4:C7" si="0">B4&amp;"USDT"</f>
+        <v>ETHUSDT</v>
+      </c>
+      <c r="D4" s="86" t="str">
+        <f>"KRW-"&amp;B4</f>
+        <v>KRW-ETH</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="76" t="str">
+        <f t="shared" ref="F4:F14" si="1">E4&amp;"USDT"</f>
+        <v>XRPUSDT</v>
+      </c>
+      <c r="G4" s="86" t="str">
+        <f>"KRW-"&amp;E4</f>
+        <v>KRW-XRP</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="76" t="str">
+        <f t="shared" ref="I4:I16" si="2">H4&amp;"USDT"</f>
+        <v>BATUSDT</v>
+      </c>
+      <c r="J4" s="86" t="str">
+        <f>"KRW-"&amp;H4</f>
+        <v>KRW-BAT</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="76" t="str">
+        <f t="shared" ref="L4:L30" si="3">K4&amp;"USDT"</f>
+        <v>TFUELUSDT</v>
+      </c>
+      <c r="M4" s="81" t="str">
+        <f>"KRW-"&amp;K4</f>
+        <v>KRW-TFUEL</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="B5" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>DOTUSDT</v>
+      </c>
+      <c r="D5" s="86" t="str">
+        <f>"KRW-"&amp;B5</f>
+        <v>KRW-DOT</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>AAVEUSDT</v>
+      </c>
+      <c r="G5" s="86" t="str">
+        <f>"KRW-"&amp;E5</f>
+        <v>KRW-AAVE</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>328</v>
+      </c>
+      <c r="I5" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>AXSUSDT</v>
+      </c>
+      <c r="J5" s="86" t="str">
+        <f>"KRW-"&amp;H5</f>
+        <v>KRW-AXS</v>
+      </c>
+      <c r="K5" s="80" t="s">
+        <v>342</v>
+      </c>
+      <c r="L5" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>KAVAUSDT</v>
+      </c>
+      <c r="M5" s="81" t="str">
+        <f>"KRW-"&amp;K5</f>
+        <v>KRW-KAVA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="B6" s="80" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="76" t="str">
+        <f t="shared" si="0"/>
+        <v>LINKUSDT</v>
+      </c>
+      <c r="D6" s="86" t="str">
+        <f>"KRW-"&amp;B6</f>
+        <v>KRW-LINK</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>XLMUSDT</v>
+      </c>
+      <c r="G6" s="86" t="str">
+        <f>"KRW-"&amp;E6</f>
+        <v>KRW-XLM</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>329</v>
+      </c>
+      <c r="I6" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>VETUSDT</v>
+      </c>
+      <c r="J6" s="86" t="str">
+        <f>"KRW-"&amp;H6</f>
+        <v>KRW-VET</v>
+      </c>
+      <c r="K6" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>ZILUSDT</v>
+      </c>
+      <c r="M6" s="81" t="str">
+        <f>"KRW-"&amp;K6</f>
+        <v>KRW-ZIL</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1">
+      <c r="B7" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="83" t="str">
+        <f t="shared" si="0"/>
+        <v>ADAUSDT</v>
+      </c>
+      <c r="D7" s="87" t="str">
+        <f>"KRW-"&amp;B7</f>
+        <v>KRW-ADA</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>DOGEUSDT</v>
+      </c>
+      <c r="G7" s="86" t="str">
+        <f>"KRW-"&amp;E7</f>
+        <v>KRW-DOGE</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="I7" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>ANKRUSDT</v>
+      </c>
+      <c r="J7" s="86" t="str">
+        <f>"KRW-"&amp;H7</f>
+        <v>KRW-ANKR</v>
+      </c>
+      <c r="K7" s="80" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>STXUSDT</v>
+      </c>
+      <c r="M7" s="81" t="str">
+        <f>"KRW-"&amp;K7</f>
+        <v>KRW-STX</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="E8" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>ATOMUSDT</v>
+      </c>
+      <c r="G8" s="86" t="str">
+        <f t="shared" ref="G8:G14" si="4">"KRW-"&amp;E8</f>
+        <v>KRW-ATOM</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>1INCHUSDT</v>
+      </c>
+      <c r="J8" s="86" t="str">
+        <f t="shared" ref="J8:J13" si="5">"KRW-"&amp;H8</f>
+        <v>KRW-1INCH</v>
+      </c>
+      <c r="K8" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>KNCUSDT</v>
+      </c>
+      <c r="M8" s="81" t="str">
+        <f t="shared" ref="M8:M16" si="6">"KRW-"&amp;K8</f>
+        <v>KRW-KNC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="E9" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>SXPUSDT</v>
+      </c>
+      <c r="G9" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>KRW-SXP</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>IOSTUSDT</v>
+      </c>
+      <c r="J9" s="86" t="str">
+        <f t="shared" si="5"/>
+        <v>KRW-IOST</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="L9" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>FLOWUSDT</v>
+      </c>
+      <c r="M9" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-FLOW</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="E10" s="80" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>XTZUSDT</v>
+      </c>
+      <c r="G10" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>KRW-XTZ</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>SANDUSDT</v>
+      </c>
+      <c r="J10" s="86" t="str">
+        <f t="shared" si="5"/>
+        <v>KRW-SAND</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="L10" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>CVCUSDT</v>
+      </c>
+      <c r="M10" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-CVC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="E11" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>NEARUSDT</v>
+      </c>
+      <c r="G11" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>KRW-NEAR</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="I11" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>ETCUSDT</v>
+      </c>
+      <c r="J11" s="86" t="str">
+        <f t="shared" si="5"/>
+        <v>KRW-ETC</v>
+      </c>
+      <c r="K11" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="L11" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>GASUSDT</v>
+      </c>
+      <c r="M11" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-GAS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="E12" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="76" t="str">
+        <f t="shared" si="1"/>
+        <v>BCHUSDT</v>
+      </c>
+      <c r="G12" s="86" t="str">
+        <f t="shared" si="4"/>
+        <v>KRW-BCH</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="I12" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>QTUMUSDT</v>
+      </c>
+      <c r="J12" s="86" t="str">
+        <f t="shared" si="5"/>
+        <v>KRW-QTUM</v>
+      </c>
+      <c r="K12" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>THETAUSDT</v>
+      </c>
+      <c r="M12" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-THETA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1">
+      <c r="E13" s="82" t="s">
+        <v>325</v>
+      </c>
+      <c r="F13" s="83" t="str">
+        <f t="shared" si="1"/>
+        <v>EOSUSDT</v>
+      </c>
+      <c r="G13" s="87" t="str">
+        <f t="shared" si="4"/>
+        <v>KRW-EOS</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>336</v>
+      </c>
+      <c r="I13" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>HBARUSDT</v>
+      </c>
+      <c r="J13" s="86" t="str">
+        <f t="shared" si="5"/>
+        <v>KRW-HBAR</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>350</v>
+      </c>
+      <c r="L13" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>SCUSDT</v>
+      </c>
+      <c r="M13" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-SC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="H14" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="I14" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>ZRXUSDT</v>
+      </c>
+      <c r="J14" s="86" t="str">
+        <f t="shared" ref="J14:J15" si="7">"KRW-"&amp;H14</f>
+        <v>KRW-ZRX</v>
+      </c>
+      <c r="K14" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>LSKUSDT</v>
+      </c>
+      <c r="M14" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-LSK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="H15" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="I15" s="76" t="str">
+        <f t="shared" si="2"/>
+        <v>CHZUSDT</v>
+      </c>
+      <c r="J15" s="86" t="str">
+        <f t="shared" si="7"/>
+        <v>KRW-CHZ</v>
+      </c>
+      <c r="K15" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="L15" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>HIVEUSDT</v>
+      </c>
+      <c r="M15" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-HIVE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1">
+      <c r="H16" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="I16" s="83" t="str">
+        <f t="shared" si="2"/>
+        <v>STORJUSDT</v>
+      </c>
+      <c r="J16" s="87" t="str">
+        <f t="shared" ref="J16" si="8">"KRW-"&amp;H16</f>
+        <v>KRW-STORJ</v>
+      </c>
+      <c r="K16" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>STPTUSDT</v>
+      </c>
+      <c r="M16" s="81" t="str">
+        <f t="shared" si="6"/>
+        <v>KRW-STPT</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="30" customHeight="1">
+      <c r="B17" s="2" t="str">
+        <f>D3&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;D7&amp;","&amp;G3&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7</f>
+        <v>KRW-BTC,KRW-ETH,KRW-DOT,KRW-LINK,KRW-ADA,KRW-MANA,KRW-XRP,KRW-AAVE,KRW-XLM,KRW-DOGE</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>354</v>
+      </c>
+      <c r="L17" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>GLMUSDT</v>
+      </c>
+      <c r="M17" s="81" t="str">
+        <f t="shared" ref="M17:M30" si="9">"KRW-"&amp;K17</f>
+        <v>KRW-GLM</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="30" customHeight="1">
+      <c r="B18" s="2" t="str">
+        <f>G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;G11&amp;","&amp;G12&amp;","&amp;G13&amp;","&amp;J3&amp;","&amp;J4&amp;","&amp;J5&amp;","&amp;J6</f>
+        <v>KRW-ATOM,KRW-SXP,KRW-XTZ,KRW-NEAR,KRW-BCH,KRW-EOS,KRW-TRX,KRW-BAT,KRW-AXS,KRW-VET</v>
+      </c>
+      <c r="K18" s="80" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>ARKUSDT</v>
+      </c>
+      <c r="M18" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-ARK</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="30" customHeight="1">
+      <c r="B19" s="2" t="str">
+        <f>J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16</f>
+        <v>KRW-ANKR,KRW-1INCH,KRW-IOST,KRW-SAND,KRW-ETC,KRW-QTUM,KRW-HBAR,KRW-ZRX,KRW-CHZ,KRW-STORJ</v>
+      </c>
+      <c r="K19" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="L19" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>JSTUSDT</v>
+      </c>
+      <c r="M19" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-JST</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="30" customHeight="1">
+      <c r="B20" s="2" t="str">
+        <f>M3&amp;","&amp;M4&amp;","&amp;M5&amp;","&amp;M6&amp;","&amp;M7&amp;","&amp;M8&amp;","&amp;M9&amp;","&amp;M10&amp;","&amp;M11&amp;","&amp;M12</f>
+        <v>KRW-NEO,KRW-TFUEL,KRW-KAVA,KRW-ZIL,KRW-STX,KRW-KNC,KRW-FLOW,KRW-CVC,KRW-GAS,KRW-THETA</v>
+      </c>
+      <c r="K20" s="80" t="s">
+        <v>357</v>
+      </c>
+      <c r="L20" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>ELFUSDT</v>
+      </c>
+      <c r="M20" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-ELF</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="30" customHeight="1">
+      <c r="B21" s="2" t="str">
+        <f>M13&amp;","&amp;M14&amp;","&amp;M15&amp;","&amp;M16&amp;","&amp;M17&amp;","&amp;M18&amp;","&amp;M19&amp;","&amp;M20&amp;","&amp;M21&amp;","&amp;M22</f>
+        <v>KRW-SC,KRW-LSK,KRW-HIVE,KRW-STPT,KRW-GLM,KRW-ARK,KRW-JST,KRW-ELF,KRW-ONT,KRW-STRAX</v>
+      </c>
+      <c r="K21" s="80" t="s">
+        <v>358</v>
+      </c>
+      <c r="L21" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>ONTUSDT</v>
+      </c>
+      <c r="M21" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-ONT</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="30" customHeight="1">
+      <c r="B22" s="2" t="str">
+        <f>M23&amp;","&amp;M24&amp;","&amp;M25&amp;","&amp;M26&amp;","&amp;M27&amp;","&amp;M28&amp;","&amp;M29&amp;","&amp;M30</f>
+        <v>KRW-STEEM,KRW-POWR,KRW-PUNDIX,KRW-SNT,KRW-IQ,KRW-XEC,KRW-IOTA,KRW-ONG</v>
+      </c>
+      <c r="K22" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="L22" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>STRAXUSDT</v>
+      </c>
+      <c r="M22" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-STRAX</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="30" customHeight="1">
+      <c r="K23" s="80" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>STEEMUSDT</v>
+      </c>
+      <c r="M23" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-STEEM</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="30" customHeight="1">
+      <c r="K24" s="80" t="s">
+        <v>361</v>
+      </c>
+      <c r="L24" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>POWRUSDT</v>
+      </c>
+      <c r="M24" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-POWR</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="30" customHeight="1">
+      <c r="K25" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="L25" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>PUNDIXUSDT</v>
+      </c>
+      <c r="M25" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-PUNDIX</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="30" customHeight="1">
+      <c r="K26" s="80" t="s">
+        <v>363</v>
+      </c>
+      <c r="L26" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>SNTUSDT</v>
+      </c>
+      <c r="M26" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-SNT</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="30" customHeight="1">
+      <c r="K27" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>IQUSDT</v>
+      </c>
+      <c r="M27" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-IQ</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="30" customHeight="1">
+      <c r="K28" s="80" t="s">
+        <v>365</v>
+      </c>
+      <c r="L28" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>XECUSDT</v>
+      </c>
+      <c r="M28" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-XEC</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="30" customHeight="1">
+      <c r="K29" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="L29" s="76" t="str">
+        <f t="shared" si="3"/>
+        <v>IOTAUSDT</v>
+      </c>
+      <c r="M29" s="81" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-IOTA</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="30" customHeight="1" thickBot="1">
+      <c r="K30" s="90" t="s">
+        <v>367</v>
+      </c>
+      <c r="L30" s="83" t="str">
+        <f t="shared" si="3"/>
+        <v>ONGUSDT</v>
+      </c>
+      <c r="M30" s="84" t="str">
+        <f t="shared" si="9"/>
+        <v>KRW-ONG</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="30" customHeight="1"/>
+    <row r="32" spans="2:13" ht="30" customHeight="1"/>
+    <row r="33" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="34" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="35" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="36" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="37" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="38" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="39" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="40" s="2" customFormat="1" ht="30" customHeight="1"/>
+    <row r="41" s="2" customFormat="1" ht="30" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96670032-8F68-2D4F-8F50-C25E30D95E14}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -4568,14 +5630,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="25" customHeight="1">
       <c r="A2" s="6"/>
@@ -4648,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D5" s="43" t="b">
         <v>0</v>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an-youbin/Desktop/StockDream/crypto_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63924cf84bb7f716/바탕 화면/DB금융공모전/데이터분석/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE7FC1-F1C7-884A-B2C6-D06DB074F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{89CE7FC1-F1C7-884A-B2C6-D06DB074F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9EEC53-FED9-4BD6-912E-555A06579C3A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="2" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
+    <workbookView xWindow="1470" yWindow="1013" windowWidth="18165" windowHeight="11767" firstSheet="1" activeTab="5" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
   <sheets>
     <sheet name="코인모음" sheetId="1" r:id="rId1"/>
@@ -1588,7 +1588,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1602,21 +1602,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Apple SD Gothic Neo Regular"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2146,7 +2146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2350,134 +2350,125 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2836,118 +2827,118 @@
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="25" width="13.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="10.71875" style="1"/>
+    <col min="2" max="25" width="13.71875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.71875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:31" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="65" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="65" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="89" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="65" t="s">
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="65" t="s">
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="65" t="s">
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="67"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="91"/>
       <c r="AA2" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="AD2" s="98" t="s">
+      <c r="AD2" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="AE2" s="98" t="s">
+      <c r="AE2" s="85" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="30" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="96"/>
       <c r="H3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="98"/>
       <c r="L3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="62"/>
+      <c r="O3" s="96"/>
       <c r="P3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="62"/>
+      <c r="S3" s="96"/>
       <c r="T3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="61" t="s">
+      <c r="V3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="62"/>
+      <c r="W3" s="96"/>
       <c r="X3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2960,10 +2951,10 @@
       <c r="AB3" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AD3" s="98" t="s">
+      <c r="AD3" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="AE3" s="98" t="s">
+      <c r="AE3" s="85" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2971,7 +2962,7 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="80" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2983,7 +2974,7 @@
       <c r="E4" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="77" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3049,10 +3040,10 @@
       <c r="AB4" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AD4" s="98" t="s">
+      <c r="AD4" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="AE4" s="98" t="s">
+      <c r="AE4" s="85" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3061,7 +3052,7 @@
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="80" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3073,7 +3064,7 @@
       <c r="E5" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="81" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="46" t="s">
@@ -3139,10 +3130,10 @@
       <c r="AB5" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AD5" s="98" t="s">
+      <c r="AD5" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="AE5" s="98" t="s">
+      <c r="AE5" s="85" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3151,7 +3142,7 @@
         <f t="shared" ref="A6:A24" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="80" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -3163,7 +3154,7 @@
       <c r="E6" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3229,10 +3220,10 @@
       <c r="AB6" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AD6" s="98" t="s">
+      <c r="AD6" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="AE6" s="98" t="s">
+      <c r="AE6" s="85" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3241,7 +3232,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="80" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -3253,7 +3244,7 @@
       <c r="E7" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="77" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -3319,10 +3310,10 @@
       <c r="AB7" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AD7" s="98" t="s">
+      <c r="AD7" s="85" t="s">
         <v>407</v>
       </c>
-      <c r="AE7" s="100" t="s">
+      <c r="AE7" s="87" t="s">
         <v>408</v>
       </c>
     </row>
@@ -3331,7 +3322,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="82" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="46" t="s">
@@ -3343,7 +3334,7 @@
       <c r="E8" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="77" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -3403,10 +3394,10 @@
       <c r="Y8" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AD8" s="100" t="s">
+      <c r="AD8" s="87" t="s">
         <v>422</v>
       </c>
-      <c r="AE8" s="100" t="s">
+      <c r="AE8" s="87" t="s">
         <v>425</v>
       </c>
     </row>
@@ -3415,7 +3406,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="80" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -3427,7 +3418,7 @@
       <c r="E9" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -3487,10 +3478,10 @@
       <c r="Y9" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="AD9" s="98" t="s">
+      <c r="AD9" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="AE9" s="100" t="s">
+      <c r="AE9" s="87" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3499,19 +3490,19 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="77" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -3571,10 +3562,10 @@
       <c r="Y10" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" s="98" t="s">
+      <c r="AD10" s="85" t="s">
         <v>398</v>
       </c>
-      <c r="AE10" s="98" t="s">
+      <c r="AE10" s="85" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3583,10 +3574,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="84" t="s">
         <v>428</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -3595,7 +3586,7 @@
       <c r="E11" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="77" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -3655,10 +3646,10 @@
       <c r="Y11" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="AD11" s="98" t="s">
+      <c r="AD11" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="AE11" s="98" t="s">
+      <c r="AE11" s="85" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3731,10 +3722,10 @@
       <c r="Y12" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" s="99" t="s">
+      <c r="AD12" s="86" t="s">
         <v>428</v>
       </c>
-      <c r="AE12" s="98" t="s">
+      <c r="AE12" s="85" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3807,10 +3798,10 @@
       <c r="Y13" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="AD13" s="98" t="s">
+      <c r="AD13" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="AE13" s="98" t="s">
+      <c r="AE13" s="85" t="s">
         <v>411</v>
       </c>
     </row>
@@ -3885,10 +3876,10 @@
       <c r="Y14" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" s="98" t="s">
+      <c r="AD14" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="AE14" s="98" t="s">
+      <c r="AE14" s="85" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3963,10 +3954,10 @@
       <c r="Y15" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AD15" s="98" t="s">
+      <c r="AD15" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="AE15" s="98" t="s">
+      <c r="AE15" s="85" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4025,10 +4016,10 @@
       <c r="Y16" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="AD16" s="98" t="s">
+      <c r="AD16" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="AE16" s="98" t="s">
+      <c r="AE16" s="85" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4091,10 +4082,10 @@
       <c r="Y17" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="AD17" s="98" t="s">
+      <c r="AD17" s="85" t="s">
         <v>259</v>
       </c>
-      <c r="AE17" s="98" t="s">
+      <c r="AE17" s="85" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4147,10 +4138,10 @@
       <c r="Y18" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="AD18" s="98" t="s">
+      <c r="AD18" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="AE18" s="98" t="s">
+      <c r="AE18" s="85" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4191,10 +4182,10 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="AD19" s="98" t="s">
+      <c r="AD19" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="AE19" s="100" t="s">
+      <c r="AE19" s="87" t="s">
         <v>397</v>
       </c>
     </row>
@@ -4241,10 +4232,10 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
-      <c r="AD20" s="98" t="s">
+      <c r="AD20" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="AE20" s="100" t="s">
+      <c r="AE20" s="87" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4289,10 +4280,10 @@
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="AD21" s="98" t="s">
+      <c r="AD21" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="AE21" s="98" t="s">
+      <c r="AE21" s="85" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4331,10 +4322,10 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
-      <c r="AD22" s="98" t="s">
+      <c r="AD22" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="AE22" s="100" t="s">
+      <c r="AE22" s="87" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4369,10 +4360,10 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
-      <c r="AD23" s="98" t="s">
+      <c r="AD23" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="AE23" s="98" t="s">
+      <c r="AE23" s="85" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4407,19 +4398,19 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
-      <c r="AD24" s="100" t="s">
+      <c r="AD24" s="87" t="s">
         <v>417</v>
       </c>
-      <c r="AE24" s="98" t="s">
+      <c r="AE24" s="85" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="30" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="AD25" s="98" t="s">
+      <c r="AD25" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="AE25" s="98" t="s">
+      <c r="AE25" s="85" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4428,10 +4419,10 @@
       <c r="B26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AD26" s="98" t="s">
+      <c r="AD26" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="AE26" s="98" t="s">
+      <c r="AE26" s="85" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4485,10 +4476,10 @@
       </c>
       <c r="X27" s="26"/>
       <c r="Y27" s="27"/>
-      <c r="AD27" s="98" t="s">
+      <c r="AD27" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="AE27" s="98" t="s">
+      <c r="AE27" s="85" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4523,10 +4514,10 @@
         <v>256</v>
       </c>
       <c r="Y28" s="29"/>
-      <c r="AD28" s="98" t="s">
+      <c r="AD28" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="AE28" s="98" t="s">
+      <c r="AE28" s="85" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4561,10 +4552,10 @@
         <v>255</v>
       </c>
       <c r="Y29" s="29"/>
-      <c r="AD29" s="98" t="s">
+      <c r="AD29" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="AE29" s="98" t="s">
+      <c r="AE29" s="85" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4596,10 +4587,10 @@
         <v>254</v>
       </c>
       <c r="Y30" s="29"/>
-      <c r="AD30" s="98" t="s">
+      <c r="AD30" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="AE30" s="98" t="s">
+      <c r="AE30" s="85" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4621,14 +4612,14 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="28"/>
       <c r="U31" s="29"/>
-      <c r="W31" s="85" t="s">
+      <c r="W31" s="1" t="s">
         <v>228</v>
       </c>
       <c r="Y31" s="29"/>
-      <c r="AD31" s="98" t="s">
+      <c r="AD31" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="AE31" s="98" t="s">
+      <c r="AE31" s="85" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4660,10 +4651,10 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="31"/>
-      <c r="AD32" s="100" t="s">
+      <c r="AD32" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="AE32" s="98" t="s">
+      <c r="AE32" s="85" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4712,10 +4703,10 @@
         <v>341</v>
       </c>
       <c r="Y33" s="29"/>
-      <c r="AD33" s="98" t="s">
+      <c r="AD33" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="AE33" s="98" t="s">
+      <c r="AE33" s="85" t="s">
         <v>279</v>
       </c>
     </row>
@@ -4750,10 +4741,10 @@
         <v>343</v>
       </c>
       <c r="Y34" s="29"/>
-      <c r="AD34" s="98" t="s">
+      <c r="AD34" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="AE34" s="98" t="s">
+      <c r="AE34" s="85" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4788,10 +4779,10 @@
         <v>345</v>
       </c>
       <c r="Y35" s="29"/>
-      <c r="AD35" s="100" t="s">
+      <c r="AD35" s="87" t="s">
         <v>414</v>
       </c>
-      <c r="AE35" s="98" t="s">
+      <c r="AE35" s="85" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4824,10 +4815,10 @@
         <v>344</v>
       </c>
       <c r="Y36" s="29"/>
-      <c r="AD36" s="100" t="s">
+      <c r="AD36" s="87" t="s">
         <v>389</v>
       </c>
-      <c r="AE36" s="98" t="s">
+      <c r="AE36" s="85" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4850,14 +4841,14 @@
       <c r="Q37" s="29"/>
       <c r="R37" s="28"/>
       <c r="U37" s="29"/>
-      <c r="W37" s="85" t="s">
+      <c r="W37" s="1" t="s">
         <v>217</v>
       </c>
       <c r="Y37" s="29"/>
-      <c r="AD37" s="98" t="s">
+      <c r="AD37" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="AE37" s="98" t="s">
+      <c r="AE37" s="85" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4889,35 +4880,35 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="31"/>
-      <c r="AD38" s="98" t="s">
+      <c r="AD38" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="AE38" s="98" t="s">
+      <c r="AE38" s="85" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="30" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="AD39" s="98" t="s">
+      <c r="AD39" s="85" t="s">
         <v>317</v>
       </c>
-      <c r="AE39" s="98" t="s">
+      <c r="AE39" s="85" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="30" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="AD40" s="98" t="s">
+      <c r="AD40" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="AE40" s="100" t="s">
+      <c r="AE40" s="87" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="30" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="AD41" s="98"/>
-      <c r="AE41" s="98" t="s">
+      <c r="AD41" s="85"/>
+      <c r="AE41" s="85" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4994,18 +4985,18 @@
     <sortCondition ref="AD2:AD80"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="R2:U2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5021,10 +5012,10 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="24" width="13.7109375" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="24" width="13.71875" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1">
@@ -5033,551 +5024,551 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="64" t="s">
         <v>323</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="65" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="69" t="str">
+      <c r="C3" s="61" t="str">
         <f>B3&amp;"USDT"</f>
         <v>BTCUSDT</v>
       </c>
-      <c r="D3" s="80" t="str">
+      <c r="D3" s="72" t="str">
         <f>"KRW-"&amp;B3</f>
         <v>KRW-BTC</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="69" t="str">
+      <c r="F3" s="61" t="str">
         <f>E3&amp;"USDT"</f>
         <v>MANAUSDT</v>
       </c>
-      <c r="G3" s="80" t="str">
+      <c r="G3" s="72" t="str">
         <f>"KRW-"&amp;E3</f>
         <v>KRW-MANA</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="69" t="str">
+      <c r="I3" s="61" t="str">
         <f>H3&amp;"USDT"</f>
         <v>TRXUSDT</v>
       </c>
-      <c r="J3" s="80" t="str">
+      <c r="J3" s="72" t="str">
         <f>"KRW-"&amp;H3</f>
         <v>KRW-TRX</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="L3" s="69" t="str">
+      <c r="L3" s="61" t="str">
         <f>K3&amp;"USDT"</f>
         <v>NEOUSDT</v>
       </c>
-      <c r="M3" s="75" t="str">
+      <c r="M3" s="67" t="str">
         <f>"KRW-"&amp;K3</f>
         <v>KRW-NEO</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="61" t="str">
         <f t="shared" ref="C4:C7" si="0">B4&amp;"USDT"</f>
         <v>ETHUSDT</v>
       </c>
-      <c r="D4" s="80" t="str">
+      <c r="D4" s="72" t="str">
         <f>"KRW-"&amp;B4</f>
         <v>KRW-ETH</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="69" t="str">
-        <f t="shared" ref="F4:F14" si="1">E4&amp;"USDT"</f>
+      <c r="F4" s="61" t="str">
+        <f t="shared" ref="F4:F13" si="1">E4&amp;"USDT"</f>
         <v>XRPUSDT</v>
       </c>
-      <c r="G4" s="80" t="str">
+      <c r="G4" s="72" t="str">
         <f>"KRW-"&amp;E4</f>
         <v>KRW-XRP</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="69" t="str">
+      <c r="I4" s="61" t="str">
         <f t="shared" ref="I4:I16" si="2">H4&amp;"USDT"</f>
         <v>BATUSDT</v>
       </c>
-      <c r="J4" s="80" t="str">
+      <c r="J4" s="72" t="str">
         <f>"KRW-"&amp;H4</f>
         <v>KRW-BAT</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>294</v>
       </c>
-      <c r="L4" s="69" t="str">
+      <c r="L4" s="61" t="str">
         <f t="shared" ref="L4:L30" si="3">K4&amp;"USDT"</f>
         <v>TFUELUSDT</v>
       </c>
-      <c r="M4" s="75" t="str">
+      <c r="M4" s="67" t="str">
         <f>"KRW-"&amp;K4</f>
         <v>KRW-TFUEL</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="69" t="str">
+      <c r="C5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>DOTUSDT</v>
       </c>
-      <c r="D5" s="80" t="str">
+      <c r="D5" s="72" t="str">
         <f>"KRW-"&amp;B5</f>
         <v>KRW-DOT</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="69" t="str">
+      <c r="F5" s="61" t="str">
         <f t="shared" si="1"/>
         <v>AAVEUSDT</v>
       </c>
-      <c r="G5" s="80" t="str">
+      <c r="G5" s="72" t="str">
         <f>"KRW-"&amp;E5</f>
         <v>KRW-AAVE</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="I5" s="69" t="str">
+      <c r="I5" s="61" t="str">
         <f t="shared" si="2"/>
         <v>AXSUSDT</v>
       </c>
-      <c r="J5" s="80" t="str">
+      <c r="J5" s="72" t="str">
         <f>"KRW-"&amp;H5</f>
         <v>KRW-AXS</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="69" t="str">
+      <c r="L5" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KAVAUSDT</v>
       </c>
-      <c r="M5" s="75" t="str">
+      <c r="M5" s="67" t="str">
         <f>"KRW-"&amp;K5</f>
         <v>KRW-KAVA</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="69" t="str">
+      <c r="C6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>LINKUSDT</v>
       </c>
-      <c r="D6" s="80" t="str">
+      <c r="D6" s="72" t="str">
         <f>"KRW-"&amp;B6</f>
         <v>KRW-LINK</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="69" t="str">
+      <c r="F6" s="61" t="str">
         <f t="shared" si="1"/>
         <v>XLMUSDT</v>
       </c>
-      <c r="G6" s="80" t="str">
+      <c r="G6" s="72" t="str">
         <f>"KRW-"&amp;E6</f>
         <v>KRW-XLM</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="H6" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="I6" s="69" t="str">
+      <c r="I6" s="61" t="str">
         <f t="shared" si="2"/>
         <v>VETUSDT</v>
       </c>
-      <c r="J6" s="80" t="str">
+      <c r="J6" s="72" t="str">
         <f>"KRW-"&amp;H6</f>
         <v>KRW-VET</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="L6" s="69" t="str">
+      <c r="L6" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ZILUSDT</v>
       </c>
-      <c r="M6" s="75" t="str">
+      <c r="M6" s="67" t="str">
         <f>"KRW-"&amp;K6</f>
         <v>KRW-ZIL</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1">
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="77" t="str">
+      <c r="C7" s="69" t="str">
         <f t="shared" si="0"/>
         <v>ADAUSDT</v>
       </c>
-      <c r="D7" s="81" t="str">
+      <c r="D7" s="73" t="str">
         <f>"KRW-"&amp;B7</f>
         <v>KRW-ADA</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="69" t="str">
+      <c r="F7" s="61" t="str">
         <f t="shared" si="1"/>
         <v>DOGEUSDT</v>
       </c>
-      <c r="G7" s="80" t="str">
+      <c r="G7" s="72" t="str">
         <f>"KRW-"&amp;E7</f>
         <v>KRW-DOGE</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="I7" s="69" t="str">
+      <c r="I7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>ANKRUSDT</v>
       </c>
-      <c r="J7" s="80" t="str">
+      <c r="J7" s="72" t="str">
         <f>"KRW-"&amp;H7</f>
         <v>KRW-ANKR</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="L7" s="69" t="str">
+      <c r="L7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>STXUSDT</v>
       </c>
-      <c r="M7" s="75" t="str">
+      <c r="M7" s="67" t="str">
         <f>"KRW-"&amp;K7</f>
         <v>KRW-STX</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1">
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="69" t="str">
+      <c r="F8" s="61" t="str">
         <f t="shared" si="1"/>
         <v>ATOMUSDT</v>
       </c>
-      <c r="G8" s="80" t="str">
-        <f t="shared" ref="G8:G14" si="4">"KRW-"&amp;E8</f>
+      <c r="G8" s="72" t="str">
+        <f t="shared" ref="G8:G13" si="4">"KRW-"&amp;E8</f>
         <v>KRW-ATOM</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="66" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="69" t="str">
+      <c r="I8" s="61" t="str">
         <f t="shared" si="2"/>
         <v>1INCHUSDT</v>
       </c>
-      <c r="J8" s="80" t="str">
+      <c r="J8" s="72" t="str">
         <f t="shared" ref="J8:J13" si="5">"KRW-"&amp;H8</f>
         <v>KRW-1INCH</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="L8" s="69" t="str">
+      <c r="L8" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KNCUSDT</v>
       </c>
-      <c r="M8" s="75" t="str">
+      <c r="M8" s="67" t="str">
         <f t="shared" ref="M8:M16" si="6">"KRW-"&amp;K8</f>
         <v>KRW-KNC</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1">
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="69" t="str">
+      <c r="F9" s="61" t="str">
         <f t="shared" si="1"/>
         <v>SXPUSDT</v>
       </c>
-      <c r="G9" s="80" t="str">
+      <c r="G9" s="72" t="str">
         <f t="shared" si="4"/>
         <v>KRW-SXP</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="I9" s="69" t="str">
+      <c r="I9" s="61" t="str">
         <f t="shared" si="2"/>
         <v>IOSTUSDT</v>
       </c>
-      <c r="J9" s="80" t="str">
+      <c r="J9" s="72" t="str">
         <f t="shared" si="5"/>
         <v>KRW-IOST</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="L9" s="69" t="str">
+      <c r="L9" s="61" t="str">
         <f t="shared" si="3"/>
         <v>FLOWUSDT</v>
       </c>
-      <c r="M9" s="75" t="str">
+      <c r="M9" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-FLOW</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1">
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="F10" s="69" t="str">
+      <c r="F10" s="61" t="str">
         <f t="shared" si="1"/>
         <v>XTZUSDT</v>
       </c>
-      <c r="G10" s="80" t="str">
+      <c r="G10" s="72" t="str">
         <f t="shared" si="4"/>
         <v>KRW-XTZ</v>
       </c>
-      <c r="H10" s="74" t="s">
+      <c r="H10" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="69" t="str">
+      <c r="I10" s="61" t="str">
         <f t="shared" si="2"/>
         <v>SANDUSDT</v>
       </c>
-      <c r="J10" s="80" t="str">
+      <c r="J10" s="72" t="str">
         <f t="shared" si="5"/>
         <v>KRW-SAND</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="61" t="str">
         <f t="shared" si="3"/>
         <v>CVCUSDT</v>
       </c>
-      <c r="M10" s="75" t="str">
+      <c r="M10" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-CVC</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1">
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="66" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="69" t="str">
+      <c r="F11" s="61" t="str">
         <f t="shared" si="1"/>
         <v>NEARUSDT</v>
       </c>
-      <c r="G11" s="80" t="str">
+      <c r="G11" s="72" t="str">
         <f t="shared" si="4"/>
         <v>KRW-NEAR</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="I11" s="69" t="str">
+      <c r="I11" s="61" t="str">
         <f t="shared" si="2"/>
         <v>ETCUSDT</v>
       </c>
-      <c r="J11" s="80" t="str">
+      <c r="J11" s="72" t="str">
         <f t="shared" si="5"/>
         <v>KRW-ETC</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="61" t="str">
         <f t="shared" si="3"/>
         <v>GASUSDT</v>
       </c>
-      <c r="M11" s="75" t="str">
+      <c r="M11" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-GAS</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1">
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="69" t="str">
+      <c r="F12" s="61" t="str">
         <f t="shared" si="1"/>
         <v>BCHUSDT</v>
       </c>
-      <c r="G12" s="80" t="str">
+      <c r="G12" s="72" t="str">
         <f t="shared" si="4"/>
         <v>KRW-BCH</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="69" t="str">
+      <c r="I12" s="61" t="str">
         <f t="shared" si="2"/>
         <v>QTUMUSDT</v>
       </c>
-      <c r="J12" s="80" t="str">
+      <c r="J12" s="72" t="str">
         <f t="shared" si="5"/>
         <v>KRW-QTUM</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="66" t="s">
         <v>302</v>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="61" t="str">
         <f t="shared" si="3"/>
         <v>THETAUSDT</v>
       </c>
-      <c r="M12" s="75" t="str">
+      <c r="M12" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-THETA</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" thickBot="1">
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="77" t="str">
+      <c r="F13" s="69" t="str">
         <f t="shared" si="1"/>
         <v>EOSUSDT</v>
       </c>
-      <c r="G13" s="81" t="str">
+      <c r="G13" s="73" t="str">
         <f t="shared" si="4"/>
         <v>KRW-EOS</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="I13" s="69" t="str">
+      <c r="I13" s="61" t="str">
         <f t="shared" si="2"/>
         <v>HBARUSDT</v>
       </c>
-      <c r="J13" s="80" t="str">
+      <c r="J13" s="72" t="str">
         <f t="shared" si="5"/>
         <v>KRW-HBAR</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="61" t="str">
         <f t="shared" si="3"/>
         <v>SCUSDT</v>
       </c>
-      <c r="M13" s="75" t="str">
+      <c r="M13" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-SC</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="I14" s="69" t="str">
+      <c r="I14" s="61" t="str">
         <f t="shared" si="2"/>
         <v>ZRXUSDT</v>
       </c>
-      <c r="J14" s="80" t="str">
+      <c r="J14" s="72" t="str">
         <f t="shared" ref="J14:J15" si="7">"KRW-"&amp;H14</f>
         <v>KRW-ZRX</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="L14" s="69" t="str">
+      <c r="L14" s="61" t="str">
         <f t="shared" si="3"/>
         <v>LSKUSDT</v>
       </c>
-      <c r="M14" s="75" t="str">
+      <c r="M14" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-LSK</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="I15" s="69" t="str">
+      <c r="I15" s="61" t="str">
         <f t="shared" si="2"/>
         <v>CHZUSDT</v>
       </c>
-      <c r="J15" s="80" t="str">
+      <c r="J15" s="72" t="str">
         <f t="shared" si="7"/>
         <v>KRW-CHZ</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="L15" s="69" t="str">
+      <c r="L15" s="61" t="str">
         <f t="shared" si="3"/>
         <v>HIVEUSDT</v>
       </c>
-      <c r="M15" s="75" t="str">
+      <c r="M15" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-HIVE</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" thickBot="1">
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="I16" s="77" t="str">
+      <c r="I16" s="69" t="str">
         <f t="shared" si="2"/>
         <v>STORJUSDT</v>
       </c>
-      <c r="J16" s="81" t="str">
+      <c r="J16" s="73" t="str">
         <f t="shared" ref="J16" si="8">"KRW-"&amp;H16</f>
         <v>KRW-STORJ</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="66" t="s">
         <v>306</v>
       </c>
-      <c r="L16" s="69" t="str">
+      <c r="L16" s="61" t="str">
         <f t="shared" si="3"/>
         <v>STPTUSDT</v>
       </c>
-      <c r="M16" s="75" t="str">
+      <c r="M16" s="67" t="str">
         <f t="shared" si="6"/>
         <v>KRW-STPT</v>
       </c>
@@ -5587,14 +5578,14 @@
         <f>D3&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;D7&amp;","&amp;G3&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7</f>
         <v>KRW-BTC,KRW-ETH,KRW-DOT,KRW-LINK,KRW-ADA,KRW-MANA,KRW-XRP,KRW-AAVE,KRW-XLM,KRW-DOGE</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="66" t="s">
         <v>307</v>
       </c>
-      <c r="L17" s="69" t="str">
+      <c r="L17" s="61" t="str">
         <f t="shared" si="3"/>
         <v>GLMUSDT</v>
       </c>
-      <c r="M17" s="75" t="str">
+      <c r="M17" s="67" t="str">
         <f t="shared" ref="M17:M30" si="9">"KRW-"&amp;K17</f>
         <v>KRW-GLM</v>
       </c>
@@ -5604,14 +5595,14 @@
         <f>G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;G11&amp;","&amp;G12&amp;","&amp;G13&amp;","&amp;J3&amp;","&amp;J4&amp;","&amp;J5&amp;","&amp;J6</f>
         <v>KRW-ATOM,KRW-SXP,KRW-XTZ,KRW-NEAR,KRW-BCH,KRW-EOS,KRW-TRX,KRW-BAT,KRW-AXS,KRW-VET</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="L18" s="69" t="str">
+      <c r="L18" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ARKUSDT</v>
       </c>
-      <c r="M18" s="75" t="str">
+      <c r="M18" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-ARK</v>
       </c>
@@ -5621,14 +5612,14 @@
         <f>J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16</f>
         <v>KRW-ANKR,KRW-1INCH,KRW-IOST,KRW-SAND,KRW-ETC,KRW-QTUM,KRW-HBAR,KRW-ZRX,KRW-CHZ,KRW-STORJ</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="L19" s="69" t="str">
+      <c r="L19" s="61" t="str">
         <f t="shared" si="3"/>
         <v>JSTUSDT</v>
       </c>
-      <c r="M19" s="75" t="str">
+      <c r="M19" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-JST</v>
       </c>
@@ -5638,14 +5629,14 @@
         <f>M3&amp;","&amp;M4&amp;","&amp;M5&amp;","&amp;M6&amp;","&amp;M7&amp;","&amp;M8&amp;","&amp;M9&amp;","&amp;M10&amp;","&amp;M11&amp;","&amp;M12</f>
         <v>KRW-NEO,KRW-TFUEL,KRW-KAVA,KRW-ZIL,KRW-STX,KRW-KNC,KRW-FLOW,KRW-CVC,KRW-GAS,KRW-THETA</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="K20" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="L20" s="69" t="str">
+      <c r="L20" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ELFUSDT</v>
       </c>
-      <c r="M20" s="75" t="str">
+      <c r="M20" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-ELF</v>
       </c>
@@ -5655,14 +5646,14 @@
         <f>M13&amp;","&amp;M14&amp;","&amp;M15&amp;","&amp;M16&amp;","&amp;M17&amp;","&amp;M18&amp;","&amp;M19&amp;","&amp;M20&amp;","&amp;M21&amp;","&amp;M22</f>
         <v>KRW-SC,KRW-LSK,KRW-HIVE,KRW-STPT,KRW-GLM,KRW-ARK,KRW-JST,KRW-ELF,KRW-ONT,KRW-STRAX</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="L21" s="69" t="str">
+      <c r="L21" s="61" t="str">
         <f t="shared" si="3"/>
         <v>ONTUSDT</v>
       </c>
-      <c r="M21" s="75" t="str">
+      <c r="M21" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-ONT</v>
       </c>
@@ -5672,118 +5663,118 @@
         <f>M23&amp;","&amp;M24&amp;","&amp;M25&amp;","&amp;M26&amp;","&amp;M27&amp;","&amp;M28&amp;","&amp;M29&amp;","&amp;M30</f>
         <v>KRW-STEEM,KRW-POWR,KRW-PUNDIX,KRW-SNT,KRW-IQ,KRW-XEC,KRW-IOTA,KRW-ONG</v>
       </c>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="L22" s="69" t="str">
+      <c r="L22" s="61" t="str">
         <f t="shared" si="3"/>
         <v>STRAXUSDT</v>
       </c>
-      <c r="M22" s="75" t="str">
+      <c r="M22" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-STRAX</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="30" customHeight="1">
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="L23" s="69" t="str">
+      <c r="L23" s="61" t="str">
         <f t="shared" si="3"/>
         <v>STEEMUSDT</v>
       </c>
-      <c r="M23" s="75" t="str">
+      <c r="M23" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-STEEM</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1">
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="L24" s="69" t="str">
+      <c r="L24" s="61" t="str">
         <f t="shared" si="3"/>
         <v>POWRUSDT</v>
       </c>
-      <c r="M24" s="75" t="str">
+      <c r="M24" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-POWR</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="30" customHeight="1">
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="L25" s="69" t="str">
+      <c r="L25" s="61" t="str">
         <f t="shared" si="3"/>
         <v>PUNDIXUSDT</v>
       </c>
-      <c r="M25" s="75" t="str">
+      <c r="M25" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-PUNDIX</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="30" customHeight="1">
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="L26" s="69" t="str">
+      <c r="L26" s="61" t="str">
         <f t="shared" si="3"/>
         <v>SNTUSDT</v>
       </c>
-      <c r="M26" s="75" t="str">
+      <c r="M26" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-SNT</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="30" customHeight="1">
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="L27" s="69" t="str">
+      <c r="L27" s="61" t="str">
         <f t="shared" si="3"/>
         <v>IQUSDT</v>
       </c>
-      <c r="M27" s="75" t="str">
+      <c r="M27" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-IQ</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1">
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="L28" s="69" t="str">
+      <c r="L28" s="61" t="str">
         <f t="shared" si="3"/>
         <v>XECUSDT</v>
       </c>
-      <c r="M28" s="75" t="str">
+      <c r="M28" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-XEC</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="30" customHeight="1">
-      <c r="K29" s="83" t="s">
+      <c r="K29" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="L29" s="69" t="str">
+      <c r="L29" s="61" t="str">
         <f t="shared" si="3"/>
         <v>IOTAUSDT</v>
       </c>
-      <c r="M29" s="75" t="str">
+      <c r="M29" s="67" t="str">
         <f t="shared" si="9"/>
         <v>KRW-IOTA</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" thickBot="1">
-      <c r="K30" s="84" t="s">
+      <c r="K30" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="L30" s="77" t="str">
+      <c r="L30" s="69" t="str">
         <f t="shared" si="3"/>
         <v>ONGUSDT</v>
       </c>
-      <c r="M30" s="78" t="str">
+      <c r="M30" s="70" t="str">
         <f t="shared" si="9"/>
         <v>KRW-ONG</v>
       </c>
@@ -5809,14 +5800,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9389A0E6-D088-2642-AE95-95A22B2B43FB}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="24" width="13.7109375" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="24" width="13.71875" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1">
@@ -5825,1055 +5816,992 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="69" t="str">
+      <c r="C2" s="61" t="str">
         <f>B2&amp;"USDT"</f>
         <v>BTCUSDT</v>
       </c>
-      <c r="D2" s="69" t="str">
+      <c r="D2" s="61" t="str">
         <f>"KRW-"&amp;B2</f>
         <v>KRW-BTC</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="69" t="str">
+      <c r="F2" s="61" t="str">
         <f>E2&amp;"USDT"</f>
         <v>ATOMUSDT</v>
       </c>
-      <c r="G2" s="69" t="str">
+      <c r="G2" s="61" t="str">
         <f>"KRW-"&amp;E2</f>
         <v>KRW-ATOM</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="I2" s="69" t="str">
+      <c r="I2" s="61" t="str">
         <f>H2&amp;"USDT"</f>
         <v>SANDUSDT</v>
       </c>
-      <c r="J2" s="69" t="str">
+      <c r="J2" s="61" t="str">
         <f>"KRW-"&amp;H2</f>
         <v>KRW-SAND</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="69" t="str">
+      <c r="L2" s="61" t="str">
         <f>K2&amp;"USDT"</f>
         <v>KNCUSDT</v>
       </c>
-      <c r="M2" s="69" t="str">
+      <c r="M2" s="61" t="str">
         <f>"KRW-"&amp;K2</f>
         <v>KRW-KNC</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="O2" s="69" t="str">
+      <c r="O2" s="61" t="str">
         <f>N2&amp;"USDT"</f>
         <v>ELFUSDT</v>
       </c>
-      <c r="P2" s="69" t="str">
+      <c r="P2" s="61" t="str">
         <f>"KRW-"&amp;N2</f>
         <v>KRW-ELF</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="R2" s="69" t="str">
+      <c r="R2" s="61" t="str">
         <f>Q2&amp;"USDT"</f>
         <v>ASTRUSDT</v>
       </c>
-      <c r="S2" s="69" t="str">
+      <c r="S2" s="61" t="str">
         <f>"KRW-"&amp;Q2</f>
         <v>KRW-ASTR</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="69" t="str">
+      <c r="C3" s="61" t="str">
         <f t="shared" ref="C3:C15" si="0">B3&amp;"USDT"</f>
         <v>ETHUSDT</v>
       </c>
-      <c r="D3" s="69" t="str">
+      <c r="D3" s="61" t="str">
         <f t="shared" ref="D3:D15" si="1">"KRW-"&amp;B3</f>
         <v>KRW-ETH</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="62" t="s">
         <v>274</v>
       </c>
-      <c r="F3" s="69" t="str">
+      <c r="F3" s="61" t="str">
         <f t="shared" ref="F3:F15" si="2">E3&amp;"USDT"</f>
         <v>SXPUSDT</v>
       </c>
-      <c r="G3" s="69" t="str">
+      <c r="G3" s="61" t="str">
         <f t="shared" ref="G3:G15" si="3">"KRW-"&amp;E3</f>
         <v>KRW-SXP</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="I3" s="69" t="str">
+      <c r="I3" s="61" t="str">
         <f t="shared" ref="I3:I15" si="4">H3&amp;"USDT"</f>
         <v>ETCUSDT</v>
       </c>
-      <c r="J3" s="69" t="str">
+      <c r="J3" s="61" t="str">
         <f t="shared" ref="J3:J15" si="5">"KRW-"&amp;H3</f>
         <v>KRW-ETC</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="L3" s="69" t="str">
+      <c r="L3" s="61" t="str">
         <f t="shared" ref="L3:L15" si="6">K3&amp;"USDT"</f>
         <v>FLOWUSDT</v>
       </c>
-      <c r="M3" s="69" t="str">
+      <c r="M3" s="61" t="str">
         <f t="shared" ref="M3:M15" si="7">"KRW-"&amp;K3</f>
         <v>KRW-FLOW</v>
       </c>
-      <c r="N3" s="70" t="s">
+      <c r="N3" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="O3" s="69" t="str">
+      <c r="O3" s="61" t="str">
         <f t="shared" ref="O3:O15" si="8">N3&amp;"USDT"</f>
         <v>ONTUSDT</v>
       </c>
-      <c r="P3" s="69" t="str">
+      <c r="P3" s="61" t="str">
         <f t="shared" ref="P3:P15" si="9">"KRW-"&amp;N3</f>
         <v>KRW-ONT</v>
       </c>
-      <c r="Q3" s="70" t="s">
+      <c r="Q3" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="R3" s="69" t="str">
+      <c r="R3" s="61" t="str">
         <f t="shared" ref="R3:R8" si="10">Q3&amp;"USDT"</f>
         <v>POLYXUSDT</v>
       </c>
-      <c r="S3" s="69" t="str">
+      <c r="S3" s="61" t="str">
         <f t="shared" ref="S3:S8" si="11">"KRW-"&amp;Q3</f>
         <v>KRW-POLYX</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>SOLUSDT</v>
       </c>
-      <c r="D4" s="69" t="str">
+      <c r="D4" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-SOL</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="69" t="str">
+      <c r="F4" s="61" t="str">
         <f t="shared" si="2"/>
         <v>XTZUSDT</v>
       </c>
-      <c r="G4" s="69" t="str">
+      <c r="G4" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-XTZ</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="69" t="str">
+      <c r="I4" s="61" t="str">
         <f t="shared" si="4"/>
         <v>QTUMUSDT</v>
       </c>
-      <c r="J4" s="69" t="str">
+      <c r="J4" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-QTUM</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="69" t="str">
+      <c r="L4" s="61" t="str">
         <f t="shared" si="6"/>
         <v>CVCUSDT</v>
       </c>
-      <c r="M4" s="69" t="str">
+      <c r="M4" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-CVC</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="O4" s="69" t="str">
+      <c r="O4" s="61" t="str">
         <f t="shared" si="8"/>
         <v>STRAXUSDT</v>
       </c>
-      <c r="P4" s="69" t="str">
+      <c r="P4" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-STRAX</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="R4" s="69" t="str">
+      <c r="R4" s="61" t="str">
         <f t="shared" si="10"/>
         <v>ARBUSDT</v>
       </c>
-      <c r="S4" s="69" t="str">
+      <c r="S4" s="61" t="str">
         <f t="shared" si="11"/>
         <v>KRW-ARB</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="69" t="str">
+      <c r="C5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>AVAXUSDT</v>
       </c>
-      <c r="D5" s="69" t="str">
+      <c r="D5" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-AVAX</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="F5" s="69" t="str">
+      <c r="F5" s="61" t="str">
         <f t="shared" si="2"/>
         <v>NEARUSDT</v>
       </c>
-      <c r="G5" s="69" t="str">
+      <c r="G5" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-NEAR</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="I5" s="69" t="str">
+      <c r="I5" s="61" t="str">
         <f t="shared" si="4"/>
         <v>HBARUSDT</v>
       </c>
-      <c r="J5" s="69" t="str">
+      <c r="J5" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-HBAR</v>
       </c>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="L5" s="69" t="str">
+      <c r="L5" s="61" t="str">
         <f t="shared" si="6"/>
         <v>GASUSDT</v>
       </c>
-      <c r="M5" s="69" t="str">
+      <c r="M5" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-GAS</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="O5" s="69" t="str">
+      <c r="O5" s="61" t="str">
         <f t="shared" si="8"/>
         <v>STEEMUSDT</v>
       </c>
-      <c r="P5" s="69" t="str">
+      <c r="P5" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-STEEM</v>
       </c>
-      <c r="Q5" s="70" t="s">
+      <c r="Q5" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="R5" s="69" t="str">
+      <c r="R5" s="61" t="str">
         <f t="shared" si="10"/>
         <v>APTUSDT</v>
       </c>
-      <c r="S5" s="69" t="str">
+      <c r="S5" s="61" t="str">
         <f t="shared" si="11"/>
         <v>KRW-APT</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="69" t="str">
+      <c r="C6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>DOTUSDT</v>
       </c>
-      <c r="D6" s="69" t="str">
+      <c r="D6" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-DOT</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="69" t="str">
+      <c r="F6" s="61" t="str">
         <f t="shared" si="2"/>
         <v>BCHUSDT</v>
       </c>
-      <c r="G6" s="69" t="str">
+      <c r="G6" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-BCH</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="69" t="str">
+      <c r="I6" s="61" t="str">
         <f t="shared" si="4"/>
         <v>ZRXUSDT</v>
       </c>
-      <c r="J6" s="69" t="str">
+      <c r="J6" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-ZRX</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="62" t="s">
         <v>302</v>
       </c>
-      <c r="L6" s="69" t="str">
+      <c r="L6" s="61" t="str">
         <f t="shared" si="6"/>
         <v>THETAUSDT</v>
       </c>
-      <c r="M6" s="69" t="str">
+      <c r="M6" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-THETA</v>
       </c>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="O6" s="69" t="str">
+      <c r="O6" s="61" t="str">
         <f t="shared" si="8"/>
         <v>POWRUSDT</v>
       </c>
-      <c r="P6" s="69" t="str">
+      <c r="P6" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-POWR</v>
       </c>
-      <c r="Q6" s="70" t="s">
+      <c r="Q6" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="R6" s="69" t="str">
+      <c r="R6" s="61" t="str">
         <f t="shared" si="10"/>
         <v>IMXUSDT</v>
       </c>
-      <c r="S6" s="69" t="str">
+      <c r="S6" s="61" t="str">
         <f t="shared" si="11"/>
         <v>KRW-IMX</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="62" t="s">
         <v>388</v>
       </c>
-      <c r="C7" s="69" t="str">
+      <c r="C7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>SHIBUSDT</v>
       </c>
-      <c r="D7" s="69" t="str">
+      <c r="D7" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-SHIB</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="F7" s="69" t="str">
+      <c r="F7" s="61" t="str">
         <f t="shared" si="2"/>
         <v>EOSUSDT</v>
       </c>
-      <c r="G7" s="69" t="str">
+      <c r="G7" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-EOS</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="I7" s="69" t="str">
+      <c r="I7" s="61" t="str">
         <f t="shared" si="4"/>
         <v>ENSUSDT</v>
       </c>
-      <c r="J7" s="69" t="str">
+      <c r="J7" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-ENS</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="L7" s="69" t="str">
+      <c r="L7" s="61" t="str">
         <f t="shared" si="6"/>
         <v>SCUSDT</v>
       </c>
-      <c r="M7" s="69" t="str">
+      <c r="M7" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-SC</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="O7" s="69" t="str">
+      <c r="O7" s="61" t="str">
         <f t="shared" si="8"/>
         <v>PUNDIXUSDT</v>
       </c>
-      <c r="P7" s="69" t="str">
+      <c r="P7" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-PUNDIX</v>
       </c>
-      <c r="Q7" s="69" t="s">
+      <c r="Q7" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="R7" s="69" t="str">
+      <c r="R7" s="61" t="str">
         <f t="shared" si="10"/>
         <v>IOTAUSDT</v>
       </c>
-      <c r="S7" s="69" t="str">
+      <c r="S7" s="61" t="str">
         <f t="shared" si="11"/>
         <v>KRW-IOTA</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="69" t="str">
+      <c r="C8" s="61" t="str">
         <f t="shared" si="0"/>
         <v>LINKUSDT</v>
       </c>
-      <c r="D8" s="69" t="str">
+      <c r="D8" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-LINK</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="F8" s="69" t="str">
+      <c r="F8" s="61" t="str">
         <f t="shared" si="2"/>
         <v>GRTUSDT</v>
       </c>
-      <c r="G8" s="69" t="str">
+      <c r="G8" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-GRT</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="I8" s="69" t="str">
+      <c r="I8" s="61" t="str">
         <f t="shared" si="4"/>
         <v>CHZUSDT</v>
       </c>
-      <c r="J8" s="69" t="str">
+      <c r="J8" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-CHZ</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="L8" s="69" t="str">
+      <c r="L8" s="61" t="str">
         <f t="shared" si="6"/>
         <v>MASKUSDT</v>
       </c>
-      <c r="M8" s="69" t="str">
+      <c r="M8" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-MASK</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="O8" s="69" t="str">
+      <c r="O8" s="61" t="str">
         <f t="shared" si="8"/>
         <v>SNTUSDT</v>
       </c>
-      <c r="P8" s="69" t="str">
+      <c r="P8" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-SNT</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="R8" s="69" t="str">
+      <c r="R8" s="61" t="str">
         <f t="shared" si="10"/>
         <v>ONGUSDT</v>
       </c>
-      <c r="S8" s="69" t="str">
+      <c r="S8" s="61" t="str">
         <f t="shared" si="11"/>
         <v>KRW-ONG</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="62" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="69" t="str">
+      <c r="C9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ALGOUSDT</v>
       </c>
-      <c r="D9" s="69" t="str">
+      <c r="D9" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-ALGO</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="F9" s="69" t="str">
+      <c r="F9" s="61" t="str">
         <f t="shared" si="2"/>
         <v>TRXUSDT</v>
       </c>
-      <c r="G9" s="69" t="str">
+      <c r="G9" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-TRX</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="I9" s="69" t="str">
+      <c r="I9" s="61" t="str">
         <f t="shared" si="4"/>
         <v>STORJUSDT</v>
       </c>
-      <c r="J9" s="69" t="str">
+      <c r="J9" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-STORJ</v>
       </c>
-      <c r="K9" s="70" t="s">
+      <c r="K9" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="L9" s="69" t="str">
+      <c r="L9" s="61" t="str">
         <f t="shared" si="6"/>
         <v>LSKUSDT</v>
       </c>
-      <c r="M9" s="69" t="str">
+      <c r="M9" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-LSK</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="O9" s="69" t="str">
+      <c r="O9" s="61" t="str">
         <f t="shared" si="8"/>
         <v>IQUSDT</v>
       </c>
-      <c r="P9" s="69" t="str">
+      <c r="P9" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-IQ</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="61" t="str">
         <f t="shared" si="0"/>
         <v>ADAUSDT</v>
       </c>
-      <c r="D10" s="69" t="str">
+      <c r="D10" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-ADA</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="69" t="str">
+      <c r="F10" s="61" t="str">
         <f t="shared" si="2"/>
         <v>BATUSDT</v>
       </c>
-      <c r="G10" s="69" t="str">
+      <c r="G10" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-BAT</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="I10" s="69" t="str">
+      <c r="I10" s="61" t="str">
         <f t="shared" si="4"/>
         <v>CELOUSDT</v>
       </c>
-      <c r="J10" s="69" t="str">
+      <c r="J10" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-CELO</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="L10" s="69" t="str">
+      <c r="L10" s="61" t="str">
         <f t="shared" si="6"/>
         <v>HIVEUSDT</v>
       </c>
-      <c r="M10" s="69" t="str">
+      <c r="M10" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-HIVE</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="O10" s="69" t="str">
+      <c r="O10" s="61" t="str">
         <f t="shared" si="8"/>
         <v>XECUSDT</v>
       </c>
-      <c r="P10" s="69" t="str">
+      <c r="P10" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-XEC</v>
       </c>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="C11" s="69" t="str">
+      <c r="C11" s="61" t="str">
         <f t="shared" si="0"/>
         <v>MANAUSDT</v>
       </c>
-      <c r="D11" s="69" t="str">
+      <c r="D11" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-MANA</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="69" t="str">
+      <c r="F11" s="61" t="str">
         <f t="shared" si="2"/>
         <v>AXSUSDT</v>
       </c>
-      <c r="G11" s="69" t="str">
+      <c r="G11" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-AXS</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="I11" s="69" t="str">
+      <c r="I11" s="61" t="str">
         <f t="shared" si="4"/>
         <v>NEOUSDT</v>
       </c>
-      <c r="J11" s="69" t="str">
+      <c r="J11" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-NEO</v>
       </c>
-      <c r="K11" s="70" t="s">
+      <c r="K11" s="62" t="s">
         <v>425</v>
       </c>
-      <c r="L11" s="69" t="str">
+      <c r="L11" s="61" t="str">
         <f t="shared" si="6"/>
         <v>MINAUSDT</v>
       </c>
-      <c r="M11" s="69" t="str">
+      <c r="M11" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-MINA</v>
       </c>
-      <c r="N11" s="70" t="s">
+      <c r="N11" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="O11" s="69" t="str">
+      <c r="O11" s="61" t="str">
         <f t="shared" si="8"/>
         <v>SEIUSDT</v>
       </c>
-      <c r="P11" s="69" t="str">
+      <c r="P11" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-SEI</v>
       </c>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="69" t="str">
+      <c r="C12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>XRPUSDT</v>
       </c>
-      <c r="D12" s="69" t="str">
+      <c r="D12" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-XRP</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="F12" s="69" t="str">
+      <c r="F12" s="61" t="str">
         <f t="shared" si="2"/>
         <v>VETUSDT</v>
       </c>
-      <c r="G12" s="69" t="str">
+      <c r="G12" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-VET</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="69" t="str">
+      <c r="I12" s="61" t="str">
         <f t="shared" si="4"/>
         <v>TFUELUSDT</v>
       </c>
-      <c r="J12" s="69" t="str">
+      <c r="J12" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-TFUEL</v>
       </c>
-      <c r="K12" s="70" t="s">
+      <c r="K12" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="69" t="str">
+      <c r="L12" s="61" t="str">
         <f t="shared" si="6"/>
         <v>STPTUSDT</v>
       </c>
-      <c r="M12" s="69" t="str">
+      <c r="M12" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-STPT</v>
       </c>
-      <c r="N12" s="70" t="s">
+      <c r="N12" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="O12" s="69" t="str">
+      <c r="O12" s="61" t="str">
         <f t="shared" si="8"/>
         <v>SUIUSDT</v>
       </c>
-      <c r="P12" s="69" t="str">
+      <c r="P12" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-SUI</v>
       </c>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="69" t="str">
+      <c r="C13" s="61" t="str">
         <f t="shared" si="0"/>
         <v>AAVEUSDT</v>
       </c>
-      <c r="D13" s="69" t="str">
+      <c r="D13" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-AAVE</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="69" t="str">
+      <c r="F13" s="61" t="str">
         <f t="shared" si="2"/>
         <v>ANKRUSDT</v>
       </c>
-      <c r="G13" s="69" t="str">
+      <c r="G13" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-ANKR</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="I13" s="69" t="str">
+      <c r="I13" s="61" t="str">
         <f t="shared" si="4"/>
         <v>KAVAUSDT</v>
       </c>
-      <c r="J13" s="69" t="str">
+      <c r="J13" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-KAVA</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="62" t="s">
         <v>307</v>
       </c>
-      <c r="L13" s="69" t="str">
+      <c r="L13" s="61" t="str">
         <f t="shared" si="6"/>
         <v>GLMUSDT</v>
       </c>
-      <c r="M13" s="69" t="str">
+      <c r="M13" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-GLM</v>
       </c>
-      <c r="N13" s="70" t="s">
+      <c r="N13" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="O13" s="69" t="str">
+      <c r="O13" s="61" t="str">
         <f t="shared" si="8"/>
         <v>GMTUSDT</v>
       </c>
-      <c r="P13" s="69" t="str">
+      <c r="P13" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-GMT</v>
       </c>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
     </row>
     <row r="14" spans="1:19" ht="30" customHeight="1">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="C14" s="69" t="str">
+      <c r="C14" s="61" t="str">
         <f t="shared" si="0"/>
         <v>XLMUSDT</v>
       </c>
-      <c r="D14" s="69" t="str">
+      <c r="D14" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-XLM</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="69" t="str">
+      <c r="F14" s="61" t="str">
         <f t="shared" si="2"/>
         <v>1INCHUSDT</v>
       </c>
-      <c r="G14" s="69" t="str">
+      <c r="G14" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-1INCH</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="I14" s="69" t="str">
+      <c r="I14" s="61" t="str">
         <f t="shared" si="4"/>
         <v>ZILUSDT</v>
       </c>
-      <c r="J14" s="69" t="str">
+      <c r="J14" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-ZIL</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="L14" s="69" t="str">
+      <c r="L14" s="61" t="str">
         <f t="shared" si="6"/>
         <v>ARKUSDT</v>
       </c>
-      <c r="M14" s="69" t="str">
+      <c r="M14" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-ARK</v>
       </c>
-      <c r="N14" s="70" t="s">
+      <c r="N14" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="O14" s="69" t="str">
+      <c r="O14" s="61" t="str">
         <f t="shared" si="8"/>
         <v>TUSDT</v>
       </c>
-      <c r="P14" s="69" t="str">
+      <c r="P14" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-T</v>
       </c>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="69" t="str">
+      <c r="C15" s="61" t="str">
         <f t="shared" si="0"/>
         <v>DOGEUSDT</v>
       </c>
-      <c r="D15" s="69" t="str">
+      <c r="D15" s="61" t="str">
         <f t="shared" si="1"/>
         <v>KRW-DOGE</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="69" t="str">
+      <c r="F15" s="61" t="str">
         <f t="shared" si="2"/>
         <v>IOSTUSDT</v>
       </c>
-      <c r="G15" s="69" t="str">
+      <c r="G15" s="61" t="str">
         <f t="shared" si="3"/>
         <v>KRW-IOST</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="I15" s="69" t="str">
+      <c r="I15" s="61" t="str">
         <f t="shared" si="4"/>
         <v>STXUSDT</v>
       </c>
-      <c r="J15" s="69" t="str">
+      <c r="J15" s="61" t="str">
         <f t="shared" si="5"/>
         <v>KRW-STX</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="L15" s="69" t="str">
+      <c r="L15" s="61" t="str">
         <f t="shared" si="6"/>
         <v>JSTUSDT</v>
       </c>
-      <c r="M15" s="69" t="str">
+      <c r="M15" s="61" t="str">
         <f t="shared" si="7"/>
         <v>KRW-JST</v>
       </c>
-      <c r="N15" s="70" t="s">
+      <c r="N15" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="O15" s="69" t="str">
+      <c r="O15" s="61" t="str">
         <f t="shared" si="8"/>
         <v>BLURUSDT</v>
       </c>
-      <c r="P15" s="69" t="str">
+      <c r="P15" s="61" t="str">
         <f t="shared" si="9"/>
         <v>KRW-BLUR</v>
       </c>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-    </row>
-    <row r="17" spans="2:13" ht="30" customHeight="1">
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="2:13" ht="30" customHeight="1">
+      <c r="H16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1">
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1">
       <c r="B18" s="2" t="str">
         <f>C2&amp;","&amp;C3&amp;","&amp;C4&amp;","&amp;C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15</f>
         <v>BTCUSDT,ETHUSDT,SOLUSDT,AVAXUSDT,DOTUSDT,SHIBUSDT,LINKUSDT,ALGOUSDT,ADAUSDT,MANAUSDT,XRPUSDT,AAVEUSDT,XLMUSDT,DOGEUSDT</v>
       </c>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-    </row>
-    <row r="19" spans="2:13" ht="30" customHeight="1">
+    </row>
+    <row r="19" spans="2:11" ht="30" customHeight="1">
       <c r="B19" s="2" t="str">
         <f>D2&amp;","&amp;D3&amp;","&amp;D4&amp;","&amp;D5&amp;","&amp;D6&amp;","&amp;D7&amp;","&amp;D8&amp;","&amp;D9&amp;","&amp;D10&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14&amp;","&amp;D15</f>
         <v>KRW-BTC,KRW-ETH,KRW-SOL,KRW-AVAX,KRW-DOT,KRW-SHIB,KRW-LINK,KRW-ALGO,KRW-ADA,KRW-MANA,KRW-XRP,KRW-AAVE,KRW-XLM,KRW-DOGE</v>
       </c>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-    </row>
-    <row r="20" spans="2:13" ht="30" customHeight="1">
+    </row>
+    <row r="20" spans="2:11" ht="30" customHeight="1">
       <c r="B20" s="2" t="str">
         <f>F2&amp;","&amp;F3&amp;","&amp;F4&amp;","&amp;F5&amp;","&amp;F6&amp;","&amp;F7&amp;","&amp;F8&amp;","&amp;F9&amp;","&amp;F10&amp;","&amp;F11&amp;","&amp;F12&amp;","&amp;F13&amp;","&amp;F14&amp;","&amp;F15</f>
         <v>ATOMUSDT,SXPUSDT,XTZUSDT,NEARUSDT,BCHUSDT,EOSUSDT,GRTUSDT,TRXUSDT,BATUSDT,AXSUSDT,VETUSDT,ANKRUSDT,1INCHUSDT,IOSTUSDT</v>
       </c>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-    </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1">
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1">
       <c r="B21" s="2" t="str">
         <f>G2&amp;","&amp;G3&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;G11&amp;","&amp;G12&amp;","&amp;G13&amp;","&amp;G14&amp;","&amp;G15</f>
         <v>KRW-ATOM,KRW-SXP,KRW-XTZ,KRW-NEAR,KRW-BCH,KRW-EOS,KRW-GRT,KRW-TRX,KRW-BAT,KRW-AXS,KRW-VET,KRW-ANKR,KRW-1INCH,KRW-IOST</v>
       </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-    </row>
-    <row r="22" spans="2:13" ht="30" customHeight="1">
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" customHeight="1">
       <c r="B22" s="2" t="str">
         <f>I2&amp;","&amp;I3&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15</f>
         <v>SANDUSDT,ETCUSDT,QTUMUSDT,HBARUSDT,ZRXUSDT,ENSUSDT,CHZUSDT,STORJUSDT,CELOUSDT,NEOUSDT,TFUELUSDT,KAVAUSDT,ZILUSDT,STXUSDT</v>
       </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-    </row>
-    <row r="23" spans="2:13" ht="30" customHeight="1">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="2:11" ht="30" customHeight="1">
       <c r="B23" s="2" t="str">
         <f>J2&amp;","&amp;J3&amp;","&amp;J4&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15</f>
         <v>KRW-SAND,KRW-ETC,KRW-QTUM,KRW-HBAR,KRW-ZRX,KRW-ENS,KRW-CHZ,KRW-STORJ,KRW-CELO,KRW-NEO,KRW-TFUEL,KRW-KAVA,KRW-ZIL,KRW-STX</v>
       </c>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-    </row>
-    <row r="24" spans="2:13" ht="30" customHeight="1">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="2:11" ht="30" customHeight="1">
       <c r="B24" s="2" t="str">
         <f>L2&amp;","&amp;L3&amp;","&amp;L4&amp;","&amp;L5&amp;","&amp;L6&amp;","&amp;L7&amp;","&amp;L8&amp;","&amp;L9&amp;","&amp;L10&amp;","&amp;L11&amp;","&amp;L12&amp;","&amp;L13&amp;","&amp;L14&amp;","&amp;L15</f>
         <v>KNCUSDT,FLOWUSDT,CVCUSDT,GASUSDT,THETAUSDT,SCUSDT,MASKUSDT,LSKUSDT,HIVEUSDT,MINAUSDT,STPTUSDT,GLMUSDT,ARKUSDT,JSTUSDT</v>
       </c>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-    </row>
-    <row r="25" spans="2:13" ht="30" customHeight="1">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="2:11" ht="30" customHeight="1">
       <c r="B25" s="2" t="str">
         <f>M2&amp;","&amp;M3&amp;","&amp;M4&amp;","&amp;M5&amp;","&amp;M6&amp;","&amp;M7&amp;","&amp;M8&amp;","&amp;M9&amp;","&amp;M10&amp;","&amp;M11&amp;","&amp;M12&amp;","&amp;M13&amp;","&amp;M14&amp;","&amp;M15</f>
         <v>KRW-KNC,KRW-FLOW,KRW-CVC,KRW-GAS,KRW-THETA,KRW-SC,KRW-MASK,KRW-LSK,KRW-HIVE,KRW-MINA,KRW-STPT,KRW-GLM,KRW-ARK,KRW-JST</v>
       </c>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-    </row>
-    <row r="26" spans="2:13" ht="30" customHeight="1">
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="2:11" ht="30" customHeight="1">
       <c r="B26" s="2" t="str">
         <f>O2&amp;","&amp;O3&amp;","&amp;O4&amp;","&amp;O5&amp;","&amp;O6&amp;","&amp;O7&amp;","&amp;O8&amp;","&amp;O9&amp;","&amp;O10&amp;","&amp;O11&amp;","&amp;O12&amp;","&amp;O13&amp;","&amp;O14&amp;","&amp;O15</f>
         <v>ELFUSDT,ONTUSDT,STRAXUSDT,STEEMUSDT,POWRUSDT,PUNDIXUSDT,SNTUSDT,IQUSDT,XECUSDT,SEIUSDT,SUIUSDT,GMTUSDT,TUSDT,BLURUSDT</v>
       </c>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-    </row>
-    <row r="27" spans="2:13" ht="30" customHeight="1">
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="2" t="str">
         <f>P2&amp;","&amp;P3&amp;","&amp;P4&amp;","&amp;P5&amp;","&amp;P6&amp;","&amp;P7&amp;","&amp;P8&amp;","&amp;P9&amp;","&amp;P10&amp;","&amp;P11&amp;","&amp;P12&amp;","&amp;P13&amp;","&amp;P14&amp;","&amp;P15</f>
         <v>KRW-ELF,KRW-ONT,KRW-STRAX,KRW-STEEM,KRW-POWR,KRW-PUNDIX,KRW-SNT,KRW-IQ,KRW-XEC,KRW-SEI,KRW-SUI,KRW-GMT,KRW-T,KRW-BLUR</v>
       </c>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-    </row>
-    <row r="28" spans="2:13" ht="30" customHeight="1">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="2:11" ht="30" customHeight="1">
       <c r="B28" s="2" t="str">
         <f>R2&amp;","&amp;R3&amp;","&amp;R4&amp;","&amp;R5&amp;","&amp;R6&amp;","&amp;R7&amp;","&amp;R8</f>
         <v>ASTRUSDT,POLYXUSDT,ARBUSDT,APTUSDT,IMXUSDT,IOTAUSDT,ONGUSDT</v>
       </c>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-    </row>
-    <row r="29" spans="2:13" ht="30" customHeight="1">
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="2:11" ht="30" customHeight="1">
       <c r="B29" s="2" t="str">
         <f>S2&amp;","&amp;S3&amp;","&amp;S4&amp;","&amp;S5&amp;","&amp;S6&amp;","&amp;S7&amp;","&amp;S8</f>
         <v>KRW-ASTR,KRW-POLYX,KRW-ARB,KRW-APT,KRW-IMX,KRW-IOTA,KRW-ONG</v>
       </c>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-    </row>
-    <row r="30" spans="2:13" ht="30" customHeight="1">
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-    </row>
-    <row r="31" spans="2:13" ht="30" customHeight="1"/>
-    <row r="32" spans="2:13" ht="30" customHeight="1"/>
+    </row>
+    <row r="30" spans="2:11" ht="30" customHeight="1"/>
+    <row r="31" spans="2:11" ht="30" customHeight="1"/>
+    <row r="32" spans="2:11" ht="30" customHeight="1"/>
     <row r="33" s="2" customFormat="1" ht="30" customHeight="1"/>
     <row r="34" s="2" customFormat="1" ht="30" customHeight="1"/>
     <row r="35" s="2" customFormat="1" ht="30" customHeight="1"/>
@@ -6897,515 +6825,509 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="13.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="15" width="13.71875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30" customHeight="1"/>
     <row r="2" spans="2:11" ht="30" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="69" t="str">
+      <c r="C2" s="61" t="str">
         <f>B2&amp;"USDT"</f>
         <v>BTCUSDT</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="69" t="str">
+      <c r="E2" s="61" t="str">
         <f>D2&amp;"USDT"</f>
         <v>XLMUSDT</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="69" t="str">
+      <c r="G2" s="61" t="str">
         <f>F2&amp;"USDT"</f>
         <v>SANDUSDT</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="69" t="str">
+      <c r="I2" s="61" t="str">
         <f>H2&amp;"USDT"</f>
         <v>AXSUSDT</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="K2" s="69" t="str">
-        <f>J2&amp;"USDT"</f>
+      <c r="K2" s="61" t="str">
+        <f t="shared" ref="K2:K12" si="0">J2&amp;"USDT"</f>
         <v>TUSDT</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="30" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="69" t="str">
-        <f t="shared" ref="C3:C15" si="0">B3&amp;"USDT"</f>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3:C15" si="1">B3&amp;"USDT"</f>
         <v>ETHUSDT</v>
       </c>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="E3" s="69" t="str">
-        <f t="shared" ref="E3:E15" si="1">D3&amp;"USDT"</f>
+      <c r="E3" s="61" t="str">
+        <f t="shared" ref="E3:E15" si="2">D3&amp;"USDT"</f>
         <v>BCHUSDT</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="69" t="str">
-        <f t="shared" ref="G3:G15" si="2">F3&amp;"USDT"</f>
+      <c r="G3" s="61" t="str">
+        <f t="shared" ref="G3:G15" si="3">F3&amp;"USDT"</f>
         <v>ZRXUSDT</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="I3" s="69" t="str">
-        <f t="shared" ref="I3:I15" si="3">H3&amp;"USDT"</f>
+      <c r="I3" s="61" t="str">
+        <f t="shared" ref="I3:I15" si="4">H3&amp;"USDT"</f>
         <v>MASKUSDT</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="K3" s="69" t="str">
-        <f>J3&amp;"USDT"</f>
+      <c r="K3" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>POLYXUSDT</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="30" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLUSDT</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>ETCUSDT</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>APTUSDT</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>NEOUSDT</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>SOLUSDT</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="E4" s="69" t="str">
+        <v>ONTUSDT</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1">
+      <c r="B5" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>ETCUSDT</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="G4" s="69" t="str">
+        <v>DOGEUSDT</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>APTUSDT</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>293</v>
-      </c>
-      <c r="I4" s="69" t="str">
+        <v>EOSUSDT</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>NEOUSDT</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="K4" s="69" t="str">
-        <f>J4&amp;"USDT"</f>
-        <v>ONTUSDT</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1">
-      <c r="B5" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="69" t="str">
+        <v>FLOWUSDT</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>STORJUSDT</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>DOGEUSDT</v>
-      </c>
-      <c r="D5" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="69" t="str">
+        <v>PUNDIXUSDT</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1">
+      <c r="B6" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>EOSUSDT</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="69" t="str">
+        <v>ADAUSDT</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>FLOWUSDT</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>292</v>
-      </c>
-      <c r="I5" s="69" t="str">
+        <v>XTZUSDT</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>STORJUSDT</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" s="69" t="str">
-        <f>J5&amp;"USDT"</f>
-        <v>PUNDIXUSDT</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1">
-      <c r="B6" s="70" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="69" t="str">
+        <v>CVCUSDT</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>STEEMUSDT</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="K6" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>ADAUSDT</v>
-      </c>
-      <c r="D6" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="E6" s="69" t="str">
+        <v>ASTRUSDT</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1">
+      <c r="B7" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>XTZUSDT</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" s="69" t="str">
+        <v>ATOMUSDT</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>CVCUSDT</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" s="69" t="str">
+        <v>TRXUSDT</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>STEEMUSDT</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="K6" s="69" t="str">
-        <f>J6&amp;"USDT"</f>
-        <v>ASTRUSDT</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="30" customHeight="1">
-      <c r="B7" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="C7" s="69" t="str">
+        <v>BATUSDT</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>SXPUSDT</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>ATOMUSDT</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="69" t="str">
+        <v>POWRUSDT</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1">
+      <c r="B8" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>TRXUSDT</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="69" t="str">
+        <v>LINKUSDT</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>BATUSDT</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="I7" s="69" t="str">
+        <v>MANAUSDT</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>SXPUSDT</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="69" t="str">
-        <f>J7&amp;"USDT"</f>
-        <v>POWRUSDT</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1">
-      <c r="B8" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="69" t="str">
+        <v>STPTUSDT</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>THETAUSDT</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>LINKUSDT</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="69" t="str">
+        <v>STRAXUSDT</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1">
+      <c r="B9" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>MANAUSDT</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="G8" s="69" t="str">
+        <v>XRPUSDT</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>STPTUSDT</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" s="69" t="str">
+        <v>NEARUSDT</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>THETAUSDT</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="K8" s="69" t="str">
-        <f>J8&amp;"USDT"</f>
-        <v>STRAXUSDT</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1">
-      <c r="B9" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" s="69" t="str">
+        <v>KNCUSDT</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>QTUMUSDT</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="K9" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>XRPUSDT</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="E9" s="69" t="str">
+        <v>TFUELUSDT</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1">
+      <c r="B10" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>NEARUSDT</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="69" t="str">
+        <v>DOTUSDT</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>KNCUSDT</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="I9" s="69" t="str">
+        <v>ENSUSDT</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="G10" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>QTUMUSDT</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>294</v>
-      </c>
-      <c r="K9" s="69" t="str">
-        <f>J9&amp;"USDT"</f>
-        <v>TFUELUSDT</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1">
-      <c r="B10" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="69" t="str">
+        <v>CELOUSDT</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>ZILUSDT</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="K10" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>DOTUSDT</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="69" t="str">
+        <v>XECUSDT</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1">
+      <c r="B11" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>ENSUSDT</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="G10" s="69" t="str">
+        <v>SHIBUSDT</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>CELOUSDT</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="69" t="str">
+        <v>1INCHUSDT</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>ZILUSDT</v>
-      </c>
-      <c r="J10" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="K10" s="69" t="str">
-        <f>J10&amp;"USDT"</f>
-        <v>XECUSDT</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1">
-      <c r="B11" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" s="69" t="str">
+        <v>IOSTUSDT</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>GMTUSDT</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>SHIBUSDT</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="E11" s="69" t="str">
+        <v>HIVEUSDT</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1">
+      <c r="B12" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>1INCHUSDT</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="G11" s="69" t="str">
+        <v>ALGOUSDT</v>
+      </c>
+      <c r="D12" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E12" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>IOSTUSDT</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="I11" s="69" t="str">
+        <v>ANKRUSDT</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>GMTUSDT</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="K11" s="69" t="str">
-        <f>J11&amp;"USDT"</f>
-        <v>HIVEUSDT</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1">
-      <c r="B12" s="70" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="69" t="str">
+        <v>VETUSDT</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="I12" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>LSKUSDT</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="K12" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>ALGOUSDT</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>ANKRUSDT</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>VETUSDT</v>
-      </c>
-      <c r="H12" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v>LSKUSDT</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="K12" s="69" t="str">
-        <f>J12&amp;"USDT"</f>
         <v>ONGUSDT</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="30" customHeight="1">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="C13" s="69" t="str">
+      <c r="C13" s="61" t="str">
         <f>B13&amp;"USDT"</f>
         <v>HBARUSDT</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="88" t="s">
         <v>393</v>
       </c>
-      <c r="E13" s="69" t="str">
+      <c r="E13" s="61" t="str">
         <f>D13&amp;"USDT"</f>
         <v>GRTUSDT</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="G13" s="69" t="str">
+      <c r="G13" s="61" t="str">
         <f>F13&amp;"USDT"</f>
         <v>KAVAUSDT</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="I13" s="69" t="str">
+      <c r="I13" s="61" t="str">
         <f>H13&amp;"USDT"</f>
         <v>SCUSDT</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1">
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="C14" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>AAVEUSDT</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="E14" s="69" t="str">
+      <c r="E14" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>IMXUSDT</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>MINAUSDT</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>ELFUSDT</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1">
+      <c r="B15" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>IMXUSDT</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="G14" s="69" t="str">
+        <v>AVAXUSDT</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>MINAUSDT</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="I14" s="69" t="str">
+        <v>CHZUSDT</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="G15" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>ELFUSDT</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1">
-      <c r="B15" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="C15" s="69" t="str">
-        <f t="shared" si="0"/>
-        <v>AVAXUSDT</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>CHZUSDT</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" s="69" t="str">
-        <f t="shared" si="2"/>
         <v>STXUSDT</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="I15" s="69" t="str">
-        <f t="shared" si="3"/>
+      <c r="I15" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>JSTUSDT</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1"/>
     <row r="17" spans="1:2" ht="30" customHeight="1"/>
@@ -7492,10 +7414,10 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="13.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="15" width="13.71875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="30" customHeight="1"/>
@@ -7503,36 +7425,36 @@
       <c r="B2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="69" t="str">
-        <f>"KRW-"&amp;B2</f>
+      <c r="C2" s="61" t="str">
+        <f t="shared" ref="C2:C15" si="0">"KRW-"&amp;B2</f>
         <v>KRW-BTC</v>
       </c>
       <c r="D2" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="69" t="str">
-        <f>"KRW-"&amp;D2</f>
+      <c r="E2" s="61" t="str">
+        <f t="shared" ref="E2:E15" si="1">"KRW-"&amp;D2</f>
         <v>KRW-BCH</v>
       </c>
       <c r="F2" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="69" t="str">
-        <f>"KRW-"&amp;F2</f>
+      <c r="G2" s="61" t="str">
+        <f t="shared" ref="G2:G15" si="2">"KRW-"&amp;F2</f>
         <v>KRW-FLOW</v>
       </c>
       <c r="H2" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="69" t="str">
+      <c r="I2" s="61" t="str">
         <f>"KRW-"&amp;H2</f>
         <v>KRW-SXP</v>
       </c>
       <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="69" t="str">
-        <f>"KRW-"&amp;J2</f>
+      <c r="K2" s="61" t="str">
+        <f t="shared" ref="K2:K11" si="3">"KRW-"&amp;J2</f>
         <v>KRW-ARK</v>
       </c>
     </row>
@@ -7540,36 +7462,36 @@
       <c r="B3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="69" t="str">
-        <f>"KRW-"&amp;B3</f>
+      <c r="C3" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ETH</v>
       </c>
       <c r="D3" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="69" t="str">
-        <f>"KRW-"&amp;D3</f>
+      <c r="E3" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ETC</v>
       </c>
       <c r="F3" t="s">
         <v>300</v>
       </c>
-      <c r="G3" s="69" t="str">
-        <f>"KRW-"&amp;F3</f>
+      <c r="G3" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-CVC</v>
       </c>
       <c r="H3" t="s">
         <v>302</v>
       </c>
-      <c r="I3" s="69" t="str">
+      <c r="I3" s="61" t="str">
         <f>"KRW-"&amp;H3</f>
         <v>KRW-THETA</v>
       </c>
       <c r="J3" t="s">
         <v>311</v>
       </c>
-      <c r="K3" s="69" t="str">
-        <f>"KRW-"&amp;J3</f>
+      <c r="K3" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-ONT</v>
       </c>
     </row>
@@ -7577,36 +7499,36 @@
       <c r="B4" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="69" t="str">
-        <f>"KRW-"&amp;B4</f>
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-SOL</v>
       </c>
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="69" t="str">
-        <f>"KRW-"&amp;D4</f>
+      <c r="E4" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-EOS</v>
       </c>
       <c r="F4" t="s">
         <v>280</v>
       </c>
-      <c r="G4" s="69" t="str">
-        <f>"KRW-"&amp;F4</f>
+      <c r="G4" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-BAT</v>
       </c>
       <c r="H4" t="s">
         <v>288</v>
       </c>
-      <c r="I4" s="69" t="str">
+      <c r="I4" s="61" t="str">
         <f>"KRW-"&amp;H4</f>
         <v>KRW-QTUM</v>
       </c>
       <c r="J4" t="s">
         <v>315</v>
       </c>
-      <c r="K4" s="69" t="str">
-        <f>"KRW-"&amp;J4</f>
+      <c r="K4" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-PUNDIX</v>
       </c>
     </row>
@@ -7614,36 +7536,36 @@
       <c r="B5" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="69" t="str">
-        <f>"KRW-"&amp;B5</f>
+      <c r="C5" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-DOGE</v>
       </c>
       <c r="D5" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="69" t="str">
-        <f>"KRW-"&amp;D5</f>
+      <c r="E5" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-XTZ</v>
       </c>
       <c r="F5" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="69" t="str">
-        <f>"KRW-"&amp;F5</f>
+      <c r="G5" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-STPT</v>
       </c>
       <c r="H5" t="s">
         <v>296</v>
       </c>
-      <c r="I5" s="69" t="str">
+      <c r="I5" s="61" t="str">
         <f>"KRW-"&amp;H5</f>
         <v>KRW-ZIL</v>
       </c>
       <c r="J5" t="s">
         <v>314</v>
       </c>
-      <c r="K5" s="69" t="str">
-        <f>"KRW-"&amp;J5</f>
+      <c r="K5" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-POWR</v>
       </c>
     </row>
@@ -7651,36 +7573,36 @@
       <c r="B6" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="69" t="str">
-        <f>"KRW-"&amp;B6</f>
+      <c r="C6" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ADA</v>
       </c>
       <c r="D6" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="69" t="str">
-        <f>"KRW-"&amp;D6</f>
+      <c r="E6" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-TRX</v>
       </c>
       <c r="F6" t="s">
         <v>298</v>
       </c>
-      <c r="G6" s="69" t="str">
-        <f>"KRW-"&amp;F6</f>
+      <c r="G6" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-KNC</v>
       </c>
       <c r="H6" t="s">
         <v>399</v>
       </c>
-      <c r="I6" s="69" t="str">
+      <c r="I6" s="61" t="str">
         <f>"KRW-"&amp;H6</f>
         <v>KRW-GMT</v>
       </c>
       <c r="J6" t="s">
         <v>312</v>
       </c>
-      <c r="K6" s="69" t="str">
-        <f>"KRW-"&amp;J6</f>
+      <c r="K6" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-STRAX</v>
       </c>
     </row>
@@ -7688,36 +7610,36 @@
       <c r="B7" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="69" t="str">
-        <f>"KRW-"&amp;B7</f>
+      <c r="C7" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ATOM</v>
       </c>
       <c r="D7" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="69" t="str">
-        <f>"KRW-"&amp;D7</f>
+      <c r="E7" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-MANA</v>
       </c>
       <c r="F7" t="s">
         <v>376</v>
       </c>
-      <c r="G7" s="69" t="str">
-        <f>"KRW-"&amp;F7</f>
+      <c r="G7" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-CELO</v>
       </c>
       <c r="H7" t="s">
         <v>304</v>
       </c>
-      <c r="I7" s="69" t="str">
-        <f t="shared" ref="I7:I12" si="0">"KRW-"&amp;H7</f>
+      <c r="I7" s="61" t="str">
+        <f t="shared" ref="I7:I12" si="4">"KRW-"&amp;H7</f>
         <v>KRW-LSK</v>
       </c>
       <c r="J7" t="s">
         <v>294</v>
       </c>
-      <c r="K7" s="69" t="str">
-        <f>"KRW-"&amp;J7</f>
+      <c r="K7" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-TFUEL</v>
       </c>
     </row>
@@ -7725,36 +7647,36 @@
       <c r="B8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="69" t="str">
-        <f>"KRW-"&amp;B8</f>
+      <c r="C8" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-LINK</v>
       </c>
       <c r="D8" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="69" t="str">
-        <f>"KRW-"&amp;D8</f>
+      <c r="E8" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-NEAR</v>
       </c>
       <c r="F8" t="s">
         <v>285</v>
       </c>
-      <c r="G8" s="69" t="str">
-        <f>"KRW-"&amp;F8</f>
+      <c r="G8" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-IOST</v>
       </c>
       <c r="H8" t="s">
         <v>303</v>
       </c>
-      <c r="I8" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="I8" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-SC</v>
       </c>
       <c r="J8" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="69" t="str">
-        <f>"KRW-"&amp;J8</f>
+      <c r="K8" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-XEC</v>
       </c>
     </row>
@@ -7762,36 +7684,36 @@
       <c r="B9" t="s">
         <v>269</v>
       </c>
-      <c r="C9" s="69" t="str">
-        <f>"KRW-"&amp;B9</f>
+      <c r="C9" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-XRP</v>
       </c>
       <c r="D9" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="69" t="str">
-        <f>"KRW-"&amp;D9</f>
+      <c r="E9" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-GAS</v>
       </c>
       <c r="F9" t="s">
         <v>282</v>
       </c>
-      <c r="G9" s="69" t="str">
-        <f>"KRW-"&amp;F9</f>
+      <c r="G9" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-VET</v>
       </c>
       <c r="H9" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="I9" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-ELF</v>
       </c>
       <c r="J9" t="s">
         <v>305</v>
       </c>
-      <c r="K9" s="69" t="str">
-        <f>"KRW-"&amp;J9</f>
+      <c r="K9" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-HIVE</v>
       </c>
     </row>
@@ -7799,36 +7721,36 @@
       <c r="B10" t="s">
         <v>261</v>
       </c>
-      <c r="C10" s="69" t="str">
-        <f>"KRW-"&amp;B10</f>
+      <c r="C10" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-DOT</v>
       </c>
       <c r="D10" t="s">
         <v>284</v>
       </c>
-      <c r="E10" s="69" t="str">
-        <f>"KRW-"&amp;D10</f>
+      <c r="E10" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-1INCH</v>
       </c>
       <c r="F10" t="s">
         <v>295</v>
       </c>
-      <c r="G10" s="69" t="str">
-        <f>"KRW-"&amp;F10</f>
+      <c r="G10" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-KAVA</v>
       </c>
       <c r="H10" t="s">
         <v>309</v>
       </c>
-      <c r="I10" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="I10" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-JST</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="K10" s="69" t="str">
-        <f>"KRW-"&amp;J10</f>
+      <c r="K10" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-ONG</v>
       </c>
     </row>
@@ -7836,36 +7758,36 @@
       <c r="B11" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="69" t="str">
-        <f>"KRW-"&amp;B11</f>
+      <c r="C11" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ALGO</v>
       </c>
       <c r="D11" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="69" t="str">
-        <f>"KRW-"&amp;D11</f>
+      <c r="E11" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ANKR</v>
       </c>
       <c r="F11" t="s">
         <v>297</v>
       </c>
-      <c r="G11" s="69" t="str">
-        <f>"KRW-"&amp;F11</f>
+      <c r="G11" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-STX</v>
       </c>
       <c r="H11" t="s">
         <v>404</v>
       </c>
-      <c r="I11" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="I11" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-T</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="K11" s="69" t="str">
-        <f>"KRW-"&amp;J11</f>
+      <c r="K11" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-IOTA</v>
       </c>
     </row>
@@ -7873,129 +7795,123 @@
       <c r="B12" t="s">
         <v>289</v>
       </c>
-      <c r="C12" s="69" t="str">
-        <f>"KRW-"&amp;B12</f>
+      <c r="C12" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-HBAR</v>
       </c>
       <c r="D12" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="69" t="str">
-        <f>"KRW-"&amp;D12</f>
+      <c r="E12" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-CHZ</v>
       </c>
       <c r="F12" t="s">
         <v>281</v>
       </c>
-      <c r="G12" s="69" t="str">
-        <f>"KRW-"&amp;F12</f>
+      <c r="G12" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-AXS</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="I12" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="I12" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-SNT</v>
       </c>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="30" customHeight="1">
       <c r="B13" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="69" t="str">
-        <f>"KRW-"&amp;B13</f>
+      <c r="C13" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-AAVE</v>
       </c>
       <c r="D13" t="s">
         <v>286</v>
       </c>
-      <c r="E13" s="69" t="str">
-        <f>"KRW-"&amp;D13</f>
+      <c r="E13" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-SAND</v>
       </c>
       <c r="F13" t="s">
         <v>293</v>
       </c>
-      <c r="G13" s="69" t="str">
-        <f>"KRW-"&amp;F13</f>
+      <c r="G13" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-NEO</v>
       </c>
       <c r="H13" t="s">
         <v>307</v>
       </c>
-      <c r="I13" s="69" t="str">
+      <c r="I13" s="61" t="str">
         <f>"KRW-"&amp;H13</f>
         <v>KRW-GLM</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1">
       <c r="B14" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="69" t="str">
-        <f>"KRW-"&amp;B14</f>
+      <c r="C14" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-AVAX</v>
       </c>
       <c r="D14" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="69" t="str">
-        <f>"KRW-"&amp;D14</f>
+      <c r="E14" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ZRX</v>
       </c>
       <c r="F14" t="s">
         <v>292</v>
       </c>
-      <c r="G14" s="69" t="str">
-        <f>"KRW-"&amp;F14</f>
+      <c r="G14" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-STORJ</v>
       </c>
       <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="I14" s="69" t="str">
+      <c r="I14" s="61" t="str">
         <f>"KRW-"&amp;H14</f>
         <v>KRW-IQ</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="2:11" ht="30" customHeight="1">
       <c r="B15" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="69" t="str">
-        <f>"KRW-"&amp;B15</f>
+      <c r="C15" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-XLM</v>
       </c>
       <c r="D15" t="s">
         <v>407</v>
       </c>
-      <c r="E15" s="69" t="str">
-        <f>"KRW-"&amp;D15</f>
+      <c r="E15" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-APT</v>
       </c>
       <c r="F15" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="69" t="str">
-        <f>"KRW-"&amp;F15</f>
+      <c r="G15" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-STEEM</v>
       </c>
       <c r="H15" t="s">
         <v>411</v>
       </c>
-      <c r="I15" s="69" t="str">
+      <c r="I15" s="61" t="str">
         <f>"KRW-"&amp;H15</f>
         <v>KRW-POLYX</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
     </row>
     <row r="16" spans="2:11" ht="30" customHeight="1"/>
     <row r="17" spans="1:2" ht="30" customHeight="1"/>
@@ -8078,588 +7994,588 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27E6194-3024-384B-A958-1CFA484B1DC1}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="14" width="13.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="14" width="13.71875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="30" customHeight="1"/>
     <row r="2" spans="2:13" ht="30" customHeight="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="69" t="str">
+      <c r="C2" s="61" t="str">
         <f>B2&amp;"USDT"</f>
         <v>BTCUSDT</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="69" t="str">
+      <c r="E2" s="61" t="str">
         <f>D2&amp;"USDT"</f>
         <v>DOGEUSDT</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="62" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="69" t="str">
+      <c r="G2" s="61" t="str">
         <f>F2&amp;"USDT"</f>
         <v>GMTUSDT</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="62" t="s">
         <v>417</v>
       </c>
-      <c r="I2" s="69" t="str">
+      <c r="I2" s="61" t="str">
         <f>H2&amp;"USDT"</f>
         <v>ENSUSDT</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="69" t="str">
-        <f>J2&amp;"USDT"</f>
+      <c r="K2" s="61" t="str">
+        <f t="shared" ref="K2:K11" si="0">J2&amp;"USDT"</f>
         <v>CVCUSDT</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="62" t="s">
         <v>308</v>
       </c>
-      <c r="M2" s="69" t="str">
-        <f>L2&amp;"USDT"</f>
+      <c r="M2" s="61" t="str">
+        <f t="shared" ref="M2:M9" si="1">L2&amp;"USDT"</f>
         <v>ARKUSDT</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="30" customHeight="1">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="69" t="str">
-        <f t="shared" ref="C3:C15" si="0">B3&amp;"USDT"</f>
+      <c r="C3" s="61" t="str">
+        <f t="shared" ref="C3:C15" si="2">B3&amp;"USDT"</f>
         <v>ETHUSDT</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="69" t="str">
-        <f t="shared" ref="E3:E15" si="1">D3&amp;"USDT"</f>
+      <c r="E3" s="61" t="str">
+        <f t="shared" ref="E3:E15" si="3">D3&amp;"USDT"</f>
         <v>STXUSDT</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="69" t="str">
-        <f t="shared" ref="G3:G15" si="2">F3&amp;"USDT"</f>
+      <c r="G3" s="61" t="str">
+        <f t="shared" ref="G3:G15" si="4">F3&amp;"USDT"</f>
         <v>SANDUSDT</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="I3" s="69" t="str">
-        <f t="shared" ref="I3:I15" si="3">H3&amp;"USDT"</f>
+      <c r="I3" s="61" t="str">
+        <f t="shared" ref="I3:I15" si="5">H3&amp;"USDT"</f>
         <v>ASTRUSDT</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="K3" s="69" t="str">
-        <f>J3&amp;"USDT"</f>
+      <c r="K3" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>SCUSDT</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="M3" s="69" t="str">
-        <f>L3&amp;"USDT"</f>
+      <c r="M3" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>STEEMUSDT</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="30" customHeight="1">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="69" t="str">
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>SOLUSDT</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>XLMUSDT</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>BLURUSDT</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>KAVAUSDT</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="K4" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>SOLUSDT</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="69" t="str">
+        <v>POWRUSDT</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>XLMUSDT</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="G4" s="69" t="str">
+        <v>IOSTUSDT</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="30" customHeight="1">
+      <c r="B5" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>BLURUSDT</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="69" t="str">
+        <v>AVAXUSDT</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>KAVAUSDT</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="69" t="str">
-        <f>J4&amp;"USDT"</f>
-        <v>POWRUSDT</v>
-      </c>
-      <c r="L4" s="70" t="s">
-        <v>285</v>
-      </c>
-      <c r="M4" s="69" t="str">
-        <f>L4&amp;"USDT"</f>
-        <v>IOSTUSDT</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="30" customHeight="1">
-      <c r="B5" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" s="69" t="str">
+        <v>IMXUSDT</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>FLOWUSDT</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="I5" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>CHZUSDT</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>AVAXUSDT</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>389</v>
-      </c>
-      <c r="E5" s="69" t="str">
+        <v>IDUSDT</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="M5" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>IMXUSDT</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="69" t="str">
+        <v>IQUSDT</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="30" customHeight="1">
+      <c r="B6" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>FLOWUSDT</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="69" t="str">
+        <v>SEIUSDT</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>CHZUSDT</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>414</v>
-      </c>
-      <c r="K5" s="69" t="str">
-        <f>J5&amp;"USDT"</f>
-        <v>IDUSDT</v>
-      </c>
-      <c r="L5" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="M5" s="69" t="str">
-        <f>L5&amp;"USDT"</f>
-        <v>IQUSDT</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="30" customHeight="1">
-      <c r="B6" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C6" s="69" t="str">
+        <v>GRTUSDT</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>AXSUSDT</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>CELOUSDT</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>SEIUSDT</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="69" t="str">
+        <v>ZILUSDT</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="M6" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>GRTUSDT</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="69" t="str">
+        <v>STPTUSDT</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="30" customHeight="1">
+      <c r="B7" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>AXSUSDT</v>
-      </c>
-      <c r="H6" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="I6" s="69" t="str">
+        <v>XRPUSDT</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>CELOUSDT</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="K6" s="69" t="str">
-        <f>J6&amp;"USDT"</f>
-        <v>ZILUSDT</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="M6" s="69" t="str">
-        <f>L6&amp;"USDT"</f>
-        <v>STPTUSDT</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="30" customHeight="1">
-      <c r="B7" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="69" t="str">
+        <v>HBARUSDT</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>MANAUSDT</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>1INCHUSDT</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K7" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>XRPUSDT</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>289</v>
-      </c>
-      <c r="E7" s="69" t="str">
+        <v>TUSDT</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="M7" s="61" t="str">
         <f t="shared" si="1"/>
-        <v>HBARUSDT</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="69" t="str">
+        <v>XECUSDT</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="30" customHeight="1">
+      <c r="B8" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>MANAUSDT</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" s="69" t="str">
+        <v>LINKUSDT</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>1INCHUSDT</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="K7" s="69" t="str">
-        <f>J7&amp;"USDT"</f>
-        <v>TUSDT</v>
-      </c>
-      <c r="L7" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="M7" s="69" t="str">
-        <f>L7&amp;"USDT"</f>
-        <v>XECUSDT</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="30" customHeight="1">
-      <c r="B8" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="69" t="str">
+        <v>ATOMUSDT</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>BATUSDT</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>QTUMUSDT</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>LINKUSDT</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>ATOMUSDT</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>BATUSDT</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v>QTUMUSDT</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="K8" s="69" t="str">
-        <f>J8&amp;"USDT"</f>
         <v>GLMUSDT</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>320</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f>L8&amp;"USDT"</f>
+        <f t="shared" si="1"/>
         <v>IOTAUSDT</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" customHeight="1">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="69" t="str">
+      <c r="C9" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>ADAUSDT</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>ALGOUSDT</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>STORJUSDT</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>STRAXUSDT</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="K9" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>ADAUSDT</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E9" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>ALGOUSDT</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v>STORJUSDT</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="I9" s="69" t="str">
-        <f t="shared" si="3"/>
-        <v>STRAXUSDT</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="K9" s="69" t="str">
-        <f>J9&amp;"USDT"</f>
         <v>ELFUSDT</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>322</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>L9&amp;"USDT"</f>
+        <f t="shared" si="1"/>
         <v>ONGUSDT</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" customHeight="1">
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="69" t="str">
+      <c r="C10" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>ARBUSDT</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>SHIBUSDT</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>TRXUSDT</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>408</v>
+      </c>
+      <c r="I10" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>MASKUSDT</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="K10" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>ARBUSDT</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="E10" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>SHIBUSDT</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="69" t="str">
+        <v>SXPUSDT</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="30" customHeight="1">
+      <c r="B11" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>TRXUSDT</v>
-      </c>
-      <c r="H10" s="70" t="s">
-        <v>408</v>
-      </c>
-      <c r="I10" s="69" t="str">
+        <v>DOTUSDT</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>MASKUSDT</v>
-      </c>
-      <c r="J10" s="70" t="s">
-        <v>274</v>
-      </c>
-      <c r="K10" s="69" t="str">
-        <f>J10&amp;"USDT"</f>
-        <v>SXPUSDT</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="30" customHeight="1">
-      <c r="B11" s="70" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="69" t="str">
+        <v>SUIUSDT</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="61" t="str">
+        <f t="shared" si="4"/>
+        <v>XTZUSDT</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="I11" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>KNCUSDT</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>DOTUSDT</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>SUIUSDT</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="G11" s="69" t="str">
+        <v>THETAUSDT</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="30" customHeight="1">
+      <c r="B12" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>XTZUSDT</v>
-      </c>
-      <c r="H11" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="I11" s="69" t="str">
+        <v>AAVEUSDT</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>KNCUSDT</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="K11" s="69" t="str">
-        <f>J11&amp;"USDT"</f>
-        <v>THETAUSDT</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="30" customHeight="1">
-      <c r="B12" s="70" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="69" t="str">
-        <f t="shared" si="0"/>
-        <v>AAVEUSDT</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="69" t="str">
-        <f t="shared" si="1"/>
         <v>ETCUSDT</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="69" t="str">
-        <f t="shared" si="2"/>
+      <c r="G12" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>NEOUSDT</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="I12" s="69" t="str">
-        <f t="shared" si="3"/>
+      <c r="I12" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>HIVEUSDT</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="K12" s="69" t="str">
-        <f t="shared" ref="K12:K15" si="4">J12&amp;"USDT"</f>
+      <c r="K12" s="61" t="str">
+        <f t="shared" ref="K12:K15" si="6">J12&amp;"USDT"</f>
         <v>JSTUSDT</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="30" customHeight="1">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="69" t="str">
+      <c r="C13" s="61" t="str">
         <f>B13&amp;"USDT"</f>
         <v>BCHUSDT</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="69" t="str">
+      <c r="E13" s="61" t="str">
         <f>D13&amp;"USDT"</f>
         <v>VETUSDT</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="G13" s="69" t="str">
+      <c r="G13" s="61" t="str">
         <f>F13&amp;"USDT"</f>
         <v>ZRXUSDT</v>
       </c>
-      <c r="H13" s="70" t="s">
+      <c r="H13" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="I13" s="69" t="str">
+      <c r="I13" s="61" t="str">
         <f>H13&amp;"USDT"</f>
         <v>ONTUSDT</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="K13" s="69" t="str">
+      <c r="K13" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v>TFUELUSDT</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="30" customHeight="1">
+      <c r="B14" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="61" t="str">
+        <f t="shared" si="2"/>
+        <v>NEARUSDT</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>407</v>
+      </c>
+      <c r="E14" s="61" t="str">
+        <f t="shared" si="3"/>
+        <v>APTUSDT</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G14" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>TFUELUSDT</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="30" customHeight="1">
-      <c r="B14" s="70" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="69" t="str">
-        <f t="shared" si="0"/>
-        <v>NEARUSDT</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>APTUSDT</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="69" t="str">
+        <v>GASUSDT</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" s="61" t="str">
+        <f t="shared" si="5"/>
+        <v>LSKUSDT</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="61" t="str">
+        <f t="shared" si="6"/>
+        <v>PUNDIXUSDT</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1">
+      <c r="B15" s="62" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="61" t="str">
         <f t="shared" si="2"/>
-        <v>GASUSDT</v>
-      </c>
-      <c r="H14" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" s="69" t="str">
+        <v>MINAUSDT</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>LSKUSDT</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="K14" s="69" t="str">
+        <v>EOSUSDT</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="G15" s="61" t="str">
         <f t="shared" si="4"/>
-        <v>PUNDIXUSDT</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="30" customHeight="1">
-      <c r="B15" s="70" t="s">
-        <v>425</v>
-      </c>
-      <c r="C15" s="69" t="str">
-        <f t="shared" si="0"/>
-        <v>MINAUSDT</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v>EOSUSDT</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="69" t="str">
-        <f t="shared" si="2"/>
         <v>ANKRUSDT</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="I15" s="69" t="str">
-        <f t="shared" si="3"/>
+      <c r="I15" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>SNTUSDT</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="K15" s="69" t="str">
-        <f t="shared" si="4"/>
+      <c r="K15" s="61" t="str">
+        <f t="shared" si="6"/>
         <v>POLYXUSDT</v>
       </c>
     </row>
@@ -8696,9 +8612,9 @@
       <c r="A21" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>I2&amp;","&amp;I3&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15</f>
-        <v>ENSUSDT,ASTRUSDT,KAVAUSDT,CHZUSDT,CELOUSDT,1INCHUSDT,QTUMUSDT,STRAXUSDT,MASKUSDT,KNCUSDT,HIVEUSDT,ONTUSDT,LSKUSDT,SNTUSDT</v>
+      <c r="B21" s="2">
+        <f>M22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1">
@@ -8755,10 +8671,10 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="14" width="13.7109375" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="14" width="13.71875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.71875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="30" customHeight="1"/>
@@ -8766,43 +8682,43 @@
       <c r="B2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="69" t="str">
-        <f>"KRW-"&amp;B2</f>
+      <c r="C2" s="61" t="str">
+        <f t="shared" ref="C2:C15" si="0">"KRW-"&amp;B2</f>
         <v>KRW-BTC</v>
       </c>
       <c r="D2" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="69" t="str">
-        <f>"KRW-"&amp;D2</f>
+      <c r="E2" s="61" t="str">
+        <f t="shared" ref="E2:E15" si="1">"KRW-"&amp;D2</f>
         <v>KRW-DOGE</v>
       </c>
       <c r="F2" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="69" t="str">
-        <f>"KRW-"&amp;F2</f>
+      <c r="G2" s="61" t="str">
+        <f t="shared" ref="G2:G15" si="2">"KRW-"&amp;F2</f>
         <v>KRW-GMT</v>
       </c>
       <c r="H2" t="s">
         <v>398</v>
       </c>
-      <c r="I2" s="69" t="str">
-        <f>"KRW-"&amp;H2</f>
+      <c r="I2" s="61" t="str">
+        <f t="shared" ref="I2:I15" si="3">"KRW-"&amp;H2</f>
         <v>KRW-ASTR</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
       </c>
-      <c r="K2" s="69" t="str">
-        <f>"KRW-"&amp;J2</f>
+      <c r="K2" s="61" t="str">
+        <f t="shared" ref="K2:K11" si="4">"KRW-"&amp;J2</f>
         <v>KRW-SC</v>
       </c>
       <c r="L2" t="s">
         <v>285</v>
       </c>
-      <c r="M2" s="69" t="str">
-        <f>"KRW-"&amp;L2</f>
+      <c r="M2" s="61" t="str">
+        <f t="shared" ref="M2:M7" si="5">"KRW-"&amp;L2</f>
         <v>KRW-IOST</v>
       </c>
     </row>
@@ -8810,43 +8726,43 @@
       <c r="B3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="69" t="str">
-        <f>"KRW-"&amp;B3</f>
+      <c r="C3" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ETH</v>
       </c>
       <c r="D3" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="69" t="str">
-        <f>"KRW-"&amp;D3</f>
+      <c r="E3" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-STX</v>
       </c>
       <c r="F3" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="69" t="str">
-        <f>"KRW-"&amp;F3</f>
+      <c r="G3" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-SAND</v>
       </c>
       <c r="H3" t="s">
         <v>295</v>
       </c>
-      <c r="I3" s="69" t="str">
-        <f>"KRW-"&amp;H3</f>
+      <c r="I3" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-KAVA</v>
       </c>
       <c r="J3" t="s">
         <v>314</v>
       </c>
-      <c r="K3" s="69" t="str">
-        <f>"KRW-"&amp;J3</f>
+      <c r="K3" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-POWR</v>
       </c>
       <c r="L3" t="s">
         <v>317</v>
       </c>
-      <c r="M3" s="69" t="str">
-        <f>"KRW-"&amp;L3</f>
+      <c r="M3" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>KRW-IQ</v>
       </c>
     </row>
@@ -8854,43 +8770,43 @@
       <c r="B4" t="s">
         <v>391</v>
       </c>
-      <c r="C4" s="69" t="str">
-        <f>"KRW-"&amp;B4</f>
+      <c r="C4" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-SOL</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="69" t="str">
-        <f>"KRW-"&amp;D4</f>
+      <c r="E4" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-XLM</v>
       </c>
       <c r="F4" t="s">
         <v>390</v>
       </c>
-      <c r="G4" s="69" t="str">
-        <f>"KRW-"&amp;F4</f>
+      <c r="G4" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-BLUR</v>
       </c>
       <c r="H4" t="s">
         <v>291</v>
       </c>
-      <c r="I4" s="69" t="str">
-        <f>"KRW-"&amp;H4</f>
+      <c r="I4" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-CHZ</v>
       </c>
       <c r="J4" t="s">
         <v>296</v>
       </c>
-      <c r="K4" s="69" t="str">
-        <f>"KRW-"&amp;J4</f>
+      <c r="K4" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-ZIL</v>
       </c>
       <c r="L4" t="s">
         <v>306</v>
       </c>
-      <c r="M4" s="69" t="str">
-        <f>"KRW-"&amp;L4</f>
+      <c r="M4" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>KRW-STPT</v>
       </c>
     </row>
@@ -8898,43 +8814,43 @@
       <c r="B5" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="69" t="str">
-        <f>"KRW-"&amp;B5</f>
+      <c r="C5" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-AVAX</v>
       </c>
       <c r="D5" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="69" t="str">
-        <f>"KRW-"&amp;D5</f>
+      <c r="E5" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-IMX</v>
       </c>
       <c r="F5" t="s">
         <v>299</v>
       </c>
-      <c r="G5" s="69" t="str">
-        <f>"KRW-"&amp;F5</f>
+      <c r="G5" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-FLOW</v>
       </c>
       <c r="H5" t="s">
         <v>376</v>
       </c>
-      <c r="I5" s="69" t="str">
-        <f>"KRW-"&amp;H5</f>
+      <c r="I5" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-CELO</v>
       </c>
       <c r="J5" t="s">
         <v>404</v>
       </c>
-      <c r="K5" s="69" t="str">
-        <f>"KRW-"&amp;J5</f>
+      <c r="K5" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-T</v>
       </c>
       <c r="L5" t="s">
         <v>318</v>
       </c>
-      <c r="M5" s="69" t="str">
-        <f>"KRW-"&amp;L5</f>
+      <c r="M5" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>KRW-XEC</v>
       </c>
     </row>
@@ -8942,43 +8858,43 @@
       <c r="B6" t="s">
         <v>397</v>
       </c>
-      <c r="C6" s="69" t="str">
-        <f>"KRW-"&amp;B6</f>
+      <c r="C6" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-SEI</v>
       </c>
       <c r="D6" t="s">
         <v>393</v>
       </c>
-      <c r="E6" s="69" t="str">
-        <f>"KRW-"&amp;D6</f>
+      <c r="E6" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-GRT</v>
       </c>
       <c r="F6" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="69" t="str">
-        <f>"KRW-"&amp;F6</f>
+      <c r="G6" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-AXS</v>
       </c>
       <c r="H6" t="s">
         <v>284</v>
       </c>
-      <c r="I6" s="69" t="str">
-        <f>"KRW-"&amp;H6</f>
+      <c r="I6" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-1INCH</v>
       </c>
       <c r="J6" t="s">
         <v>307</v>
       </c>
-      <c r="K6" s="69" t="str">
-        <f>"KRW-"&amp;J6</f>
+      <c r="K6" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-GLM</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="M6" s="69" t="str">
-        <f>"KRW-"&amp;L6</f>
+      <c r="M6" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>KRW-IOTA</v>
       </c>
     </row>
@@ -8986,43 +8902,43 @@
       <c r="B7" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="69" t="str">
-        <f>"KRW-"&amp;B7</f>
+      <c r="C7" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-XRP</v>
       </c>
       <c r="D7" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="69" t="str">
-        <f>"KRW-"&amp;D7</f>
+      <c r="E7" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-HBAR</v>
       </c>
       <c r="F7" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="69" t="str">
-        <f>"KRW-"&amp;F7</f>
+      <c r="G7" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-MANA</v>
       </c>
       <c r="H7" t="s">
         <v>288</v>
       </c>
-      <c r="I7" s="69" t="str">
-        <f>"KRW-"&amp;H7</f>
+      <c r="I7" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-QTUM</v>
       </c>
       <c r="J7" t="s">
         <v>310</v>
       </c>
-      <c r="K7" s="69" t="str">
-        <f>"KRW-"&amp;J7</f>
+      <c r="K7" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-ELF</v>
       </c>
-      <c r="L7" s="70" t="s">
+      <c r="L7" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="M7" s="69" t="str">
-        <f>"KRW-"&amp;L7</f>
+      <c r="M7" s="61" t="str">
+        <f t="shared" si="5"/>
         <v>KRW-ONG</v>
       </c>
     </row>
@@ -9030,36 +8946,36 @@
       <c r="B8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="69" t="str">
-        <f>"KRW-"&amp;B8</f>
+      <c r="C8" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-LINK</v>
       </c>
       <c r="D8" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="69" t="str">
-        <f>"KRW-"&amp;D8</f>
+      <c r="E8" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ATOM</v>
       </c>
       <c r="F8" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="69" t="str">
-        <f>"KRW-"&amp;F8</f>
+      <c r="G8" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-BAT</v>
       </c>
       <c r="H8" t="s">
         <v>312</v>
       </c>
-      <c r="I8" s="69" t="str">
-        <f>"KRW-"&amp;H8</f>
+      <c r="I8" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-STRAX</v>
       </c>
       <c r="J8" t="s">
         <v>274</v>
       </c>
-      <c r="K8" s="69" t="str">
-        <f>"KRW-"&amp;J8</f>
+      <c r="K8" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-SXP</v>
       </c>
     </row>
@@ -9067,36 +8983,36 @@
       <c r="B9" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="69" t="str">
-        <f>"KRW-"&amp;B9</f>
+      <c r="C9" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ADA</v>
       </c>
       <c r="D9" t="s">
         <v>420</v>
       </c>
-      <c r="E9" s="69" t="str">
-        <f>"KRW-"&amp;D9</f>
+      <c r="E9" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ALGO</v>
       </c>
       <c r="F9" t="s">
         <v>292</v>
       </c>
-      <c r="G9" s="69" t="str">
-        <f>"KRW-"&amp;F9</f>
+      <c r="G9" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-STORJ</v>
       </c>
       <c r="H9" t="s">
         <v>408</v>
       </c>
-      <c r="I9" s="69" t="str">
-        <f>"KRW-"&amp;H9</f>
+      <c r="I9" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-MASK</v>
       </c>
       <c r="J9" t="s">
         <v>302</v>
       </c>
-      <c r="K9" s="69" t="str">
-        <f>"KRW-"&amp;J9</f>
+      <c r="K9" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-THETA</v>
       </c>
     </row>
@@ -9104,36 +9020,36 @@
       <c r="B10" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="69" t="str">
-        <f>"KRW-"&amp;B10</f>
+      <c r="C10" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-ARB</v>
       </c>
       <c r="D10" t="s">
         <v>388</v>
       </c>
-      <c r="E10" s="69" t="str">
-        <f>"KRW-"&amp;D10</f>
+      <c r="E10" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-SHIB</v>
       </c>
       <c r="F10" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="69" t="str">
-        <f>"KRW-"&amp;F10</f>
+      <c r="G10" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-TRX</v>
       </c>
       <c r="H10" t="s">
         <v>298</v>
       </c>
-      <c r="I10" s="69" t="str">
-        <f>"KRW-"&amp;H10</f>
+      <c r="I10" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-KNC</v>
       </c>
       <c r="J10" t="s">
         <v>309</v>
       </c>
-      <c r="K10" s="69" t="str">
-        <f>"KRW-"&amp;J10</f>
+      <c r="K10" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-JST</v>
       </c>
     </row>
@@ -9141,36 +9057,36 @@
       <c r="B11" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="69" t="str">
-        <f>"KRW-"&amp;B11</f>
+      <c r="C11" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-DOT</v>
       </c>
       <c r="D11" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="69" t="str">
-        <f>"KRW-"&amp;D11</f>
+      <c r="E11" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-SUI</v>
       </c>
       <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="69" t="str">
-        <f>"KRW-"&amp;F11</f>
+      <c r="G11" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-XTZ</v>
       </c>
       <c r="H11" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="69" t="str">
-        <f>"KRW-"&amp;H11</f>
+      <c r="I11" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-HIVE</v>
       </c>
       <c r="J11" t="s">
         <v>294</v>
       </c>
-      <c r="K11" s="69" t="str">
-        <f>"KRW-"&amp;J11</f>
+      <c r="K11" s="61" t="str">
+        <f t="shared" si="4"/>
         <v>KRW-TFUEL</v>
       </c>
     </row>
@@ -9178,36 +9094,36 @@
       <c r="B12" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="69" t="str">
-        <f>"KRW-"&amp;B12</f>
+      <c r="C12" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-AAVE</v>
       </c>
       <c r="D12" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="69" t="str">
-        <f>"KRW-"&amp;D12</f>
+      <c r="E12" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-ETC</v>
       </c>
       <c r="F12" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="69" t="str">
-        <f>"KRW-"&amp;F12</f>
+      <c r="G12" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-NEO</v>
       </c>
       <c r="H12" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="69" t="str">
-        <f>"KRW-"&amp;H12</f>
+      <c r="I12" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-ONT</v>
       </c>
       <c r="J12" t="s">
         <v>315</v>
       </c>
-      <c r="K12" s="69" t="str">
-        <f t="shared" ref="K12:K15" si="0">"KRW-"&amp;J12</f>
+      <c r="K12" s="61" t="str">
+        <f t="shared" ref="K12:K15" si="6">"KRW-"&amp;J12</f>
         <v>KRW-PUNDIX</v>
       </c>
     </row>
@@ -9215,36 +9131,36 @@
       <c r="B13" t="s">
         <v>277</v>
       </c>
-      <c r="C13" s="69" t="str">
-        <f>"KRW-"&amp;B13</f>
+      <c r="C13" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-BCH</v>
       </c>
       <c r="D13" t="s">
         <v>282</v>
       </c>
-      <c r="E13" s="69" t="str">
-        <f>"KRW-"&amp;D13</f>
+      <c r="E13" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-VET</v>
       </c>
       <c r="F13" t="s">
         <v>290</v>
       </c>
-      <c r="G13" s="69" t="str">
-        <f>"KRW-"&amp;F13</f>
+      <c r="G13" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-ZRX</v>
       </c>
       <c r="H13" t="s">
         <v>304</v>
       </c>
-      <c r="I13" s="69" t="str">
-        <f>"KRW-"&amp;H13</f>
+      <c r="I13" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-LSK</v>
       </c>
       <c r="J13" t="s">
         <v>411</v>
       </c>
-      <c r="K13" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="K13" s="61" t="str">
+        <f t="shared" si="6"/>
         <v>KRW-POLYX</v>
       </c>
     </row>
@@ -9252,36 +9168,36 @@
       <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="69" t="str">
-        <f>"KRW-"&amp;B14</f>
+      <c r="C14" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-NEAR</v>
       </c>
       <c r="D14" t="s">
         <v>407</v>
       </c>
-      <c r="E14" s="69" t="str">
-        <f>"KRW-"&amp;D14</f>
+      <c r="E14" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-APT</v>
       </c>
       <c r="F14" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="69" t="str">
-        <f>"KRW-"&amp;F14</f>
+      <c r="G14" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-GAS</v>
       </c>
       <c r="H14" t="s">
         <v>316</v>
       </c>
-      <c r="I14" s="69" t="str">
-        <f>"KRW-"&amp;H14</f>
+      <c r="I14" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-SNT</v>
       </c>
       <c r="J14" t="s">
         <v>308</v>
       </c>
-      <c r="K14" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="K14" s="61" t="str">
+        <f t="shared" si="6"/>
         <v>KRW-ARK</v>
       </c>
     </row>
@@ -9289,36 +9205,36 @@
       <c r="B15" t="s">
         <v>425</v>
       </c>
-      <c r="C15" s="69" t="str">
-        <f>"KRW-"&amp;B15</f>
+      <c r="C15" s="61" t="str">
+        <f t="shared" si="0"/>
         <v>KRW-MINA</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="69" t="str">
-        <f>"KRW-"&amp;D15</f>
+      <c r="E15" s="61" t="str">
+        <f t="shared" si="1"/>
         <v>KRW-EOS</v>
       </c>
       <c r="F15" t="s">
         <v>283</v>
       </c>
-      <c r="G15" s="69" t="str">
-        <f>"KRW-"&amp;F15</f>
+      <c r="G15" s="61" t="str">
+        <f t="shared" si="2"/>
         <v>KRW-ANKR</v>
       </c>
       <c r="H15" t="s">
         <v>300</v>
       </c>
-      <c r="I15" s="69" t="str">
-        <f>"KRW-"&amp;H15</f>
+      <c r="I15" s="61" t="str">
+        <f t="shared" si="3"/>
         <v>KRW-CVC</v>
       </c>
       <c r="J15" t="s">
         <v>313</v>
       </c>
-      <c r="K15" s="69" t="str">
-        <f t="shared" si="0"/>
+      <c r="K15" s="61" t="str">
+        <f t="shared" si="6"/>
         <v>KRW-STEEM</v>
       </c>
     </row>
@@ -9414,25 +9330,25 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.149999999999999"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" style="34"/>
-    <col min="3" max="3" width="40.7109375" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="34"/>
+    <col min="1" max="2" width="10.71875" style="34"/>
+    <col min="3" max="3" width="40.71875" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.71875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1">
+    <row r="1" spans="1:7" ht="25.05" customHeight="1">
       <c r="A1" s="6"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" ht="25" customHeight="1">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.05" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="43" t="s">
         <v>218</v>
@@ -9453,7 +9369,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1">
+    <row r="3" spans="1:7" ht="25.05" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="35">
         <v>1</v>
@@ -9474,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1">
+    <row r="4" spans="1:7" ht="25.05" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="35">
         <f>B3+1</f>
@@ -9496,7 +9412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1">
+    <row r="5" spans="1:7" ht="25.05" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="35">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
@@ -9518,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25" customHeight="1">
+    <row r="6" spans="1:7" ht="25.05" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="35">
         <f t="shared" si="0"/>
@@ -9540,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25" customHeight="1">
+    <row r="7" spans="1:7" ht="25.05" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="35">
         <f t="shared" si="0"/>
@@ -9560,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25" customHeight="1">
+    <row r="8" spans="1:7" ht="25.05" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="35">
         <f t="shared" si="0"/>
@@ -9580,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25" customHeight="1">
+    <row r="9" spans="1:7" ht="25.05" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="35">
         <f t="shared" si="0"/>
@@ -9600,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25" customHeight="1">
+    <row r="10" spans="1:7" ht="25.05" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
@@ -9620,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1">
+    <row r="11" spans="1:7" ht="25.05" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="35">
         <f t="shared" si="0"/>
@@ -9640,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25" customHeight="1">
+    <row r="12" spans="1:7" ht="25.05" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
@@ -9660,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25" customHeight="1">
+    <row r="13" spans="1:7" ht="25.05" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
@@ -9680,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25" customHeight="1">
+    <row r="14" spans="1:7" ht="25.05" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
@@ -9700,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25" customHeight="1">
+    <row r="15" spans="1:7" ht="25.05" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="35">
         <f t="shared" si="0"/>
@@ -9720,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25" customHeight="1">
+    <row r="16" spans="1:7" ht="25.05" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="35">
         <f t="shared" si="0"/>
@@ -9740,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25" customHeight="1">
+    <row r="17" spans="1:7" ht="25.05" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="35">
         <f t="shared" si="0"/>
@@ -9760,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1">
+    <row r="18" spans="1:7" ht="25.05" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="35">
         <f t="shared" si="0"/>
@@ -9780,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25" customHeight="1">
+    <row r="19" spans="1:7" ht="25.05" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="35">
         <f t="shared" si="0"/>
@@ -9800,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1">
+    <row r="20" spans="1:7" ht="25.05" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="35">
         <f t="shared" si="0"/>
@@ -9820,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25" customHeight="1">
+    <row r="21" spans="1:7" ht="25.05" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="39">
         <f>B20+1</f>

--- a/crypto_data/코인 종류 모음.xlsx
+++ b/crypto_data/코인 종류 모음.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63924cf84bb7f716/바탕 화면/DB금융공모전/데이터분석/StockDream/crypto_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{89CE7FC1-F1C7-884A-B2C6-D06DB074F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C9EEC53-FED9-4BD6-912E-555A06579C3A}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{89CE7FC1-F1C7-884A-B2C6-D06DB074F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E384A4F6-FABA-40A5-8088-0639A38105EC}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1013" windowWidth="18165" windowHeight="11767" firstSheet="1" activeTab="5" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
+    <workbookView xWindow="1470" yWindow="1013" windowWidth="18165" windowHeight="11767" firstSheet="1" activeTab="6" xr2:uid="{808B5C0F-1D36-4241-9BF5-0CA831AE37D7}"/>
   </bookViews>
   <sheets>
     <sheet name="코인모음" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="439">
   <si>
     <t>binance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1552,6 +1552,30 @@
   </si>
   <si>
     <t>Upbit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-BTC,KRW-ETH,KRW-SOL;KRW-AVAX,KRW-SEI,KRW-XRP;KRW-LINK,KRW-ADA,KRW-ARB;KRW-DOT,KRW-AAVE,KRW-BCH;KRW-NEAR,KRW-MINA;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-DOGE,KRW-STX,KRW-XLM;KRW-IMX,KRW-GRT,KRW-HBAR;KRW-ATOM,KRW-ALGO,KRW-SHIB;KRW-SUI,KRW-ETC,KRW-VET;KRW-APT,KRW-EOS;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-GMT,KRW-SAND,KRW-BLUR;KRW-FLOW,KRW-AXS,KRW-MANA;KRW-BAT,KRW-STORJ,KRW-TRX;KRW-XTZ,KRW-NEO,KRW-ZRX;KRW-GAS,KRW-ANKR;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-ASTR,KRW-KAVA,KRW-CHZ;KRW-CELO,KRW-1INCH,KRW-QTUM;KRW-STRAX,KRW-MASK,KRW-KNC;KRW-HIVE,KRW-ONT,KRW-LSK;KRW-SNT,KRW-CVC;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-SC,KRW-POWR,KRW-ZIL;KRW-T,KRW-GLM,KRW-ELF;KRW-SXP,KRW-THETA,KRW-JST;KRW-TFUEL,KRW-PUNDIX,KRW-POLYX;KRW-ARK,KRW-STEEM;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW-IOST,KRW-IQ,KRW-STPT;KRW-XEC,KRW-IOTA,KRW-ONG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2434,6 +2458,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2450,21 +2489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2837,42 +2861,42 @@
     <row r="1" spans="1:31" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:31" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="6"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="89" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="89" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="94" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="89" t="s">
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="89" t="s">
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="89" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="91"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="96"/>
       <c r="AA2" s="1" t="s">
         <v>374</v>
       </c>
@@ -2885,60 +2909,60 @@
     </row>
     <row r="3" spans="1:31" ht="30" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="97"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="80" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="96"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="98"/>
+      <c r="K3" s="92"/>
       <c r="L3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="95" t="s">
+      <c r="N3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="96"/>
+      <c r="O3" s="90"/>
       <c r="P3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="96"/>
+      <c r="S3" s="90"/>
       <c r="T3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="96"/>
+      <c r="W3" s="90"/>
       <c r="X3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4985,18 +5009,18 @@
     <sortCondition ref="AD2:AD80"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5008,7 +5032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C5BD9-C352-D247-90D7-39BC98CF59A8}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -7994,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27E6194-3024-384B-A958-1CFA484B1DC1}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -8667,7 +8691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AACA1C-74F1-3849-9C8C-A0054007EDB3}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -9244,54 +9268,48 @@
       <c r="A18" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B18" s="2" t="str">
-        <f>C2&amp;","&amp;C3&amp;","&amp;C4&amp;","&amp;C5&amp;","&amp;C6&amp;","&amp;C7&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14&amp;","&amp;C15</f>
-        <v>KRW-BTC,KRW-ETH,KRW-SOL,KRW-AVAX,KRW-SEI,KRW-XRP,KRW-LINK,KRW-ADA,KRW-ARB,KRW-DOT,KRW-AAVE,KRW-BCH,KRW-NEAR,KRW-MINA</v>
+      <c r="B18" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B19" s="2" t="str">
-        <f>E2&amp;","&amp;E3&amp;","&amp;E4&amp;","&amp;E5&amp;","&amp;E6&amp;","&amp;E7&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10&amp;","&amp;E11&amp;","&amp;E12&amp;","&amp;E13&amp;","&amp;E14&amp;","&amp;E15</f>
-        <v>KRW-DOGE,KRW-STX,KRW-XLM,KRW-IMX,KRW-GRT,KRW-HBAR,KRW-ATOM,KRW-ALGO,KRW-SHIB,KRW-SUI,KRW-ETC,KRW-VET,KRW-APT,KRW-EOS</v>
+      <c r="B19" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B20" s="2" t="str">
-        <f>G2&amp;","&amp;G3&amp;","&amp;G4&amp;","&amp;G5&amp;","&amp;G6&amp;","&amp;G7&amp;","&amp;G8&amp;","&amp;G9&amp;","&amp;G10&amp;","&amp;G11&amp;","&amp;G12&amp;","&amp;G13&amp;","&amp;G14&amp;","&amp;G15</f>
-        <v>KRW-GMT,KRW-SAND,KRW-BLUR,KRW-FLOW,KRW-AXS,KRW-MANA,KRW-BAT,KRW-STORJ,KRW-TRX,KRW-XTZ,KRW-NEO,KRW-ZRX,KRW-GAS,KRW-ANKR</v>
+      <c r="B20" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B21" s="2" t="str">
-        <f>I2&amp;","&amp;I3&amp;","&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15</f>
-        <v>KRW-ASTR,KRW-KAVA,KRW-CHZ,KRW-CELO,KRW-1INCH,KRW-QTUM,KRW-STRAX,KRW-MASK,KRW-KNC,KRW-HIVE,KRW-ONT,KRW-LSK,KRW-SNT,KRW-CVC</v>
+      <c r="B21" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>K2&amp;","&amp;K3&amp;","&amp;K4&amp;","&amp;K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15</f>
-        <v>KRW-SC,KRW-POWR,KRW-ZIL,KRW-T,KRW-GLM,KRW-ELF,KRW-SXP,KRW-THETA,KRW-JST,KRW-TFUEL,KRW-PUNDIX,KRW-POLYX,KRW-ARK,KRW-STEEM</v>
+      <c r="B22" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>M2&amp;","&amp;M3&amp;","&amp;M4&amp;","&amp;M5&amp;","&amp;M6&amp;","&amp;M7</f>
-        <v>KRW-IOST,KRW-IQ,KRW-STPT,KRW-XEC,KRW-IOTA,KRW-ONG</v>
+      <c r="B23" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1"/>
